--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_4/forecast_point_GW2.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_4/forecast_point_GW2.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.6911232123790416</v>
+        <v>2.718583653321685</v>
       </c>
       <c r="C2" t="n">
-        <v>2.9709215604184847</v>
+        <v>2.9994705261472165</v>
       </c>
       <c r="D2" t="n">
-        <v>2.941425882469784</v>
+        <v>2.9239442888941185</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0894558858467462</v>
+        <v>3.0673830644652695</v>
       </c>
       <c r="F2" t="n">
-        <v>3.0376005992059514</v>
+        <v>2.9994705261472165</v>
       </c>
       <c r="G2" t="n">
-        <v>2.7019937387440796</v>
+        <v>2.705013351315213</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6911232123790416</v>
+        <v>2.7538899348741284</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9709215604184847</v>
+        <v>3.029278928069415</v>
       </c>
       <c r="J2" t="n">
-        <v>2.941425882469784</v>
+        <v>2.9274544259985174</v>
       </c>
       <c r="K2" t="n">
-        <v>3.0894558858467462</v>
+        <v>2.979315255874306</v>
       </c>
       <c r="L2" t="n">
-        <v>3.0376005992059514</v>
+        <v>2.8256889186444285</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>3.3540795554890344</v>
+        <v>3.3876203510439247</v>
       </c>
       <c r="C10" t="n">
-        <v>3.560638150972286</v>
+        <v>3.5544271896843695</v>
       </c>
       <c r="D10" t="n">
-        <v>3.4119086620294317</v>
+        <v>3.423621937399748</v>
       </c>
       <c r="E10" t="n">
-        <v>3.2200362632640185</v>
+        <v>3.2429466026136353</v>
       </c>
       <c r="F10" t="n">
-        <v>3.706482408572501</v>
+        <v>3.677379072079518</v>
       </c>
       <c r="G10" t="n">
-        <v>3.6632444530872643</v>
+        <v>3.595961087467236</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3540795554890344</v>
+        <v>3.571797633625312</v>
       </c>
       <c r="I10" t="n">
-        <v>3.560638150972286</v>
+        <v>3.1656917858173275</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4119086620294317</v>
+        <v>3.2250594183196735</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2200362632640185</v>
+        <v>3.595961087467236</v>
       </c>
       <c r="L10" t="n">
-        <v>3.706482408572501</v>
+        <v>3.2429466026136353</v>
       </c>
     </row>
     <row r="11">
@@ -562,34 +562,34 @@
         <v>3.6949393239348023</v>
       </c>
       <c r="C13" t="n">
-        <v>3.288899572319078</v>
+        <v>3.290836594099012</v>
       </c>
       <c r="D13" t="n">
-        <v>3.441339089994117</v>
+        <v>3.44958864032258</v>
       </c>
       <c r="E13" t="n">
-        <v>3.5403427512765533</v>
+        <v>3.5215383468708845</v>
       </c>
       <c r="F13" t="n">
-        <v>3.443775351156423</v>
+        <v>3.432058265413521</v>
       </c>
       <c r="G13" t="n">
-        <v>3.765618116273604</v>
+        <v>3.7107296605552045</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6949393239348023</v>
+        <v>3.6994371197012708</v>
       </c>
       <c r="I13" t="n">
-        <v>3.288899572319078</v>
+        <v>3.2262076349746103</v>
       </c>
       <c r="J13" t="n">
-        <v>3.441339089994117</v>
+        <v>3.712996449025974</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5403427512765533</v>
+        <v>3.7752640915908082</v>
       </c>
       <c r="L13" t="n">
-        <v>3.443775351156423</v>
+        <v>3.6483644579022845</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1.7131104500578358</v>
+        <v>1.6959793455572574</v>
       </c>
       <c r="C19" t="n">
-        <v>1.8419629539927898</v>
+        <v>1.834162162861216</v>
       </c>
       <c r="D19" t="n">
-        <v>1.762738708420797</v>
+        <v>1.737367636804796</v>
       </c>
       <c r="E19" t="n">
-        <v>1.777507498403346</v>
+        <v>1.768759938225991</v>
       </c>
       <c r="F19" t="n">
-        <v>1.8064474914961752</v>
+        <v>1.7777944657436908</v>
       </c>
       <c r="G19" t="n">
-        <v>1.877674752462543</v>
+        <v>1.8148747681943318</v>
       </c>
       <c r="H19" t="n">
-        <v>1.7131104500578358</v>
+        <v>1.9701093391254296</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8419629539927898</v>
+        <v>1.737367636804796</v>
       </c>
       <c r="J19" t="n">
-        <v>1.762738708420797</v>
+        <v>1.6626718941947691</v>
       </c>
       <c r="K19" t="n">
-        <v>1.777507498403346</v>
+        <v>1.9065574256867568</v>
       </c>
       <c r="L19" t="n">
-        <v>1.8064474914961752</v>
+        <v>1.9264906833617959</v>
       </c>
     </row>
     <row r="20">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>2.36033821908299</v>
+        <v>2.431863619661262</v>
       </c>
       <c r="C26" t="n">
-        <v>2.295111693914568</v>
+        <v>2.3902933000111495</v>
       </c>
       <c r="D26" t="n">
-        <v>2.0150013188013673</v>
+        <v>2.0781849392851774</v>
       </c>
       <c r="E26" t="n">
-        <v>2.3246987708711964</v>
+        <v>2.4079338429995154</v>
       </c>
       <c r="F26" t="n">
-        <v>2.259819402463223</v>
+        <v>2.3501203044842245</v>
       </c>
       <c r="G26" t="n">
-        <v>2.068086870317219</v>
+        <v>2.1824417098930535</v>
       </c>
       <c r="H26" t="n">
-        <v>2.36033821908299</v>
+        <v>2.3473024145087864</v>
       </c>
       <c r="I26" t="n">
-        <v>2.295111693914568</v>
+        <v>2.2220774265522554</v>
       </c>
       <c r="J26" t="n">
-        <v>2.0150013188013673</v>
+        <v>2.210785108996161</v>
       </c>
       <c r="K26" t="n">
-        <v>2.3246987708711964</v>
+        <v>2.380121840680689</v>
       </c>
       <c r="L26" t="n">
-        <v>2.259819402463223</v>
+        <v>2.119816149886124</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>3.1649202818859834</v>
+        <v>3.1335844375108746</v>
       </c>
       <c r="C31" t="n">
-        <v>3.217064624536107</v>
+        <v>3.1667717872014327</v>
       </c>
       <c r="D31" t="n">
-        <v>3.540802750351412</v>
+        <v>3.528688562977575</v>
       </c>
       <c r="E31" t="n">
-        <v>3.478653692903276</v>
+        <v>3.470487835073128</v>
       </c>
       <c r="F31" t="n">
-        <v>3.4913340837205653</v>
+        <v>3.4536100831480634</v>
       </c>
       <c r="G31" t="n">
-        <v>3.2524802306954763</v>
+        <v>3.2242840995408177</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1649202818859834</v>
+        <v>3.4939659212396816</v>
       </c>
       <c r="I31" t="n">
-        <v>3.217064624536107</v>
+        <v>3.4578141123483253</v>
       </c>
       <c r="J31" t="n">
-        <v>3.540802750351412</v>
+        <v>3.5730745813980973</v>
       </c>
       <c r="K31" t="n">
-        <v>3.478653692903276</v>
+        <v>3.468369098381485</v>
       </c>
       <c r="L31" t="n">
-        <v>3.4913340837205653</v>
+        <v>3.1509642730624474</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1.3196057566848327</v>
+        <v>1.3332099397434392</v>
       </c>
       <c r="C32" t="n">
-        <v>1.311494405907354</v>
+        <v>1.3400197513109506</v>
       </c>
       <c r="D32" t="n">
-        <v>1.2969072415303131</v>
+        <v>1.3161175044558069</v>
       </c>
       <c r="E32" t="n">
-        <v>1.4089997849801437</v>
+        <v>1.4414620279055552</v>
       </c>
       <c r="F32" t="n">
-        <v>1.2720370258994012</v>
+        <v>1.3095478658906492</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4163926623909262</v>
+        <v>1.4370753518799344</v>
       </c>
       <c r="H32" t="n">
-        <v>1.3196057566848327</v>
+        <v>1.4353281478527706</v>
       </c>
       <c r="I32" t="n">
-        <v>1.311494405907354</v>
+        <v>1.4849778630432826</v>
       </c>
       <c r="J32" t="n">
-        <v>1.2969072415303131</v>
+        <v>1.4521001252759689</v>
       </c>
       <c r="K32" t="n">
-        <v>1.4089997849801437</v>
+        <v>1.2532456485280794</v>
       </c>
       <c r="L32" t="n">
-        <v>1.2720370258994012</v>
+        <v>1.4665309335763592</v>
       </c>
     </row>
     <row r="33">
@@ -1360,34 +1360,34 @@
         <v>2.6053414799416723</v>
       </c>
       <c r="C34" t="n">
-        <v>2.6840459678553032</v>
+        <v>2.6675853998046204</v>
       </c>
       <c r="D34" t="n">
-        <v>2.5148018904025307</v>
+        <v>2.512440681870031</v>
       </c>
       <c r="E34" t="n">
-        <v>2.709918121011194</v>
+        <v>2.708175561360313</v>
       </c>
       <c r="F34" t="n">
-        <v>2.735920349270642</v>
+        <v>2.71644227388353</v>
       </c>
       <c r="G34" t="n">
-        <v>2.7249472470387626</v>
+        <v>2.704882946786633</v>
       </c>
       <c r="H34" t="n">
-        <v>2.6053414799416723</v>
+        <v>2.5252738052274655</v>
       </c>
       <c r="I34" t="n">
-        <v>2.6840459678553032</v>
+        <v>2.7364898206459434</v>
       </c>
       <c r="J34" t="n">
-        <v>2.5148018904025307</v>
+        <v>2.7636847497905204</v>
       </c>
       <c r="K34" t="n">
-        <v>2.709918121011194</v>
+        <v>2.670787783149123</v>
       </c>
       <c r="L34" t="n">
-        <v>2.735920349270642</v>
+        <v>2.7984480790057256</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>4.044082086058631</v>
+        <v>4.085348229793923</v>
       </c>
       <c r="C38" t="n">
-        <v>4.488928900398817</v>
+        <v>4.499623005803709</v>
       </c>
       <c r="D38" t="n">
-        <v>4.017999919878334</v>
+        <v>4.062814594293284</v>
       </c>
       <c r="E38" t="n">
-        <v>4.085220545419699</v>
+        <v>4.10584328918169</v>
       </c>
       <c r="F38" t="n">
-        <v>4.469047667319115</v>
+        <v>4.5300632613722875</v>
       </c>
       <c r="G38" t="n">
-        <v>4.412488009298924</v>
+        <v>4.415996918773677</v>
       </c>
       <c r="H38" t="n">
-        <v>4.044082086058631</v>
+        <v>3.9880253726159847</v>
       </c>
       <c r="I38" t="n">
-        <v>4.488928900398817</v>
+        <v>4.421298235456207</v>
       </c>
       <c r="J38" t="n">
-        <v>4.017999919878334</v>
+        <v>4.267603047548551</v>
       </c>
       <c r="K38" t="n">
-        <v>4.085220545419699</v>
+        <v>4.085348229793923</v>
       </c>
       <c r="L38" t="n">
-        <v>4.469047667319115</v>
+        <v>4.4968759809432255</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>1.9413862276049896</v>
+        <v>1.9029429359692471</v>
       </c>
       <c r="C45" t="n">
-        <v>1.8141852448968017</v>
+        <v>1.7583488244507997</v>
       </c>
       <c r="D45" t="n">
-        <v>1.993913169023368</v>
+        <v>1.949755801043065</v>
       </c>
       <c r="E45" t="n">
-        <v>1.744028951839992</v>
+        <v>1.6827510244069528</v>
       </c>
       <c r="F45" t="n">
-        <v>1.7921960497591627</v>
+        <v>1.7671699729929762</v>
       </c>
       <c r="G45" t="n">
-        <v>1.8961698080707547</v>
+        <v>1.8563122822124463</v>
       </c>
       <c r="H45" t="n">
-        <v>1.9413862276049896</v>
+        <v>1.748650265291462</v>
       </c>
       <c r="I45" t="n">
-        <v>1.8141852448968017</v>
+        <v>1.8367919647961477</v>
       </c>
       <c r="J45" t="n">
-        <v>1.993913169023368</v>
+        <v>1.9354718741299104</v>
       </c>
       <c r="K45" t="n">
-        <v>1.744028951839992</v>
+        <v>1.9939012141734505</v>
       </c>
       <c r="L45" t="n">
-        <v>1.7921960497591627</v>
+        <v>1.9366542036799212</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.729115168963355</v>
+        <v>1.6772417138944542</v>
       </c>
       <c r="C51" t="n">
-        <v>1.7858106045615167</v>
+        <v>1.7429252013042635</v>
       </c>
       <c r="D51" t="n">
-        <v>1.7355614264406665</v>
+        <v>1.7108410349653933</v>
       </c>
       <c r="E51" t="n">
-        <v>1.968473029105622</v>
+        <v>1.9209260734581317</v>
       </c>
       <c r="F51" t="n">
-        <v>1.9436341554863736</v>
+        <v>1.9303136166241692</v>
       </c>
       <c r="G51" t="n">
-        <v>1.822310438264505</v>
+        <v>1.7842593963463556</v>
       </c>
       <c r="H51" t="n">
-        <v>1.729115168963355</v>
+        <v>1.8307783257407264</v>
       </c>
       <c r="I51" t="n">
-        <v>1.7858106045615167</v>
+        <v>1.9291351580096237</v>
       </c>
       <c r="J51" t="n">
-        <v>1.7355614264406665</v>
+        <v>1.7525920074750976</v>
       </c>
       <c r="K51" t="n">
-        <v>1.968473029105622</v>
+        <v>1.9433723194847774</v>
       </c>
       <c r="L51" t="n">
-        <v>1.9436341554863736</v>
+        <v>1.9232643887600727</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.054629711497374</v>
+        <v>1.012444523037479</v>
       </c>
       <c r="C59" t="n">
-        <v>1.0527253358357962</v>
+        <v>1.0225060832373702</v>
       </c>
       <c r="D59" t="n">
-        <v>1.0705874910108333</v>
+        <v>1.0353677946170148</v>
       </c>
       <c r="E59" t="n">
-        <v>1.034270042459656</v>
+        <v>0.9869513152909946</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0031689663560521</v>
+        <v>0.963922354875293</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9388865465592291</v>
+        <v>0.9080169849246017</v>
       </c>
       <c r="H59" t="n">
-        <v>1.054629711497374</v>
+        <v>0.9130531300136294</v>
       </c>
       <c r="I59" t="n">
-        <v>1.0527253358357962</v>
+        <v>1.0056412913269945</v>
       </c>
       <c r="J59" t="n">
-        <v>1.0705874910108333</v>
+        <v>1.0019688338822266</v>
       </c>
       <c r="K59" t="n">
-        <v>1.034270042459656</v>
+        <v>0.9537860914286029</v>
       </c>
       <c r="L59" t="n">
-        <v>1.0031689663560521</v>
+        <v>0.8737976609096886</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>2.0778746327496695</v>
       </c>
       <c r="C62" t="n">
-        <v>2.1060692622866277</v>
+        <v>2.091931595917203</v>
       </c>
       <c r="D62" t="n">
-        <v>1.8645016335183113</v>
+        <v>1.8865672616769167</v>
       </c>
       <c r="E62" t="n">
-        <v>1.874955056750664</v>
+        <v>1.876161485564115</v>
       </c>
       <c r="F62" t="n">
-        <v>1.8343183896011868</v>
+        <v>1.8054568854908575</v>
       </c>
       <c r="G62" t="n">
-        <v>1.8945838225668934</v>
+        <v>1.8865672616769167</v>
       </c>
       <c r="H62" t="n">
-        <v>2.0778746327496695</v>
+        <v>2.091931595917203</v>
       </c>
       <c r="I62" t="n">
-        <v>2.1060692622866277</v>
+        <v>1.9916741947745158</v>
       </c>
       <c r="J62" t="n">
-        <v>1.8645016335183113</v>
+        <v>2.0677694676404554</v>
       </c>
       <c r="K62" t="n">
-        <v>1.874955056750664</v>
+        <v>1.8960316465695202</v>
       </c>
       <c r="L62" t="n">
-        <v>1.8343183896011868</v>
+        <v>2.0392570586436403</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>1.911313976754101</v>
+        <v>1.9310182445556896</v>
       </c>
       <c r="C65" t="n">
-        <v>2.10790165421778</v>
+        <v>2.1399082688837865</v>
       </c>
       <c r="D65" t="n">
-        <v>2.0226726129116424</v>
+        <v>2.0772003337986344</v>
       </c>
       <c r="E65" t="n">
-        <v>2.0867387775530877</v>
+        <v>2.092530227324108</v>
       </c>
       <c r="F65" t="n">
-        <v>1.9694662050895586</v>
+        <v>1.9712944080411454</v>
       </c>
       <c r="G65" t="n">
-        <v>2.0069330219569124</v>
+        <v>2.07846924158736</v>
       </c>
       <c r="H65" t="n">
-        <v>1.911313976754101</v>
+        <v>1.8871071256075937</v>
       </c>
       <c r="I65" t="n">
-        <v>2.10790165421778</v>
+        <v>1.9212050530963947</v>
       </c>
       <c r="J65" t="n">
-        <v>2.0226726129116424</v>
+        <v>1.8421516782541516</v>
       </c>
       <c r="K65" t="n">
-        <v>2.0867387775530877</v>
+        <v>1.8766983717567023</v>
       </c>
       <c r="L65" t="n">
-        <v>1.9694662050895586</v>
+        <v>2.092530227324108</v>
       </c>
     </row>
     <row r="66">
@@ -2690,34 +2690,34 @@
         <v>3.6537609520821928</v>
       </c>
       <c r="C69" t="n">
-        <v>4.033645557075756</v>
+        <v>4.031271309958594</v>
       </c>
       <c r="D69" t="n">
-        <v>3.9935990234022265</v>
+        <v>3.929764477091454</v>
       </c>
       <c r="E69" t="n">
-        <v>4.194580622307613</v>
+        <v>4.122545374804862</v>
       </c>
       <c r="F69" t="n">
-        <v>4.124176257091027</v>
+        <v>4.031271309958594</v>
       </c>
       <c r="G69" t="n">
-        <v>3.6685199584994588</v>
+        <v>3.635522543446642</v>
       </c>
       <c r="H69" t="n">
-        <v>3.6537609520821928</v>
+        <v>3.7012123934759202</v>
       </c>
       <c r="I69" t="n">
-        <v>4.033645557075756</v>
+        <v>4.071333632430895</v>
       </c>
       <c r="J69" t="n">
-        <v>3.9935990234022265</v>
+        <v>3.934482081375154</v>
       </c>
       <c r="K69" t="n">
-        <v>4.194580622307613</v>
+        <v>4.004182741463803</v>
       </c>
       <c r="L69" t="n">
-        <v>4.124176257091027</v>
+        <v>3.7977098188829226</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>5.488180397681453</v>
+        <v>5.543062201658268</v>
       </c>
       <c r="C76" t="n">
-        <v>6.058791138189398</v>
+        <v>6.115777117308856</v>
       </c>
       <c r="D76" t="n">
-        <v>5.9986387078622565</v>
+        <v>5.961782727458244</v>
       </c>
       <c r="E76" t="n">
-        <v>6.300525800606687</v>
+        <v>6.254247538739336</v>
       </c>
       <c r="F76" t="n">
-        <v>6.1947739842836524</v>
+        <v>6.115777117308856</v>
       </c>
       <c r="G76" t="n">
-        <v>5.51034936023012</v>
+        <v>5.51539300412401</v>
       </c>
       <c r="H76" t="n">
-        <v>5.488180397681453</v>
+        <v>5.615050023153234</v>
       </c>
       <c r="I76" t="n">
-        <v>6.058791138189398</v>
+        <v>6.1765550248729255</v>
       </c>
       <c r="J76" t="n">
-        <v>5.9986387078622565</v>
+        <v>5.96893972933393</v>
       </c>
       <c r="K76" t="n">
-        <v>6.300525800606687</v>
+        <v>6.074681484045017</v>
       </c>
       <c r="L76" t="n">
-        <v>6.1947739842836524</v>
+        <v>5.761444721204313</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>3.34802437781565</v>
+        <v>3.3145441340374937</v>
       </c>
       <c r="C79" t="n">
-        <v>3.696121293556816</v>
+        <v>3.6570062596794433</v>
       </c>
       <c r="D79" t="n">
-        <v>3.6594257426588888</v>
+        <v>3.5649233670499267</v>
       </c>
       <c r="E79" t="n">
-        <v>3.8435897592577675</v>
+        <v>3.7398063990956656</v>
       </c>
       <c r="F79" t="n">
-        <v>3.779076635892256</v>
+        <v>3.6570062596794433</v>
       </c>
       <c r="G79" t="n">
-        <v>3.361548391544349</v>
+        <v>3.297998987502197</v>
       </c>
       <c r="H79" t="n">
-        <v>3.34802437781565</v>
+        <v>3.357590162167378</v>
       </c>
       <c r="I79" t="n">
-        <v>3.696121293556816</v>
+        <v>3.6933491780279497</v>
       </c>
       <c r="J79" t="n">
-        <v>3.6594257426588888</v>
+        <v>3.5692029868198896</v>
       </c>
       <c r="K79" t="n">
-        <v>3.8435897592577675</v>
+        <v>3.632432606125914</v>
       </c>
       <c r="L79" t="n">
-        <v>3.779076635892256</v>
+        <v>3.4451287229892698</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>3.193192001338449</v>
+        <v>3.2577009306584173</v>
       </c>
       <c r="C90" t="n">
-        <v>3.3898424516312584</v>
+        <v>3.4181105212170846</v>
       </c>
       <c r="D90" t="n">
-        <v>3.248247177399239</v>
+        <v>3.292321811755794</v>
       </c>
       <c r="E90" t="n">
-        <v>3.0655784604295824</v>
+        <v>3.118575598990729</v>
       </c>
       <c r="F90" t="n">
-        <v>3.5286908924942684</v>
+        <v>3.536347047214294</v>
       </c>
       <c r="G90" t="n">
-        <v>3.487526963217834</v>
+        <v>3.458051542772059</v>
       </c>
       <c r="H90" t="n">
-        <v>3.193192001338449</v>
+        <v>3.4348147871998176</v>
       </c>
       <c r="I90" t="n">
-        <v>3.3898424516312584</v>
+        <v>3.0442835997418696</v>
       </c>
       <c r="J90" t="n">
-        <v>3.248247177399239</v>
+        <v>3.1013744102851115</v>
       </c>
       <c r="K90" t="n">
-        <v>3.0655784604295824</v>
+        <v>3.458051542772059</v>
       </c>
       <c r="L90" t="n">
-        <v>3.5286908924942684</v>
+        <v>3.118575598990729</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>2.942109929735451</v>
+        <v>3.0015464939725307</v>
       </c>
       <c r="C93" t="n">
-        <v>3.1232976698559676</v>
+        <v>3.1493430088734935</v>
       </c>
       <c r="D93" t="n">
-        <v>2.9928360934311793</v>
+        <v>3.0334451201779347</v>
       </c>
       <c r="E93" t="n">
-        <v>2.8245306968802693</v>
+        <v>2.8733606474572966</v>
       </c>
       <c r="F93" t="n">
-        <v>3.2512283976105523</v>
+        <v>3.258282545565306</v>
       </c>
       <c r="G93" t="n">
-        <v>3.2133012059414128</v>
+        <v>3.1861434505855524</v>
       </c>
       <c r="H93" t="n">
-        <v>2.942109929735451</v>
+        <v>3.164733811179193</v>
       </c>
       <c r="I93" t="n">
-        <v>3.1232976698559676</v>
+        <v>2.8049102603216807</v>
       </c>
       <c r="J93" t="n">
-        <v>2.9928360934311793</v>
+        <v>2.857511995677874</v>
       </c>
       <c r="K93" t="n">
-        <v>2.8245306968802693</v>
+        <v>3.1861434505855524</v>
       </c>
       <c r="L93" t="n">
-        <v>3.2512283976105523</v>
+        <v>2.8733606474572966</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2.942109929735451</v>
+        <v>3.0015464939725307</v>
       </c>
       <c r="C94" t="n">
-        <v>3.1232976698559676</v>
+        <v>3.1493430088734935</v>
       </c>
       <c r="D94" t="n">
-        <v>2.9928360934311793</v>
+        <v>3.0334451201779347</v>
       </c>
       <c r="E94" t="n">
-        <v>2.8245306968802693</v>
+        <v>2.8733606474572966</v>
       </c>
       <c r="F94" t="n">
-        <v>3.2512283976105523</v>
+        <v>3.258282545565306</v>
       </c>
       <c r="G94" t="n">
-        <v>3.2133012059414128</v>
+        <v>3.1861434505855524</v>
       </c>
       <c r="H94" t="n">
-        <v>2.942109929735451</v>
+        <v>3.164733811179193</v>
       </c>
       <c r="I94" t="n">
-        <v>3.1232976698559676</v>
+        <v>2.8049102603216807</v>
       </c>
       <c r="J94" t="n">
-        <v>2.9928360934311793</v>
+        <v>2.857511995677874</v>
       </c>
       <c r="K94" t="n">
-        <v>2.8245306968802693</v>
+        <v>3.1861434505855524</v>
       </c>
       <c r="L94" t="n">
-        <v>3.2512283976105523</v>
+        <v>2.8733606474572966</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>2.636857371062776</v>
+        <v>2.6901272169428325</v>
       </c>
       <c r="C97" t="n">
-        <v>2.7992463502284695</v>
+        <v>2.822589408717236</v>
       </c>
       <c r="D97" t="n">
-        <v>2.682320546077057</v>
+        <v>2.7187162668577893</v>
       </c>
       <c r="E97" t="n">
-        <v>2.53147732944551</v>
+        <v>2.5752410290293817</v>
       </c>
       <c r="F97" t="n">
-        <v>2.913903888703055</v>
+        <v>2.920226148059535</v>
       </c>
       <c r="G97" t="n">
-        <v>2.879911754722707</v>
+        <v>2.8555716963625972</v>
       </c>
       <c r="H97" t="n">
-        <v>2.636857371062776</v>
+        <v>2.836383370015617</v>
       </c>
       <c r="I97" t="n">
-        <v>2.7992463502284695</v>
+        <v>2.5138925708883635</v>
       </c>
       <c r="J97" t="n">
-        <v>2.682320546077057</v>
+        <v>2.5610367214868233</v>
       </c>
       <c r="K97" t="n">
-        <v>2.53147732944551</v>
+        <v>2.8555716963625972</v>
       </c>
       <c r="L97" t="n">
-        <v>2.913903888703055</v>
+        <v>2.5752410290293817</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>2.990014276275432</v>
+        <v>3.0202164406822543</v>
       </c>
       <c r="C100" t="n">
-        <v>2.661439285557189</v>
+        <v>2.689905818131915</v>
       </c>
       <c r="D100" t="n">
-        <v>2.7847962054298336</v>
+        <v>2.8196685822700225</v>
       </c>
       <c r="E100" t="n">
-        <v>2.864911827009996</v>
+        <v>2.8784797473713866</v>
       </c>
       <c r="F100" t="n">
-        <v>2.7867676737050617</v>
+        <v>2.805339381741966</v>
       </c>
       <c r="G100" t="n">
-        <v>3.047208882085054</v>
+        <v>3.033123346610566</v>
       </c>
       <c r="H100" t="n">
-        <v>2.990014276275432</v>
+        <v>3.0238929061204614</v>
       </c>
       <c r="I100" t="n">
-        <v>2.661439285557189</v>
+        <v>2.637078578553909</v>
       </c>
       <c r="J100" t="n">
-        <v>2.7847962054298336</v>
+        <v>3.0349762029653697</v>
       </c>
       <c r="K100" t="n">
-        <v>2.864911827009996</v>
+        <v>3.0858733196185786</v>
       </c>
       <c r="L100" t="n">
-        <v>2.7867676737050617</v>
+        <v>2.9821464850532706</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>2.291837345501148</v>
+        <v>2.3154645346300256</v>
       </c>
       <c r="C101" t="n">
-        <v>2.039985559875629</v>
+        <v>2.0622301896921162</v>
       </c>
       <c r="D101" t="n">
-        <v>2.134538284266727</v>
+        <v>2.1617134830846507</v>
       </c>
       <c r="E101" t="n">
-        <v>2.1959466778494403</v>
+        <v>2.2068013665880324</v>
       </c>
       <c r="F101" t="n">
-        <v>2.136049409031077</v>
+        <v>2.1507279274849265</v>
       </c>
       <c r="G101" t="n">
-        <v>2.335676846401121</v>
+        <v>2.325359680728251</v>
       </c>
       <c r="H101" t="n">
-        <v>2.291837345501148</v>
+        <v>2.3182831158483435</v>
       </c>
       <c r="I101" t="n">
-        <v>2.039985559875629</v>
+        <v>2.0217299136001006</v>
       </c>
       <c r="J101" t="n">
-        <v>2.134538284266727</v>
+        <v>2.326780182623255</v>
       </c>
       <c r="K101" t="n">
-        <v>2.1959466778494403</v>
+        <v>2.3658007200052746</v>
       </c>
       <c r="L101" t="n">
-        <v>2.136049409031077</v>
+        <v>2.2862780065036055</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>3.324002103485443</v>
+        <v>3.3575778823085285</v>
       </c>
       <c r="C104" t="n">
-        <v>2.9587249310765387</v>
+        <v>2.990371206115464</v>
       </c>
       <c r="D104" t="n">
-        <v>3.0958609522620053</v>
+        <v>3.1346286112963018</v>
       </c>
       <c r="E104" t="n">
-        <v>3.184925575386892</v>
+        <v>3.200009047121136</v>
       </c>
       <c r="F104" t="n">
-        <v>3.0980526356749607</v>
+        <v>3.118698823577744</v>
       </c>
       <c r="G104" t="n">
-        <v>3.387585408597961</v>
+        <v>3.3719265035828854</v>
       </c>
       <c r="H104" t="n">
-        <v>3.324002103485443</v>
+        <v>3.3616650129108665</v>
       </c>
       <c r="I104" t="n">
-        <v>2.9587249310765387</v>
+        <v>2.93164310676426</v>
       </c>
       <c r="J104" t="n">
-        <v>3.0958609522620053</v>
+        <v>3.3739863259956726</v>
       </c>
       <c r="K104" t="n">
-        <v>3.184925575386892</v>
+        <v>3.430568705604694</v>
       </c>
       <c r="L104" t="n">
-        <v>3.0980526356749607</v>
+        <v>3.3152554714777778</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>1.6652138475325864</v>
+        <v>1.6822058255686332</v>
       </c>
       <c r="C106" t="n">
-        <v>1.7904637833055475</v>
+        <v>1.8192664217787993</v>
       </c>
       <c r="D106" t="n">
-        <v>1.7134545567362094</v>
+        <v>1.7232579909911216</v>
       </c>
       <c r="E106" t="n">
-        <v>1.7278104282968614</v>
+        <v>1.754395346800953</v>
       </c>
       <c r="F106" t="n">
-        <v>1.7559412923891617</v>
+        <v>1.7633565024077984</v>
       </c>
       <c r="G106" t="n">
-        <v>1.8251771208665426</v>
+        <v>1.8001356654086427</v>
       </c>
       <c r="H106" t="n">
-        <v>1.6652138475325864</v>
+        <v>1.9541095332119305</v>
       </c>
       <c r="I106" t="n">
-        <v>1.7904637833055475</v>
+        <v>1.7232579909911216</v>
       </c>
       <c r="J106" t="n">
-        <v>1.7134545567362094</v>
+        <v>1.649168873282866</v>
       </c>
       <c r="K106" t="n">
-        <v>1.7278104282968614</v>
+        <v>1.8910737425387594</v>
       </c>
       <c r="L106" t="n">
-        <v>1.7559412923891617</v>
+        <v>1.9108451166839402</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>1.5013373489862332</v>
+        <v>1.5166571178534398</v>
       </c>
       <c r="C107" t="n">
-        <v>1.6142612276896822</v>
+        <v>1.6402293500142204</v>
       </c>
       <c r="D107" t="n">
-        <v>1.5448306087716348</v>
+        <v>1.5536692705549486</v>
       </c>
       <c r="E107" t="n">
-        <v>1.5577736948402452</v>
+        <v>1.5817423467518834</v>
       </c>
       <c r="F107" t="n">
-        <v>1.5831361532317643</v>
+        <v>1.5898216199470765</v>
       </c>
       <c r="G107" t="n">
-        <v>1.6455583672525746</v>
+        <v>1.6229812835899406</v>
       </c>
       <c r="H107" t="n">
-        <v>1.5013373489862332</v>
+        <v>1.761802323808573</v>
       </c>
       <c r="I107" t="n">
-        <v>1.6142612276896822</v>
+        <v>1.5536692705549486</v>
       </c>
       <c r="J107" t="n">
-        <v>1.5448306087716348</v>
+        <v>1.4868713876682194</v>
       </c>
       <c r="K107" t="n">
-        <v>1.5577736948402452</v>
+        <v>1.7049699914323206</v>
       </c>
       <c r="L107" t="n">
-        <v>1.5831361532317643</v>
+        <v>1.7227956313577417</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>1.5013373489862332</v>
+        <v>1.5166571178534398</v>
       </c>
       <c r="C111" t="n">
-        <v>1.6142612276896822</v>
+        <v>1.6402293500142204</v>
       </c>
       <c r="D111" t="n">
-        <v>1.5448306087716348</v>
+        <v>1.5536692705549486</v>
       </c>
       <c r="E111" t="n">
-        <v>1.5577736948402452</v>
+        <v>1.5817423467518834</v>
       </c>
       <c r="F111" t="n">
-        <v>1.5831361532317643</v>
+        <v>1.5898216199470765</v>
       </c>
       <c r="G111" t="n">
-        <v>1.6455583672525746</v>
+        <v>1.6229812835899406</v>
       </c>
       <c r="H111" t="n">
-        <v>1.5013373489862332</v>
+        <v>1.761802323808573</v>
       </c>
       <c r="I111" t="n">
-        <v>1.6142612276896822</v>
+        <v>1.5536692705549486</v>
       </c>
       <c r="J111" t="n">
-        <v>1.5448306087716348</v>
+        <v>1.4868713876682194</v>
       </c>
       <c r="K111" t="n">
-        <v>1.5577736948402452</v>
+        <v>1.7049699914323206</v>
       </c>
       <c r="L111" t="n">
-        <v>1.5831361532317643</v>
+        <v>1.7227956313577417</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>2.552306715924208</v>
+        <v>2.527036352400206</v>
       </c>
       <c r="C116" t="n">
-        <v>2.4304965232920006</v>
+        <v>2.3806263658009468</v>
       </c>
       <c r="D116" t="n">
-        <v>2.532076691338818</v>
+        <v>2.4663632097747263</v>
       </c>
       <c r="E116" t="n">
-        <v>2.330749585188598</v>
+        <v>2.278957907041609</v>
       </c>
       <c r="F116" t="n">
-        <v>2.2727550477358185</v>
+        <v>2.2663878141364164</v>
       </c>
       <c r="G116" t="n">
-        <v>2.515103746894675</v>
+        <v>2.527036352400206</v>
       </c>
       <c r="H116" t="n">
-        <v>2.552306715924208</v>
+        <v>2.180977232348869</v>
       </c>
       <c r="I116" t="n">
-        <v>2.4304965232920006</v>
+        <v>2.463405939820779</v>
       </c>
       <c r="J116" t="n">
-        <v>2.532076691338818</v>
+        <v>2.331987006649077</v>
       </c>
       <c r="K116" t="n">
-        <v>2.330749585188598</v>
+        <v>2.4059262272989805</v>
       </c>
       <c r="L116" t="n">
-        <v>2.2727550477358185</v>
+        <v>2.3201361424527627</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>1.1773398591373485</v>
+        <v>1.1892321809468167</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1211506894970664</v>
+        <v>1.1203311271450167</v>
       </c>
       <c r="D117" t="n">
-        <v>1.168008059731303</v>
+        <v>1.1606791869778683</v>
       </c>
       <c r="E117" t="n">
-        <v>1.075138960059009</v>
+        <v>1.0724855934513564</v>
       </c>
       <c r="F117" t="n">
-        <v>1.0483869713072704</v>
+        <v>1.066570063591191</v>
       </c>
       <c r="G117" t="n">
-        <v>1.160178701333138</v>
+        <v>1.1892321809468167</v>
       </c>
       <c r="H117" t="n">
-        <v>1.1773398591373485</v>
+        <v>1.0263755438888267</v>
       </c>
       <c r="I117" t="n">
-        <v>1.1211506894970664</v>
+        <v>1.1592874853532988</v>
       </c>
       <c r="J117" t="n">
-        <v>1.168008059731303</v>
+        <v>1.0974412739345185</v>
       </c>
       <c r="K117" t="n">
-        <v>1.075138960059009</v>
+        <v>1.132237330804644</v>
       </c>
       <c r="L117" t="n">
-        <v>1.0483869713072704</v>
+        <v>1.0918642156302714</v>
       </c>
     </row>
     <row r="118">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>3.0353906650497597</v>
+        <v>3.0663640391829206</v>
       </c>
       <c r="C126" t="n">
-        <v>3.024391470327333</v>
+        <v>3.0570324401840527</v>
       </c>
       <c r="D126" t="n">
-        <v>3.0307761304821614</v>
+        <v>3.0682372014143513</v>
       </c>
       <c r="E126" t="n">
-        <v>2.9961126040249866</v>
+        <v>3.0148285105390324</v>
       </c>
       <c r="F126" t="n">
-        <v>2.6714265807011253</v>
+        <v>2.7193851112998075</v>
       </c>
       <c r="G126" t="n">
-        <v>3.0571649809406845</v>
+        <v>3.1196921112115086</v>
       </c>
       <c r="H126" t="n">
-        <v>3.0353906650497597</v>
+        <v>2.9409516633914996</v>
       </c>
       <c r="I126" t="n">
-        <v>3.024391470327333</v>
+        <v>2.7703829553234374</v>
       </c>
       <c r="J126" t="n">
-        <v>3.0307761304821614</v>
+        <v>2.785748362300199</v>
       </c>
       <c r="K126" t="n">
-        <v>2.9961126040249866</v>
+        <v>3.011213608348152</v>
       </c>
       <c r="L126" t="n">
-        <v>2.6714265807011253</v>
+        <v>2.7997236894726387</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.3831049332705119</v>
+        <v>1.3692738839378067</v>
       </c>
       <c r="C127" t="n">
-        <v>1.3170955162591902</v>
+        <v>1.2899416769406116</v>
       </c>
       <c r="D127" t="n">
-        <v>1.372142204289052</v>
+        <v>1.3363981599401702</v>
       </c>
       <c r="E127" t="n">
-        <v>1.2630422626636528</v>
+        <v>1.2348526532836532</v>
       </c>
       <c r="F127" t="n">
-        <v>1.2316147973228992</v>
+        <v>1.2280415522413572</v>
       </c>
       <c r="G127" t="n">
-        <v>1.362944499700354</v>
+        <v>1.3692738839378067</v>
       </c>
       <c r="H127" t="n">
-        <v>1.3831049332705119</v>
+        <v>1.18176185430882</v>
       </c>
       <c r="I127" t="n">
-        <v>1.3170955162591902</v>
+        <v>1.3347957641092403</v>
       </c>
       <c r="J127" t="n">
-        <v>1.372142204289052</v>
+        <v>1.2635864548818279</v>
       </c>
       <c r="K127" t="n">
-        <v>1.2630422626636528</v>
+        <v>1.303650399248305</v>
       </c>
       <c r="L127" t="n">
-        <v>1.2316147973228992</v>
+        <v>1.2571650676981039</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>3.150226429383058</v>
+        <v>3.2132309579707194</v>
       </c>
       <c r="C128" t="n">
-        <v>3.0631718192339195</v>
+        <v>3.15830393124416</v>
       </c>
       <c r="D128" t="n">
-        <v>2.6893223854147146</v>
+        <v>2.7459139276197475</v>
       </c>
       <c r="E128" t="n">
-        <v>3.102660224346121</v>
+        <v>3.1816124500226626</v>
       </c>
       <c r="F128" t="n">
-        <v>3.0160689471181126</v>
+        <v>3.1052231943731035</v>
       </c>
       <c r="G128" t="n">
-        <v>2.7601730398046525</v>
+        <v>2.883668808356827</v>
       </c>
       <c r="H128" t="n">
-        <v>3.150226429383058</v>
+        <v>3.1014999052741477</v>
       </c>
       <c r="I128" t="n">
-        <v>3.0631718192339195</v>
+        <v>2.9360396365484354</v>
       </c>
       <c r="J128" t="n">
-        <v>2.6893223854147146</v>
+        <v>2.9211190529823496</v>
       </c>
       <c r="K128" t="n">
-        <v>3.102660224346121</v>
+        <v>3.1448643420566187</v>
       </c>
       <c r="L128" t="n">
-        <v>3.0160689471181126</v>
+        <v>2.800921409798947</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>3.150226429383058</v>
+        <v>3.2132309579707194</v>
       </c>
       <c r="C132" t="n">
-        <v>3.0631718192339195</v>
+        <v>3.15830393124416</v>
       </c>
       <c r="D132" t="n">
-        <v>2.6893223854147146</v>
+        <v>2.7459139276197475</v>
       </c>
       <c r="E132" t="n">
-        <v>3.102660224346121</v>
+        <v>3.1816124500226626</v>
       </c>
       <c r="F132" t="n">
-        <v>3.0160689471181126</v>
+        <v>3.1052231943731035</v>
       </c>
       <c r="G132" t="n">
-        <v>2.7601730398046525</v>
+        <v>2.883668808356827</v>
       </c>
       <c r="H132" t="n">
-        <v>3.150226429383058</v>
+        <v>3.1014999052741477</v>
       </c>
       <c r="I132" t="n">
-        <v>3.0631718192339195</v>
+        <v>2.9360396365484354</v>
       </c>
       <c r="J132" t="n">
-        <v>2.6893223854147146</v>
+        <v>2.9211190529823496</v>
       </c>
       <c r="K132" t="n">
-        <v>3.102660224346121</v>
+        <v>3.1448643420566187</v>
       </c>
       <c r="L132" t="n">
-        <v>3.0160689471181126</v>
+        <v>2.800921409798947</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>2.9912182388706703</v>
+        <v>3.0214325645158286</v>
       </c>
       <c r="C133" t="n">
-        <v>2.6625109437678987</v>
+        <v>2.690988938709446</v>
       </c>
       <c r="D133" t="n">
-        <v>2.7859175346800993</v>
+        <v>2.820803953271746</v>
       </c>
       <c r="E133" t="n">
-        <v>2.8660654157088006</v>
+        <v>2.8796387993446446</v>
       </c>
       <c r="F133" t="n">
-        <v>2.787889796789016</v>
+        <v>2.8064689829312868</v>
       </c>
       <c r="G133" t="n">
-        <v>3.048435874726199</v>
+        <v>3.0343446675537598</v>
       </c>
       <c r="H133" t="n">
-        <v>2.9912182388706703</v>
+        <v>3.025110510323847</v>
       </c>
       <c r="I133" t="n">
-        <v>2.6625109437678987</v>
+        <v>2.6381404276542546</v>
       </c>
       <c r="J133" t="n">
-        <v>2.7859175346800993</v>
+        <v>3.0361982699818393</v>
       </c>
       <c r="K133" t="n">
-        <v>2.8660654157088006</v>
+        <v>3.087115880926712</v>
       </c>
       <c r="L133" t="n">
-        <v>2.787889796789016</v>
+        <v>2.9833472795946263</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>2.95157524320558</v>
+        <v>3.010606748069692</v>
       </c>
       <c r="C138" t="n">
-        <v>2.8700102389485904</v>
+        <v>2.9591433831646006</v>
       </c>
       <c r="D138" t="n">
-        <v>2.5197355021058527</v>
+        <v>2.5727584192489585</v>
       </c>
       <c r="E138" t="n">
-        <v>2.907008531463606</v>
+        <v>2.9809820822310336</v>
       </c>
       <c r="F138" t="n">
-        <v>2.825877642661497</v>
+        <v>2.909409882303076</v>
       </c>
       <c r="G138" t="n">
-        <v>2.5861183612907426</v>
+        <v>2.7018265687070047</v>
       </c>
       <c r="H138" t="n">
-        <v>2.95157524320558</v>
+        <v>2.905921381341598</v>
       </c>
       <c r="I138" t="n">
-        <v>2.8700102389485904</v>
+        <v>2.750894927258868</v>
       </c>
       <c r="J138" t="n">
-        <v>2.5197355021058527</v>
+        <v>2.736915225781834</v>
       </c>
       <c r="K138" t="n">
-        <v>2.907008531463606</v>
+        <v>2.9465512855443134</v>
       </c>
       <c r="L138" t="n">
-        <v>2.825877642661497</v>
+        <v>2.6242971661392867</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>3.6856999818025864</v>
+        <v>3.6127158237470893</v>
       </c>
       <c r="C153" t="n">
-        <v>3.6630447264268797</v>
+        <v>3.631168967001796</v>
       </c>
       <c r="D153" t="n">
-        <v>3.6223023219574726</v>
+        <v>3.566398953770943</v>
       </c>
       <c r="E153" t="n">
-        <v>3.935380287297024</v>
+        <v>3.9060559948623763</v>
       </c>
       <c r="F153" t="n">
-        <v>3.552839035037173</v>
+        <v>3.5485966283508286</v>
       </c>
       <c r="G153" t="n">
-        <v>3.956028824180376</v>
+        <v>3.89416903436277</v>
       </c>
       <c r="H153" t="n">
-        <v>3.6856999818025864</v>
+        <v>3.8894344824755676</v>
       </c>
       <c r="I153" t="n">
-        <v>3.6630447264268797</v>
+        <v>4.023974667307836</v>
       </c>
       <c r="J153" t="n">
-        <v>3.6223023219574726</v>
+        <v>3.9348829796897253</v>
       </c>
       <c r="K153" t="n">
-        <v>3.935380287297024</v>
+        <v>3.396029575320196</v>
       </c>
       <c r="L153" t="n">
-        <v>3.552839035037173</v>
+        <v>3.973987405738569</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>2.790876318860826</v>
+        <v>2.7356114412596217</v>
       </c>
       <c r="C154" t="n">
-        <v>2.773721364296434</v>
+        <v>2.749584483225159</v>
       </c>
       <c r="D154" t="n">
-        <v>2.7428705049295505</v>
+        <v>2.7005394993711334</v>
       </c>
       <c r="E154" t="n">
-        <v>2.9799386015563267</v>
+        <v>2.9577337357975084</v>
       </c>
       <c r="F154" t="n">
-        <v>2.690271692369314</v>
+        <v>2.6870592680226904</v>
       </c>
       <c r="G154" t="n">
-        <v>2.9955740338734973</v>
+        <v>2.9487327219533594</v>
       </c>
       <c r="H154" t="n">
-        <v>2.790876318860826</v>
+        <v>2.945147636675759</v>
       </c>
       <c r="I154" t="n">
-        <v>2.773721364296434</v>
+        <v>3.047023811523798</v>
       </c>
       <c r="J154" t="n">
-        <v>2.7428705049295505</v>
+        <v>2.9795620315611426</v>
       </c>
       <c r="K154" t="n">
-        <v>2.9799386015563267</v>
+        <v>2.571532834117636</v>
       </c>
       <c r="L154" t="n">
-        <v>2.690271692369314</v>
+        <v>3.0091725850953965</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>3.7147597323496298</v>
+        <v>3.6412001336892406</v>
       </c>
       <c r="C156" t="n">
-        <v>3.6919258525408307</v>
+        <v>3.6597987699961325</v>
       </c>
       <c r="D156" t="n">
-        <v>3.6508622162521185</v>
+        <v>3.5945180802488212</v>
       </c>
       <c r="E156" t="n">
-        <v>3.966408631986293</v>
+        <v>3.9368531333690133</v>
       </c>
       <c r="F156" t="n">
-        <v>3.5808512488911832</v>
+        <v>3.576575393123082</v>
       </c>
       <c r="G156" t="n">
-        <v>3.9872199714129755</v>
+        <v>3.924872450616216</v>
       </c>
       <c r="H156" t="n">
-        <v>3.7147597323496298</v>
+        <v>3.9201005693485773</v>
       </c>
       <c r="I156" t="n">
-        <v>3.6919258525408307</v>
+        <v>4.055701530757637</v>
       </c>
       <c r="J156" t="n">
-        <v>3.6508622162521185</v>
+        <v>3.9659074033775332</v>
       </c>
       <c r="K156" t="n">
-        <v>3.966408631986293</v>
+        <v>3.4228054314116947</v>
       </c>
       <c r="L156" t="n">
-        <v>3.5808512488911832</v>
+        <v>4.005320146671914</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>2.6161639818329827</v>
+        <v>2.5384561407884387</v>
       </c>
       <c r="C157" t="n">
-        <v>2.6000829488119055</v>
+        <v>2.551422146723324</v>
       </c>
       <c r="D157" t="n">
-        <v>2.5711633917040575</v>
+        <v>2.505911830981336</v>
       </c>
       <c r="E157" t="n">
-        <v>2.7933907299222662</v>
+        <v>2.744570099105593</v>
       </c>
       <c r="F157" t="n">
-        <v>2.5218573303865703</v>
+        <v>2.4934031188413</v>
       </c>
       <c r="G157" t="n">
-        <v>2.808047364683231</v>
+        <v>2.736217787618154</v>
       </c>
       <c r="H157" t="n">
-        <v>2.6161639818329827</v>
+        <v>2.7328910791533056</v>
       </c>
       <c r="I157" t="n">
-        <v>2.6000829488119055</v>
+        <v>2.827425046127784</v>
       </c>
       <c r="J157" t="n">
-        <v>2.5711633917040575</v>
+        <v>2.7648252313178747</v>
       </c>
       <c r="K157" t="n">
-        <v>2.7933907299222662</v>
+        <v>2.38620266590174</v>
       </c>
       <c r="L157" t="n">
-        <v>2.5218573303865703</v>
+        <v>2.7923017545980087</v>
       </c>
     </row>
     <row r="158">
@@ -6110,34 +6110,34 @@
         <v>2.2764374202201236</v>
       </c>
       <c r="C159" t="n">
-        <v>2.3452060798393086</v>
+        <v>2.330823530236063</v>
       </c>
       <c r="D159" t="n">
-        <v>2.1973277483306304</v>
+        <v>2.195264623975644</v>
       </c>
       <c r="E159" t="n">
-        <v>2.367812075267998</v>
+        <v>2.3662895001941466</v>
       </c>
       <c r="F159" t="n">
-        <v>2.39053172483203</v>
+        <v>2.373512604679657</v>
       </c>
       <c r="G159" t="n">
-        <v>2.380943891249037</v>
+        <v>2.3634125525526977</v>
       </c>
       <c r="H159" t="n">
-        <v>2.2764374202201236</v>
+        <v>2.206477665511304</v>
       </c>
       <c r="I159" t="n">
-        <v>2.3452060798393086</v>
+        <v>2.3910293048838054</v>
       </c>
       <c r="J159" t="n">
-        <v>2.1973277483306304</v>
+        <v>2.41479108614034</v>
       </c>
       <c r="K159" t="n">
-        <v>2.367812075267998</v>
+        <v>2.3336216376378918</v>
       </c>
       <c r="L159" t="n">
-        <v>2.39053172483203</v>
+        <v>2.4451658159353364</v>
       </c>
     </row>
     <row r="160">
@@ -6338,34 +6338,34 @@
         <v>4.228018410532802</v>
       </c>
       <c r="C165" t="n">
-        <v>4.355742175901877</v>
+        <v>4.329029522185684</v>
       </c>
       <c r="D165" t="n">
-        <v>4.081088323094842</v>
+        <v>4.077256490214824</v>
       </c>
       <c r="E165" t="n">
-        <v>4.397728203724103</v>
+        <v>4.394900330931957</v>
       </c>
       <c r="F165" t="n">
-        <v>4.439925320932049</v>
+        <v>4.408315774938754</v>
       </c>
       <c r="G165" t="n">
-        <v>4.422117874724236</v>
+        <v>4.389556987211571</v>
       </c>
       <c r="H165" t="n">
-        <v>4.228018410532802</v>
+        <v>4.098082428863406</v>
       </c>
       <c r="I165" t="n">
-        <v>4.355742175901877</v>
+        <v>4.440849474436526</v>
       </c>
       <c r="J165" t="n">
-        <v>4.081088323094842</v>
+        <v>4.484982138803801</v>
       </c>
       <c r="K165" t="n">
-        <v>4.397728203724103</v>
+        <v>4.334226436234143</v>
       </c>
       <c r="L165" t="n">
-        <v>4.439925320932049</v>
+        <v>4.5413970068987854</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>1.7659738219450167</v>
+        <v>1.7838119413586029</v>
       </c>
       <c r="C167" t="n">
-        <v>1.7950695134256804</v>
+        <v>1.8027040413995024</v>
       </c>
       <c r="D167" t="n">
-        <v>1.97571009973918</v>
+        <v>2.008727360471225</v>
       </c>
       <c r="E167" t="n">
-        <v>1.9410319408167815</v>
+        <v>1.9755962432149163</v>
       </c>
       <c r="F167" t="n">
-        <v>1.9481073917731702</v>
+        <v>1.9659884805943142</v>
       </c>
       <c r="G167" t="n">
-        <v>1.8148308431892508</v>
+        <v>1.8354432739212319</v>
       </c>
       <c r="H167" t="n">
-        <v>1.7659738219450167</v>
+        <v>1.9889612861232264</v>
       </c>
       <c r="I167" t="n">
-        <v>1.7950695134256804</v>
+        <v>1.9683816497074478</v>
       </c>
       <c r="J167" t="n">
-        <v>1.97571009973918</v>
+        <v>2.0339943705891277</v>
       </c>
       <c r="K167" t="n">
-        <v>1.9410319408167815</v>
+        <v>1.9743901395063632</v>
       </c>
       <c r="L167" t="n">
-        <v>1.9481073917731702</v>
+        <v>1.7937055181279495</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>1.9413862276049896</v>
+        <v>1.9029429359692471</v>
       </c>
       <c r="C168" t="n">
-        <v>1.8141852448968017</v>
+        <v>1.7583488244507997</v>
       </c>
       <c r="D168" t="n">
-        <v>1.993913169023368</v>
+        <v>1.949755801043065</v>
       </c>
       <c r="E168" t="n">
-        <v>1.744028951839992</v>
+        <v>1.6827510244069528</v>
       </c>
       <c r="F168" t="n">
-        <v>1.7921960497591627</v>
+        <v>1.7671699729929762</v>
       </c>
       <c r="G168" t="n">
-        <v>1.8961698080707547</v>
+        <v>1.8563122822124463</v>
       </c>
       <c r="H168" t="n">
-        <v>1.9413862276049896</v>
+        <v>1.748650265291462</v>
       </c>
       <c r="I168" t="n">
-        <v>1.8141852448968017</v>
+        <v>1.8367919647961477</v>
       </c>
       <c r="J168" t="n">
-        <v>1.993913169023368</v>
+        <v>1.9354718741299104</v>
       </c>
       <c r="K168" t="n">
-        <v>1.744028951839992</v>
+        <v>1.9939012141734505</v>
       </c>
       <c r="L168" t="n">
-        <v>1.7921960497591627</v>
+        <v>1.9366542036799212</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>2.1264833032308816</v>
+        <v>2.1054290130998825</v>
       </c>
       <c r="C171" t="n">
-        <v>1.9519902175480368</v>
+        <v>1.9477845772621114</v>
       </c>
       <c r="D171" t="n">
-        <v>2.057127041845179</v>
+        <v>2.0346787912155904</v>
       </c>
       <c r="E171" t="n">
-        <v>1.981547428643093</v>
+        <v>1.993107600580083</v>
       </c>
       <c r="F171" t="n">
-        <v>2.1248724310294467</v>
+        <v>2.1374653646978583</v>
       </c>
       <c r="G171" t="n">
-        <v>2.213122286639714</v>
+        <v>2.2087142093459593</v>
       </c>
       <c r="H171" t="n">
-        <v>2.1264833032308816</v>
+        <v>2.1439899829502336</v>
       </c>
       <c r="I171" t="n">
-        <v>1.9519902175480368</v>
+        <v>2.1598127890722623</v>
       </c>
       <c r="J171" t="n">
-        <v>2.057127041845179</v>
+        <v>1.9575560724542307</v>
       </c>
       <c r="K171" t="n">
-        <v>1.981547428643093</v>
+        <v>1.9477845772621114</v>
       </c>
       <c r="L171" t="n">
-        <v>2.1248724310294467</v>
+        <v>2.134866622684617</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1.1844081856399633</v>
+        <v>1.1963719046868317</v>
       </c>
       <c r="C175" t="n">
-        <v>1.0872190665406833</v>
+        <v>1.1067933091639972</v>
       </c>
       <c r="D175" t="n">
-        <v>1.145778150978604</v>
+        <v>1.1561693724779194</v>
       </c>
       <c r="E175" t="n">
-        <v>1.1036818352407636</v>
+        <v>1.1325472963066237</v>
       </c>
       <c r="F175" t="n">
-        <v>1.1835109624083018</v>
+        <v>1.214575981263157</v>
       </c>
       <c r="G175" t="n">
-        <v>1.2326643468752931</v>
+        <v>1.255061846826909</v>
       </c>
       <c r="H175" t="n">
-        <v>1.1844081856399633</v>
+        <v>1.2182834774159037</v>
       </c>
       <c r="I175" t="n">
-        <v>1.0872190665406833</v>
+        <v>1.2272745004235284</v>
       </c>
       <c r="J175" t="n">
-        <v>1.145778150978604</v>
+        <v>1.1123457843326667</v>
       </c>
       <c r="K175" t="n">
-        <v>1.1036818352407636</v>
+        <v>1.1067933091639972</v>
       </c>
       <c r="L175" t="n">
-        <v>1.1835109624083018</v>
+        <v>1.213099293180668</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.174184619030956</v>
+        <v>1.1860450697282383</v>
       </c>
       <c r="C176" t="n">
-        <v>1.0778344163161024</v>
+        <v>1.0972396981236208</v>
       </c>
       <c r="D176" t="n">
-        <v>1.135888030842913</v>
+        <v>1.1461895574663947</v>
       </c>
       <c r="E176" t="n">
-        <v>1.0941550818000663</v>
+        <v>1.122771382173283</v>
       </c>
       <c r="F176" t="n">
-        <v>1.1732951404447496</v>
+        <v>1.2040920124788352</v>
       </c>
       <c r="G176" t="n">
-        <v>1.2220242430583654</v>
+        <v>1.2442284124205722</v>
       </c>
       <c r="H176" t="n">
-        <v>1.174184619030956</v>
+        <v>1.2077675062912319</v>
       </c>
       <c r="I176" t="n">
-        <v>1.0778344163161024</v>
+        <v>1.2166809206469442</v>
       </c>
       <c r="J176" t="n">
-        <v>1.135888030842913</v>
+        <v>1.1027442454744825</v>
       </c>
       <c r="K176" t="n">
-        <v>1.0941550818000663</v>
+        <v>1.0972396981236208</v>
       </c>
       <c r="L176" t="n">
-        <v>1.1732951404447496</v>
+        <v>1.2026280708626025</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>4.626123259754571</v>
+        <v>4.580769110149134</v>
       </c>
       <c r="C177" t="n">
-        <v>3.934758529625852</v>
+        <v>3.8659357133049177</v>
       </c>
       <c r="D177" t="n">
-        <v>4.52987571555396</v>
+        <v>4.433002366350043</v>
       </c>
       <c r="E177" t="n">
-        <v>4.555605512948337</v>
+        <v>4.523865147617324</v>
       </c>
       <c r="F177" t="n">
-        <v>4.157056054194099</v>
+        <v>4.0396133583028115</v>
       </c>
       <c r="G177" t="n">
-        <v>3.9466024852051467</v>
+        <v>3.9433800161712815</v>
       </c>
       <c r="H177" t="n">
-        <v>4.626123259754571</v>
+        <v>4.371802453151091</v>
       </c>
       <c r="I177" t="n">
-        <v>3.934758529625852</v>
+        <v>4.059878978520506</v>
       </c>
       <c r="J177" t="n">
-        <v>4.52987571555396</v>
+        <v>4.366560483927719</v>
       </c>
       <c r="K177" t="n">
-        <v>4.555605512948337</v>
+        <v>4.112604680048709</v>
       </c>
       <c r="L177" t="n">
-        <v>4.157056054194099</v>
+        <v>4.2646736461686645</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>3.735914521903833</v>
+        <v>3.774036098657954</v>
       </c>
       <c r="C178" t="n">
-        <v>4.1468630729842735</v>
+        <v>4.15674226505573</v>
       </c>
       <c r="D178" t="n">
-        <v>3.7118198716662443</v>
+        <v>3.7532195735957314</v>
       </c>
       <c r="E178" t="n">
-        <v>3.7739181441017076</v>
+        <v>3.792969391396496</v>
       </c>
       <c r="F178" t="n">
-        <v>4.128496831697564</v>
+        <v>4.18486290910031</v>
       </c>
       <c r="G178" t="n">
-        <v>4.076247138626303</v>
+        <v>4.079488661815946</v>
       </c>
       <c r="H178" t="n">
-        <v>3.735914521903833</v>
+        <v>3.684129447975057</v>
       </c>
       <c r="I178" t="n">
-        <v>4.1468630729842735</v>
+        <v>4.084386007012708</v>
       </c>
       <c r="J178" t="n">
-        <v>3.7118198716662443</v>
+        <v>3.942402715815334</v>
       </c>
       <c r="K178" t="n">
-        <v>3.7739181441017076</v>
+        <v>3.774036098657954</v>
       </c>
       <c r="L178" t="n">
-        <v>4.128496831697564</v>
+        <v>4.154204569269659</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>3.773540892478515</v>
+        <v>3.8120464117895203</v>
       </c>
       <c r="C179" t="n">
-        <v>4.18862832371251</v>
+        <v>4.198607014351097</v>
       </c>
       <c r="D179" t="n">
-        <v>3.7492035722779518</v>
+        <v>3.791020232496325</v>
       </c>
       <c r="E179" t="n">
-        <v>3.8119272692505684</v>
+        <v>3.8311703917305135</v>
       </c>
       <c r="F179" t="n">
-        <v>4.170077106298358</v>
+        <v>4.227010876271091</v>
       </c>
       <c r="G179" t="n">
-        <v>4.117301178940314</v>
+        <v>4.120575349224008</v>
       </c>
       <c r="H179" t="n">
-        <v>3.773540892478515</v>
+        <v>3.721234263688016</v>
       </c>
       <c r="I179" t="n">
-        <v>4.18862832371251</v>
+        <v>4.125522018173796</v>
       </c>
       <c r="J179" t="n">
-        <v>3.7492035722779518</v>
+        <v>3.9821087381748352</v>
       </c>
       <c r="K179" t="n">
-        <v>3.8119272692505684</v>
+        <v>3.8120464117895203</v>
       </c>
       <c r="L179" t="n">
-        <v>4.170077106298358</v>
+        <v>4.196043760088918</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>4.044082086058631</v>
+        <v>4.085348229793923</v>
       </c>
       <c r="C184" t="n">
-        <v>4.488928900398817</v>
+        <v>4.499623005803709</v>
       </c>
       <c r="D184" t="n">
-        <v>4.017999919878334</v>
+        <v>4.062814594293284</v>
       </c>
       <c r="E184" t="n">
-        <v>4.085220545419699</v>
+        <v>4.10584328918169</v>
       </c>
       <c r="F184" t="n">
-        <v>4.469047667319115</v>
+        <v>4.5300632613722875</v>
       </c>
       <c r="G184" t="n">
-        <v>4.412488009298924</v>
+        <v>4.415996918773677</v>
       </c>
       <c r="H184" t="n">
-        <v>4.044082086058631</v>
+        <v>3.9880253726159847</v>
       </c>
       <c r="I184" t="n">
-        <v>4.488928900398817</v>
+        <v>4.421298235456207</v>
       </c>
       <c r="J184" t="n">
-        <v>4.017999919878334</v>
+        <v>4.267603047548551</v>
       </c>
       <c r="K184" t="n">
-        <v>4.085220545419699</v>
+        <v>4.085348229793923</v>
       </c>
       <c r="L184" t="n">
-        <v>4.469047667319115</v>
+        <v>4.4968759809432255</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>4.402676815957906</v>
+        <v>4.358650047798327</v>
       </c>
       <c r="C187" t="n">
-        <v>4.8869688541684955</v>
+        <v>4.800638997256321</v>
       </c>
       <c r="D187" t="n">
-        <v>4.374281905590528</v>
+        <v>4.334608956090244</v>
       </c>
       <c r="E187" t="n">
-        <v>4.4474630832539095</v>
+        <v>4.380516186632868</v>
       </c>
       <c r="F187" t="n">
-        <v>4.8653247227957905</v>
+        <v>4.833115646473486</v>
       </c>
       <c r="G187" t="n">
-        <v>4.803749836385239</v>
+        <v>4.711418488323348</v>
       </c>
       <c r="H187" t="n">
-        <v>4.402676815957906</v>
+        <v>4.254816481543954</v>
       </c>
       <c r="I187" t="n">
-        <v>4.8869688541684955</v>
+        <v>4.717074452738618</v>
       </c>
       <c r="J187" t="n">
-        <v>4.374281905590528</v>
+        <v>4.553097356922268</v>
       </c>
       <c r="K187" t="n">
-        <v>4.4474630832539095</v>
+        <v>4.358650047798327</v>
       </c>
       <c r="L187" t="n">
-        <v>4.8653247227957905</v>
+        <v>4.7977082017975325</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>2.541329694591043</v>
+        <v>2.491006334302111</v>
       </c>
       <c r="C200" t="n">
-        <v>2.3748199965510643</v>
+        <v>2.30172853679854</v>
       </c>
       <c r="D200" t="n">
-        <v>2.610088952328875</v>
+        <v>2.5522857038625624</v>
       </c>
       <c r="E200" t="n">
-        <v>2.2829834169603815</v>
+        <v>2.2027688700586587</v>
       </c>
       <c r="F200" t="n">
-        <v>2.346035515766745</v>
+        <v>2.313275670703104</v>
       </c>
       <c r="G200" t="n">
-        <v>2.4821401175705047</v>
+        <v>2.429965484529243</v>
       </c>
       <c r="H200" t="n">
-        <v>2.541329694591043</v>
+        <v>2.2890328474833956</v>
       </c>
       <c r="I200" t="n">
-        <v>2.3748199965510643</v>
+        <v>2.4044128347821183</v>
       </c>
       <c r="J200" t="n">
-        <v>2.610088952328875</v>
+        <v>2.5335876379632545</v>
       </c>
       <c r="K200" t="n">
-        <v>2.2829834169603815</v>
+        <v>2.610073303090893</v>
       </c>
       <c r="L200" t="n">
-        <v>2.346035515766745</v>
+        <v>2.5351353409146355</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>0.3023865185658301</v>
+        <v>0.30553637813422424</v>
       </c>
       <c r="C213" t="n">
-        <v>0.2783592836297141</v>
+        <v>0.2834535682133046</v>
       </c>
       <c r="D213" t="n">
-        <v>0.3081812930145346</v>
+        <v>0.30873079298498796</v>
       </c>
       <c r="E213" t="n">
-        <v>0.2931237232554056</v>
+        <v>0.2939346366394337</v>
       </c>
       <c r="F213" t="n">
-        <v>0.3049618823890983</v>
+        <v>0.3009569959381232</v>
       </c>
       <c r="G213" t="n">
-        <v>0.30569009919637263</v>
+        <v>0.3013182888404139</v>
       </c>
       <c r="H213" t="n">
-        <v>0.3023865185658301</v>
+        <v>0.31179892500456696</v>
       </c>
       <c r="I213" t="n">
-        <v>0.2783592836297141</v>
+        <v>0.3051649053442812</v>
       </c>
       <c r="J213" t="n">
-        <v>0.3081812930145346</v>
+        <v>0.30873079298498796</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2931237232554056</v>
+        <v>0.2717900754787717</v>
       </c>
       <c r="L213" t="n">
-        <v>0.3049618823890983</v>
+        <v>0.28490140124404456</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.2833690920404463</v>
+        <v>0.2862606133877978</v>
       </c>
       <c r="C214" t="n">
-        <v>0.2608529567961185</v>
+        <v>0.2655709699748241</v>
       </c>
       <c r="D214" t="n">
-        <v>0.2887994266396758</v>
+        <v>0.2892534980982168</v>
       </c>
       <c r="E214" t="n">
-        <v>0.27468884429223167</v>
+        <v>0.2753908058154687</v>
       </c>
       <c r="F214" t="n">
-        <v>0.28578248835101777</v>
+        <v>0.28197013654049696</v>
       </c>
       <c r="G214" t="n">
-        <v>0.28646490678840253</v>
+        <v>0.28230863609480195</v>
       </c>
       <c r="H214" t="n">
-        <v>0.2833690920404463</v>
+        <v>0.29212806694413535</v>
       </c>
       <c r="I214" t="n">
-        <v>0.2608529567961185</v>
+        <v>0.2859125761774488</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2887994266396758</v>
+        <v>0.2892534980982168</v>
       </c>
       <c r="K214" t="n">
-        <v>0.27468884429223167</v>
+        <v>0.2546433069422907</v>
       </c>
       <c r="L214" t="n">
-        <v>0.28578248835101777</v>
+        <v>0.26692746170911</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.85123619269166</v>
+        <v>0.8256991069109101</v>
       </c>
       <c r="C221" t="n">
-        <v>0.8791471193944245</v>
+        <v>0.8580348140685526</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8544096583870575</v>
+        <v>0.8422399126703076</v>
       </c>
       <c r="E221" t="n">
-        <v>0.9690710698678744</v>
+        <v>0.945663901724347</v>
       </c>
       <c r="F221" t="n">
-        <v>0.9568429958853447</v>
+        <v>0.9502853501083649</v>
       </c>
       <c r="G221" t="n">
-        <v>0.8971158354365361</v>
+        <v>0.8783834660537754</v>
       </c>
       <c r="H221" t="n">
-        <v>0.85123619269166</v>
+        <v>0.9012845411565383</v>
       </c>
       <c r="I221" t="n">
-        <v>0.8791471193944245</v>
+        <v>0.9497051998429017</v>
       </c>
       <c r="J221" t="n">
-        <v>0.8544096583870575</v>
+        <v>0.8627937424661806</v>
       </c>
       <c r="K221" t="n">
-        <v>0.9690710698678744</v>
+        <v>0.956714095112794</v>
       </c>
       <c r="L221" t="n">
-        <v>0.9568429958853447</v>
+        <v>0.946815044604049</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>1.108765599597412</v>
+        <v>1.120315241259885</v>
       </c>
       <c r="C222" t="n">
-        <v>1.1451205803261504</v>
+        <v>1.16418859084016</v>
       </c>
       <c r="D222" t="n">
-        <v>1.1128991522174352</v>
+        <v>1.1427579405917272</v>
       </c>
       <c r="E222" t="n">
-        <v>1.2622497434431355</v>
+        <v>1.2830844472808491</v>
       </c>
       <c r="F222" t="n">
-        <v>1.2463222395404998</v>
+        <v>1.2893548659091083</v>
       </c>
       <c r="G222" t="n">
-        <v>1.1685254759209085</v>
+        <v>1.1917978067970787</v>
       </c>
       <c r="H222" t="n">
-        <v>1.108765599597412</v>
+        <v>1.2228701711294658</v>
       </c>
       <c r="I222" t="n">
-        <v>1.1451205803261504</v>
+        <v>1.2885677133263096</v>
       </c>
       <c r="J222" t="n">
-        <v>1.1128991522174352</v>
+        <v>1.1706455434652792</v>
       </c>
       <c r="K222" t="n">
-        <v>1.2622497434431355</v>
+        <v>1.2980774392416388</v>
       </c>
       <c r="L222" t="n">
-        <v>1.2463222395404998</v>
+        <v>1.2846463272710342</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>1.108765599597412</v>
+        <v>1.120315241259885</v>
       </c>
       <c r="C224" t="n">
-        <v>1.1451205803261504</v>
+        <v>1.16418859084016</v>
       </c>
       <c r="D224" t="n">
-        <v>1.1128991522174352</v>
+        <v>1.1427579405917272</v>
       </c>
       <c r="E224" t="n">
-        <v>1.2622497434431355</v>
+        <v>1.2830844472808491</v>
       </c>
       <c r="F224" t="n">
-        <v>1.2463222395404998</v>
+        <v>1.2893548659091083</v>
       </c>
       <c r="G224" t="n">
-        <v>1.1685254759209085</v>
+        <v>1.1917978067970787</v>
       </c>
       <c r="H224" t="n">
-        <v>1.108765599597412</v>
+        <v>1.2228701711294658</v>
       </c>
       <c r="I224" t="n">
-        <v>1.1451205803261504</v>
+        <v>1.2885677133263096</v>
       </c>
       <c r="J224" t="n">
-        <v>1.1128991522174352</v>
+        <v>1.1706455434652792</v>
       </c>
       <c r="K224" t="n">
-        <v>1.2622497434431355</v>
+        <v>1.2980774392416388</v>
       </c>
       <c r="L224" t="n">
-        <v>1.2463222395404998</v>
+        <v>1.2846463272710342</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>4.036120660799452</v>
+        <v>3.9965508503994576</v>
       </c>
       <c r="C230" t="n">
-        <v>3.4329306213778477</v>
+        <v>3.372885271245507</v>
       </c>
       <c r="D230" t="n">
-        <v>3.9521482545562368</v>
+        <v>3.867629856699386</v>
       </c>
       <c r="E230" t="n">
-        <v>3.974596546793729</v>
+        <v>3.946904257353819</v>
       </c>
       <c r="F230" t="n">
-        <v>3.6268769521122506</v>
+        <v>3.52441256352353</v>
       </c>
       <c r="G230" t="n">
-        <v>3.4432640325593122</v>
+        <v>3.4404525480579116</v>
       </c>
       <c r="H230" t="n">
-        <v>4.036120660799452</v>
+        <v>3.81423520631246</v>
       </c>
       <c r="I230" t="n">
-        <v>3.4329306213778477</v>
+        <v>3.542093564195546</v>
       </c>
       <c r="J230" t="n">
-        <v>3.9521482545562368</v>
+        <v>3.8096617829301245</v>
       </c>
       <c r="K230" t="n">
-        <v>3.974596546793729</v>
+        <v>3.5880947797585785</v>
       </c>
       <c r="L230" t="n">
-        <v>3.6268769521122506</v>
+        <v>3.720769302584787</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>3.8185313778080148</v>
+        <v>3.7810947956726415</v>
       </c>
       <c r="C238" t="n">
-        <v>3.2478596150227004</v>
+        <v>3.191051339740267</v>
       </c>
       <c r="D238" t="n">
-        <v>3.7390859659738087</v>
+        <v>3.6591239972068688</v>
       </c>
       <c r="E238" t="n">
-        <v>3.760324059552034</v>
+        <v>3.734124675282711</v>
       </c>
       <c r="F238" t="n">
-        <v>3.431350202088885</v>
+        <v>3.334409719923903</v>
       </c>
       <c r="G238" t="n">
-        <v>3.257635946840392</v>
+        <v>3.2549760308742783</v>
       </c>
       <c r="H238" t="n">
-        <v>3.8185313778080148</v>
+        <v>3.6086078791210476</v>
       </c>
       <c r="I238" t="n">
-        <v>3.2478596150227004</v>
+        <v>3.3511375290087204</v>
       </c>
       <c r="J238" t="n">
-        <v>3.7390859659738087</v>
+        <v>3.6042810112800874</v>
       </c>
       <c r="K238" t="n">
-        <v>3.760324059552034</v>
+        <v>3.394658796038917</v>
       </c>
       <c r="L238" t="n">
-        <v>3.431350202088885</v>
+        <v>3.520180768998773</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>1.6080937476519601</v>
+        <v>1.6405804900287675</v>
       </c>
       <c r="C242" t="n">
-        <v>1.605189965821069</v>
+        <v>1.6568843950700716</v>
       </c>
       <c r="D242" t="n">
-        <v>1.6324260845681728</v>
+        <v>1.6777257076335697</v>
       </c>
       <c r="E242" t="n">
-        <v>1.577049433114934</v>
+        <v>1.5992709088068198</v>
       </c>
       <c r="F242" t="n">
-        <v>1.5296266784909973</v>
+        <v>1.5619544314058686</v>
       </c>
       <c r="G242" t="n">
-        <v>1.4316091883404107</v>
+        <v>1.4713645204112598</v>
       </c>
       <c r="H242" t="n">
-        <v>1.6080937476519601</v>
+        <v>1.4795251664417457</v>
       </c>
       <c r="I242" t="n">
-        <v>1.605189965821069</v>
+        <v>1.6295564299845877</v>
       </c>
       <c r="J242" t="n">
-        <v>1.6324260845681728</v>
+        <v>1.6236055241351774</v>
       </c>
       <c r="K242" t="n">
-        <v>1.577049433114934</v>
+        <v>1.5455294760882767</v>
       </c>
       <c r="L242" t="n">
-        <v>1.5296266784909973</v>
+        <v>1.4159150077876814</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>0.837936513657991</v>
+        <v>0.8127984182482514</v>
       </c>
       <c r="C250" t="n">
-        <v>0.836423427230441</v>
+        <v>0.8208759178341506</v>
       </c>
       <c r="D250" t="n">
-        <v>0.8506154719553501</v>
+        <v>0.8312014007889866</v>
       </c>
       <c r="E250" t="n">
-        <v>0.8217601155281927</v>
+        <v>0.7923322707597439</v>
       </c>
       <c r="F250" t="n">
-        <v>0.7970493312622493</v>
+        <v>0.7738444403908982</v>
       </c>
       <c r="G250" t="n">
-        <v>0.745974924627553</v>
+        <v>0.7289631701251662</v>
       </c>
       <c r="H250" t="n">
-        <v>0.837936513657991</v>
+        <v>0.7330062269735057</v>
       </c>
       <c r="I250" t="n">
-        <v>0.836423427230441</v>
+        <v>0.8073367303755485</v>
       </c>
       <c r="J250" t="n">
-        <v>0.8506154719553501</v>
+        <v>0.8043884526830227</v>
       </c>
       <c r="K250" t="n">
-        <v>0.8217601155281927</v>
+        <v>0.7657069684514977</v>
       </c>
       <c r="L250" t="n">
-        <v>0.7970493312622493</v>
+        <v>0.701491627932018</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>1.6691185841120522</v>
+        <v>1.6859783677899516</v>
       </c>
       <c r="C253" t="n">
-        <v>1.6917668129274819</v>
+        <v>1.6973841260795743</v>
       </c>
       <c r="D253" t="n">
-        <v>1.497719967106224</v>
+        <v>1.5307524055765307</v>
       </c>
       <c r="E253" t="n">
-        <v>1.506117010272211</v>
+        <v>1.522309204456628</v>
       </c>
       <c r="F253" t="n">
-        <v>1.4734743208305427</v>
+        <v>1.4649398019200537</v>
       </c>
       <c r="G253" t="n">
-        <v>1.5218844378593588</v>
+        <v>1.5307524055765307</v>
       </c>
       <c r="H253" t="n">
-        <v>1.6691185841120522</v>
+        <v>1.6973841260795743</v>
       </c>
       <c r="I253" t="n">
-        <v>1.6917668129274819</v>
+        <v>1.6160357103121954</v>
       </c>
       <c r="J253" t="n">
-        <v>1.497719967106224</v>
+        <v>1.6777790811205073</v>
       </c>
       <c r="K253" t="n">
-        <v>1.506117010272211</v>
+        <v>1.538431765987342</v>
       </c>
       <c r="L253" t="n">
-        <v>1.4734743208305427</v>
+        <v>1.6546442374564327</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.46966238488276</v>
+        <v>1.484658939830543</v>
       </c>
       <c r="C254" t="n">
-        <v>1.4896041974604217</v>
+        <v>1.494702758502091</v>
       </c>
       <c r="D254" t="n">
-        <v>1.3187455461199835</v>
+        <v>1.3479682106392505</v>
       </c>
       <c r="E254" t="n">
-        <v>1.326139160092506</v>
+        <v>1.3405331958947362</v>
       </c>
       <c r="F254" t="n">
-        <v>1.297397204146128</v>
+        <v>1.2900141631622395</v>
       </c>
       <c r="G254" t="n">
-        <v>1.3400224128774012</v>
+        <v>1.3479682106392505</v>
       </c>
       <c r="H254" t="n">
-        <v>1.46966238488276</v>
+        <v>1.494702758502091</v>
       </c>
       <c r="I254" t="n">
-        <v>1.4896041974604217</v>
+        <v>1.4230680003002956</v>
       </c>
       <c r="J254" t="n">
-        <v>1.3187455461199835</v>
+        <v>1.4774387141819891</v>
       </c>
       <c r="K254" t="n">
-        <v>1.326139160092506</v>
+        <v>1.354730593421799</v>
       </c>
       <c r="L254" t="n">
-        <v>1.297397204146128</v>
+        <v>1.457066357618201</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>3.02457265375104</v>
+        <v>3.0551238926778184</v>
       </c>
       <c r="C260" t="n">
-        <v>3.065613005337256</v>
+        <v>3.0757920135330177</v>
       </c>
       <c r="D260" t="n">
-        <v>2.713985032942563</v>
+        <v>2.7738423798291256</v>
       </c>
       <c r="E260" t="n">
-        <v>2.729201128056454</v>
+        <v>2.758542642913811</v>
       </c>
       <c r="F260" t="n">
-        <v>2.6700500367140245</v>
+        <v>2.6545848248619155</v>
       </c>
       <c r="G260" t="n">
-        <v>2.7577729328125895</v>
+        <v>2.7738423798291256</v>
       </c>
       <c r="H260" t="n">
-        <v>3.02457265375104</v>
+        <v>3.0757920135330177</v>
       </c>
       <c r="I260" t="n">
-        <v>3.065613005337256</v>
+        <v>2.928382359061477</v>
       </c>
       <c r="J260" t="n">
-        <v>2.713985032942563</v>
+        <v>3.040266147711867</v>
       </c>
       <c r="K260" t="n">
-        <v>2.729201128056454</v>
+        <v>2.787757977988495</v>
       </c>
       <c r="L260" t="n">
-        <v>2.6700500367140245</v>
+        <v>2.998344012184037</v>
       </c>
     </row>
     <row r="261">
@@ -10135,37 +10135,37 @@
         <v>264.0</v>
       </c>
       <c r="B265" t="n">
-        <v>1.3738001258757673</v>
+        <v>1.3879630137713936</v>
       </c>
       <c r="C265" t="n">
-        <v>1.5151019628998852</v>
+        <v>1.5381074406977773</v>
       </c>
       <c r="D265" t="n">
-        <v>1.4538416628661421</v>
+        <v>1.493034694847986</v>
       </c>
       <c r="E265" t="n">
-        <v>1.4998906669121785</v>
+        <v>1.5040534023503103</v>
       </c>
       <c r="F265" t="n">
-        <v>1.4155983545178663</v>
+        <v>1.416912416715686</v>
       </c>
       <c r="G265" t="n">
-        <v>1.4425284760753656</v>
+        <v>1.4939467510046813</v>
       </c>
       <c r="H265" t="n">
-        <v>1.3738001258757673</v>
+        <v>1.3564009044204814</v>
       </c>
       <c r="I265" t="n">
-        <v>1.5151019628998852</v>
+        <v>1.3809095605836985</v>
       </c>
       <c r="J265" t="n">
-        <v>1.4538416628661421</v>
+        <v>1.3240881604212753</v>
       </c>
       <c r="K265" t="n">
-        <v>1.4998906669121785</v>
+        <v>1.348919377301191</v>
       </c>
       <c r="L265" t="n">
-        <v>1.4155983545178663</v>
+        <v>1.5040534023503103</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>1.911313976754101</v>
+        <v>1.9310182445556896</v>
       </c>
       <c r="C266" t="n">
-        <v>2.10790165421778</v>
+        <v>2.1399082688837865</v>
       </c>
       <c r="D266" t="n">
-        <v>2.0226726129116424</v>
+        <v>2.0772003337986344</v>
       </c>
       <c r="E266" t="n">
-        <v>2.0867387775530877</v>
+        <v>2.092530227324108</v>
       </c>
       <c r="F266" t="n">
-        <v>1.9694662050895586</v>
+        <v>1.9712944080411454</v>
       </c>
       <c r="G266" t="n">
-        <v>2.0069330219569124</v>
+        <v>2.07846924158736</v>
       </c>
       <c r="H266" t="n">
-        <v>1.911313976754101</v>
+        <v>1.8871071256075937</v>
       </c>
       <c r="I266" t="n">
-        <v>2.10790165421778</v>
+        <v>1.9212050530963947</v>
       </c>
       <c r="J266" t="n">
-        <v>2.0226726129116424</v>
+        <v>1.8421516782541516</v>
       </c>
       <c r="K266" t="n">
-        <v>2.0867387775530877</v>
+        <v>1.8766983717567023</v>
       </c>
       <c r="L266" t="n">
-        <v>1.9694662050895586</v>
+        <v>2.092530227324108</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>2.1354241390754503</v>
+        <v>2.0931385125591047</v>
       </c>
       <c r="C268" t="n">
-        <v>1.9955096567705664</v>
+        <v>1.934092490848331</v>
       </c>
       <c r="D268" t="n">
-        <v>2.1932010497497285</v>
+        <v>2.1446302356776084</v>
       </c>
       <c r="E268" t="n">
-        <v>1.9183413738336976</v>
+        <v>1.8509388325091636</v>
       </c>
       <c r="F268" t="n">
-        <v>1.9713226828299495</v>
+        <v>1.9437952966391046</v>
       </c>
       <c r="G268" t="n">
-        <v>2.08568842323333</v>
+        <v>2.041847212436931</v>
       </c>
       <c r="H268" t="n">
-        <v>2.1354241390754503</v>
+        <v>1.923424578895205</v>
       </c>
       <c r="I268" t="n">
-        <v>1.9955096567705664</v>
+        <v>2.0203758759143664</v>
       </c>
       <c r="J268" t="n">
-        <v>2.1932010497497285</v>
+        <v>2.1289186570656753</v>
       </c>
       <c r="K268" t="n">
-        <v>1.9183413738336976</v>
+        <v>2.1931879000349883</v>
       </c>
       <c r="L268" t="n">
-        <v>1.9713226828299495</v>
+        <v>2.1302191582361973</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>2.560389232659951</v>
+        <v>2.5865156534013796</v>
       </c>
       <c r="C269" t="n">
-        <v>2.8237373684311513</v>
+        <v>2.8663148315227316</v>
       </c>
       <c r="D269" t="n">
-        <v>2.709564855529447</v>
+        <v>2.7823202570812335</v>
       </c>
       <c r="E269" t="n">
-        <v>2.795387656032559</v>
+        <v>2.802853988277407</v>
       </c>
       <c r="F269" t="n">
-        <v>2.638289745655804</v>
+        <v>2.6404638372716227</v>
       </c>
       <c r="G269" t="n">
-        <v>2.68848015688909</v>
+        <v>2.784019904335999</v>
       </c>
       <c r="H269" t="n">
-        <v>2.560389232659951</v>
+        <v>2.5276986034652444</v>
       </c>
       <c r="I269" t="n">
-        <v>2.8237373684311513</v>
+        <v>2.5733713066864516</v>
       </c>
       <c r="J269" t="n">
-        <v>2.709564855529447</v>
+        <v>2.467482720672229</v>
       </c>
       <c r="K269" t="n">
-        <v>2.795387656032559</v>
+        <v>2.5137565266134914</v>
       </c>
       <c r="L269" t="n">
-        <v>2.638289745655804</v>
+        <v>2.802853988277407</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>1.6446740502254524</v>
+        <v>1.6616294528050963</v>
       </c>
       <c r="C272" t="n">
-        <v>1.8138365508145435</v>
+        <v>1.8413780480342437</v>
       </c>
       <c r="D272" t="n">
-        <v>1.740497479229953</v>
+        <v>1.7874182513539933</v>
       </c>
       <c r="E272" t="n">
-        <v>1.7956260241811066</v>
+        <v>1.8006095314789274</v>
       </c>
       <c r="F272" t="n">
-        <v>1.694713688960547</v>
+        <v>1.6962868464791914</v>
       </c>
       <c r="G272" t="n">
-        <v>1.7269536569593862</v>
+        <v>1.7885101387872608</v>
       </c>
       <c r="H272" t="n">
-        <v>1.6446740502254524</v>
+        <v>1.6238442020673063</v>
       </c>
       <c r="I272" t="n">
-        <v>1.8138365508145435</v>
+        <v>1.6531852612492928</v>
       </c>
       <c r="J272" t="n">
-        <v>1.740497479229953</v>
+        <v>1.5851603130895013</v>
       </c>
       <c r="K272" t="n">
-        <v>1.7956260241811066</v>
+        <v>1.6148875326964172</v>
       </c>
       <c r="L272" t="n">
-        <v>1.694713688960547</v>
+        <v>1.8006095314789274</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.7781972294152023</v>
+        <v>0.7861380174704594</v>
       </c>
       <c r="C274" t="n">
-        <v>0.7143406096034285</v>
+        <v>0.727275769689287</v>
       </c>
       <c r="D274" t="n">
-        <v>0.7528159577301877</v>
+        <v>0.7597208650413578</v>
       </c>
       <c r="E274" t="n">
-        <v>0.7251572192370268</v>
+        <v>0.7441987585315935</v>
       </c>
       <c r="F274" t="n">
-        <v>0.777607722654348</v>
+        <v>0.7980999472128155</v>
       </c>
       <c r="G274" t="n">
-        <v>0.8099031998997411</v>
+        <v>0.8247032784722493</v>
       </c>
       <c r="H274" t="n">
-        <v>0.7781972294152023</v>
+        <v>0.8005361492532359</v>
       </c>
       <c r="I274" t="n">
-        <v>0.7143406096034285</v>
+        <v>0.8064441657943763</v>
       </c>
       <c r="J274" t="n">
-        <v>0.7528159577301877</v>
+        <v>0.730924310585351</v>
       </c>
       <c r="K274" t="n">
-        <v>0.7251572192370268</v>
+        <v>0.727275769689287</v>
       </c>
       <c r="L274" t="n">
-        <v>0.777607722654348</v>
+        <v>0.7971296129571862</v>
       </c>
     </row>
     <row r="275">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>5.350485142715704</v>
+        <v>5.457494845570019</v>
       </c>
       <c r="C275" t="n">
-        <v>5.906779591537314</v>
+        <v>6.021368853552303</v>
       </c>
       <c r="D275" t="n">
-        <v>5.848136350710249</v>
+        <v>5.869751650230104</v>
       </c>
       <c r="E275" t="n">
-        <v>6.142449271835999</v>
+        <v>6.157701729447991</v>
       </c>
       <c r="F275" t="n">
-        <v>6.039350707093004</v>
+        <v>6.021368853552303</v>
       </c>
       <c r="G275" t="n">
-        <v>5.372097898884612</v>
+        <v>5.430252772969951</v>
       </c>
       <c r="H275" t="n">
-        <v>5.350485142715704</v>
+        <v>5.528371402689486</v>
       </c>
       <c r="I275" t="n">
-        <v>5.906779591537314</v>
+        <v>6.081208542371997</v>
       </c>
       <c r="J275" t="n">
-        <v>5.848136350710249</v>
+        <v>5.87679817062358</v>
       </c>
       <c r="K275" t="n">
-        <v>6.142449271835999</v>
+        <v>5.980907606942849</v>
       </c>
       <c r="L275" t="n">
-        <v>6.039350707093004</v>
+        <v>5.672506229427229</v>
       </c>
     </row>
     <row r="276">
@@ -10705,37 +10705,37 @@
         <v>279.0</v>
       </c>
       <c r="B280" t="n">
-        <v>0.8586156084336531</v>
+        <v>0.8676536674697969</v>
       </c>
       <c r="C280" t="n">
-        <v>0.9530628550588379</v>
+        <v>0.9556380958530907</v>
       </c>
       <c r="D280" t="n">
-        <v>0.8530779970529729</v>
+        <v>0.8628679330883379</v>
       </c>
       <c r="E280" t="n">
-        <v>0.8673498830014456</v>
+        <v>0.8720064453586244</v>
       </c>
       <c r="F280" t="n">
-        <v>0.9488417891472466</v>
+        <v>0.9621030525464218</v>
       </c>
       <c r="G280" t="n">
-        <v>0.9368333768177294</v>
+        <v>0.9378774358000269</v>
       </c>
       <c r="H280" t="n">
-        <v>0.8586156084336531</v>
+        <v>0.8469840625281057</v>
       </c>
       <c r="I280" t="n">
-        <v>0.9530628550588379</v>
+        <v>0.9390033390531377</v>
       </c>
       <c r="J280" t="n">
-        <v>0.8530779970529729</v>
+        <v>0.906361276257119</v>
       </c>
       <c r="K280" t="n">
-        <v>0.8673498830014456</v>
+        <v>0.8676536674697969</v>
       </c>
       <c r="L280" t="n">
-        <v>0.9488417891472466</v>
+        <v>0.9550546777303839</v>
       </c>
     </row>
     <row r="281">
@@ -10784,34 +10784,34 @@
         <v>3.499680726884916</v>
       </c>
       <c r="C282" t="n">
-        <v>3.8635454810305383</v>
+        <v>3.8612713566458936</v>
       </c>
       <c r="D282" t="n">
-        <v>3.8251877220217203</v>
+        <v>3.7640450981984666</v>
       </c>
       <c r="E282" t="n">
-        <v>4.017693864972002</v>
+        <v>3.948696366052952</v>
       </c>
       <c r="F282" t="n">
-        <v>3.9502584735305786</v>
+        <v>3.8612713566458936</v>
       </c>
       <c r="G282" t="n">
-        <v>3.513817341453814</v>
+        <v>3.4822114375614</v>
       </c>
       <c r="H282" t="n">
-        <v>3.499680726884916</v>
+        <v>3.545131126373667</v>
       </c>
       <c r="I282" t="n">
-        <v>3.8635454810305383</v>
+        <v>3.8996442386349743</v>
       </c>
       <c r="J282" t="n">
-        <v>3.8251877220217203</v>
+        <v>3.768563759655869</v>
       </c>
       <c r="K282" t="n">
-        <v>4.017693864972002</v>
+        <v>3.835325121431437</v>
       </c>
       <c r="L282" t="n">
-        <v>3.9502584735305786</v>
+        <v>3.637559225617119</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>1.5692678947808927</v>
+        <v>1.5064971789896568</v>
       </c>
       <c r="C284" t="n">
-        <v>1.6659101380313333</v>
+        <v>1.5806772835490637</v>
       </c>
       <c r="D284" t="n">
-        <v>1.5963243073603721</v>
+        <v>1.52250732259016</v>
       </c>
       <c r="E284" t="n">
-        <v>1.5065532717317143</v>
+        <v>1.4421598060556067</v>
       </c>
       <c r="F284" t="n">
-        <v>1.7341460600790441</v>
+        <v>1.635354798968606</v>
       </c>
       <c r="G284" t="n">
-        <v>1.7139163862575315</v>
+        <v>1.5991476826370403</v>
       </c>
       <c r="H284" t="n">
-        <v>1.5692678947808927</v>
+        <v>1.5884020348739172</v>
       </c>
       <c r="I284" t="n">
-        <v>1.6659101380313333</v>
+        <v>1.4078040779908796</v>
       </c>
       <c r="J284" t="n">
-        <v>1.5963243073603721</v>
+        <v>1.434205256877563</v>
       </c>
       <c r="K284" t="n">
-        <v>1.5065532717317143</v>
+        <v>1.5991476826370403</v>
       </c>
       <c r="L284" t="n">
-        <v>1.7341460600790441</v>
+        <v>1.4421598060556067</v>
       </c>
     </row>
     <row r="285">
@@ -11430,34 +11430,34 @@
         <v>2.7099573256678453</v>
       </c>
       <c r="C299" t="n">
-        <v>2.8768481133635126</v>
+        <v>2.8433959544108407</v>
       </c>
       <c r="D299" t="n">
-        <v>2.7566808479675795</v>
+        <v>2.7387571180207755</v>
       </c>
       <c r="E299" t="n">
-        <v>2.6016558987898373</v>
+        <v>2.594224261226408</v>
       </c>
       <c r="F299" t="n">
-        <v>2.9946842313659863</v>
+        <v>2.941752417022924</v>
       </c>
       <c r="G299" t="n">
-        <v>2.959749754626351</v>
+        <v>2.8766213689781885</v>
       </c>
       <c r="H299" t="n">
-        <v>2.7099573256678453</v>
+        <v>2.8572915970537225</v>
       </c>
       <c r="I299" t="n">
-        <v>2.8768481133635126</v>
+        <v>2.532423576667477</v>
       </c>
       <c r="J299" t="n">
-        <v>2.7566808479675795</v>
+        <v>2.5799152474970346</v>
       </c>
       <c r="K299" t="n">
-        <v>2.6016558987898373</v>
+        <v>2.8766213689781885</v>
       </c>
       <c r="L299" t="n">
-        <v>2.9946842313659863</v>
+        <v>2.594224261226408</v>
       </c>
     </row>
     <row r="300">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>1.170681059193425</v>
+        <v>1.1830040177112506</v>
       </c>
       <c r="C302" t="n">
-        <v>1.2427766166616743</v>
+        <v>1.2412552796132958</v>
       </c>
       <c r="D302" t="n">
-        <v>1.1908652672829827</v>
+        <v>1.195576271060063</v>
       </c>
       <c r="E302" t="n">
-        <v>1.1238956622689698</v>
+        <v>1.1324819379281255</v>
       </c>
       <c r="F302" t="n">
-        <v>1.2936809280055368</v>
+        <v>1.2841917824636815</v>
       </c>
       <c r="G302" t="n">
-        <v>1.2785894983935058</v>
+        <v>1.2557594928534832</v>
       </c>
       <c r="H302" t="n">
-        <v>1.170681059193425</v>
+        <v>1.2473212795903093</v>
       </c>
       <c r="I302" t="n">
-        <v>1.2427766166616743</v>
+        <v>1.1055034842683418</v>
       </c>
       <c r="J302" t="n">
-        <v>1.1908652672829827</v>
+        <v>1.1262354850519118</v>
       </c>
       <c r="K302" t="n">
-        <v>1.1238956622689698</v>
+        <v>1.2557594928534832</v>
       </c>
       <c r="L302" t="n">
-        <v>1.2936809280055368</v>
+        <v>1.1324819379281255</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>2.109909846108756</v>
+        <v>2.1312220667765214</v>
       </c>
       <c r="C305" t="n">
-        <v>2.239847138053808</v>
+        <v>2.2361637008915114</v>
       </c>
       <c r="D305" t="n">
-        <v>2.1462876956089496</v>
+        <v>2.153871409775316</v>
       </c>
       <c r="E305" t="n">
-        <v>2.0255888699984688</v>
+        <v>2.040204817738301</v>
       </c>
       <c r="F305" t="n">
-        <v>2.3315916032694664</v>
+        <v>2.3135152744913996</v>
       </c>
       <c r="G305" t="n">
-        <v>2.3043924308900827</v>
+        <v>2.26229353549556</v>
       </c>
       <c r="H305" t="n">
-        <v>2.109909846108756</v>
+        <v>2.2470918066413876</v>
       </c>
       <c r="I305" t="n">
-        <v>2.239847138053808</v>
+        <v>1.9916022137687237</v>
       </c>
       <c r="J305" t="n">
-        <v>2.1462876956089496</v>
+        <v>2.0289516199388364</v>
       </c>
       <c r="K305" t="n">
-        <v>2.0255888699984688</v>
+        <v>2.26229353549556</v>
       </c>
       <c r="L305" t="n">
-        <v>2.3315916032694664</v>
+        <v>2.040204817738301</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>2.7598868521364963</v>
       </c>
       <c r="C310" t="n">
-        <v>2.9298525140830236</v>
+        <v>2.895784016843383</v>
       </c>
       <c r="D310" t="n">
-        <v>2.8074712305542504</v>
+        <v>2.7892172653892313</v>
       </c>
       <c r="E310" t="n">
-        <v>2.6495900289071583</v>
+        <v>2.6420214673630764</v>
       </c>
       <c r="F310" t="n">
-        <v>3.049859700063964</v>
+        <v>2.995952645114622</v>
       </c>
       <c r="G310" t="n">
-        <v>3.014281574118299</v>
+        <v>2.9296215920526563</v>
       </c>
       <c r="H310" t="n">
-        <v>2.7598868521364963</v>
+        <v>2.909935679332247</v>
       </c>
       <c r="I310" t="n">
-        <v>2.9298525140830236</v>
+        <v>2.579082137967845</v>
       </c>
       <c r="J310" t="n">
-        <v>2.8074712305542504</v>
+        <v>2.627448817644688</v>
       </c>
       <c r="K310" t="n">
-        <v>2.6495900289071583</v>
+        <v>2.9296215920526563</v>
       </c>
       <c r="L310" t="n">
-        <v>3.049859700063964</v>
+        <v>2.6420214673630764</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>1.6445440476546855</v>
+        <v>1.661498110001641</v>
       </c>
       <c r="C312" t="n">
-        <v>1.46382382518572</v>
+        <v>1.4797858102841812</v>
       </c>
       <c r="D312" t="n">
-        <v>1.5316716244163904</v>
+        <v>1.551171617095878</v>
       </c>
       <c r="E312" t="n">
-        <v>1.5757361861274242</v>
+        <v>1.5835251392960412</v>
       </c>
       <c r="F312" t="n">
-        <v>1.5327559558334312</v>
+        <v>1.5432887583462507</v>
       </c>
       <c r="G312" t="n">
-        <v>1.6760017732209116</v>
+        <v>1.6685985282090907</v>
       </c>
       <c r="H312" t="n">
-        <v>1.6445440476546855</v>
+        <v>1.6635206274261498</v>
       </c>
       <c r="I312" t="n">
-        <v>1.46382382518572</v>
+        <v>1.4507241981648744</v>
       </c>
       <c r="J312" t="n">
-        <v>1.5316716244163904</v>
+        <v>1.669617831756394</v>
       </c>
       <c r="K312" t="n">
-        <v>1.5757361861274242</v>
+        <v>1.6976176340171674</v>
       </c>
       <c r="L312" t="n">
-        <v>1.5327559558334312</v>
+        <v>1.6405548562422803</v>
       </c>
     </row>
     <row r="313">
@@ -12000,34 +12000,34 @@
         <v>2.309928332494608</v>
       </c>
       <c r="C314" t="n">
-        <v>2.3856678756794802</v>
+        <v>2.4003888470931134</v>
       </c>
       <c r="D314" t="n">
-        <v>2.31853990045299</v>
+        <v>2.3562019393643863</v>
       </c>
       <c r="E314" t="n">
-        <v>2.629686965506532</v>
+        <v>2.645534942847112</v>
       </c>
       <c r="F314" t="n">
-        <v>2.5965046657093747</v>
+        <v>2.658463641049708</v>
       </c>
       <c r="G314" t="n">
-        <v>2.4344280748352256</v>
+        <v>2.457315065560987</v>
       </c>
       <c r="H314" t="n">
-        <v>2.309928332494608</v>
+        <v>2.521381796143229</v>
       </c>
       <c r="I314" t="n">
-        <v>2.3856678756794802</v>
+        <v>2.6568406460336282</v>
       </c>
       <c r="J314" t="n">
-        <v>2.31853990045299</v>
+        <v>2.4137021514748027</v>
       </c>
       <c r="K314" t="n">
-        <v>2.629686965506532</v>
+        <v>2.676448328333276</v>
       </c>
       <c r="L314" t="n">
-        <v>2.5965046657093747</v>
+        <v>2.6487553139608955</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3.974081265588345</v>
+        <v>4.013822078244228</v>
       </c>
       <c r="C315" t="n">
-        <v>3.5373663892363814</v>
+        <v>3.574844244863634</v>
       </c>
       <c r="D315" t="n">
-        <v>3.7013222700281028</v>
+        <v>3.7472970004396142</v>
       </c>
       <c r="E315" t="n">
-        <v>3.8078053705701143</v>
+        <v>3.825456151469796</v>
       </c>
       <c r="F315" t="n">
-        <v>3.703942583650165</v>
+        <v>3.728253709148176</v>
       </c>
       <c r="G315" t="n">
-        <v>4.050099635548727</v>
+        <v>4.030975161473315</v>
       </c>
       <c r="H315" t="n">
-        <v>3.974081265588345</v>
+        <v>4.018708045338178</v>
       </c>
       <c r="I315" t="n">
-        <v>3.5373663892363814</v>
+        <v>3.5046376405637782</v>
       </c>
       <c r="J315" t="n">
-        <v>3.7013222700281028</v>
+        <v>4.0334375796114825</v>
       </c>
       <c r="K315" t="n">
-        <v>3.8078053705701143</v>
+        <v>4.101079079667509</v>
       </c>
       <c r="L315" t="n">
-        <v>3.703942583650165</v>
+        <v>3.963227681643012</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>1.637867969279088</v>
+        <v>1.654412090180897</v>
       </c>
       <c r="C316" t="n">
-        <v>1.4578813862471316</v>
+        <v>1.473474763934499</v>
       </c>
       <c r="D316" t="n">
-        <v>1.5254537551991654</v>
+        <v>1.5445561218642245</v>
       </c>
       <c r="E316" t="n">
-        <v>1.5693394354336045</v>
+        <v>1.5767716615423486</v>
       </c>
       <c r="F316" t="n">
-        <v>1.526533684738655</v>
+        <v>1.536706882227979</v>
       </c>
       <c r="G316" t="n">
-        <v>1.669197991217249</v>
+        <v>1.661482226256907</v>
       </c>
       <c r="H316" t="n">
-        <v>1.637867969279088</v>
+        <v>1.6564259818967928</v>
       </c>
       <c r="I316" t="n">
-        <v>1.4578813862471316</v>
+        <v>1.4445370948749288</v>
       </c>
       <c r="J316" t="n">
-        <v>1.5254537551991654</v>
+        <v>1.662497182639988</v>
       </c>
       <c r="K316" t="n">
-        <v>1.5693394354336045</v>
+        <v>1.6903775702877666</v>
       </c>
       <c r="L316" t="n">
-        <v>1.526533684738655</v>
+        <v>1.6335581560002683</v>
       </c>
     </row>
     <row r="317">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>3.969593424955519</v>
+        <v>4.0092893592050745</v>
       </c>
       <c r="C319" t="n">
-        <v>3.533371720895733</v>
+        <v>3.570807253623157</v>
       </c>
       <c r="D319" t="n">
-        <v>3.6971424499971306</v>
+        <v>3.743065262179136</v>
       </c>
       <c r="E319" t="n">
-        <v>3.8035053015675224</v>
+        <v>3.8211361498371366</v>
       </c>
       <c r="F319" t="n">
-        <v>3.6997598045579263</v>
+        <v>3.7240434760484455</v>
       </c>
       <c r="G319" t="n">
-        <v>4.045525949079656</v>
+        <v>4.026423071842885</v>
       </c>
       <c r="H319" t="n">
-        <v>3.969593424955519</v>
+        <v>4.0141698086862245</v>
       </c>
       <c r="I319" t="n">
-        <v>3.533371720895733</v>
+        <v>3.5006799320632385</v>
       </c>
       <c r="J319" t="n">
-        <v>3.6971424499971306</v>
+        <v>4.028882709227606</v>
       </c>
       <c r="K319" t="n">
-        <v>3.8035053015675224</v>
+        <v>4.096447823258252</v>
       </c>
       <c r="L319" t="n">
-        <v>3.6997598045579263</v>
+        <v>3.9587520977185386</v>
       </c>
     </row>
     <row r="320">
@@ -12342,34 +12342,34 @@
         <v>1.9332774124382472</v>
       </c>
       <c r="C323" t="n">
-        <v>1.7796617327259006</v>
+        <v>1.7935487232262342</v>
       </c>
       <c r="D323" t="n">
-        <v>1.9703257127559608</v>
+        <v>1.9534900303747795</v>
       </c>
       <c r="E323" t="n">
-        <v>1.8740566739125508</v>
+        <v>1.8598675457840952</v>
       </c>
       <c r="F323" t="n">
-        <v>1.9497427387760389</v>
+        <v>1.9043014318473053</v>
       </c>
       <c r="G323" t="n">
-        <v>1.9543985187742297</v>
+        <v>1.906587507932707</v>
       </c>
       <c r="H323" t="n">
-        <v>1.9332774124382472</v>
+        <v>1.972903595358602</v>
       </c>
       <c r="I323" t="n">
-        <v>1.7796617327259006</v>
+        <v>1.9309269232476711</v>
       </c>
       <c r="J323" t="n">
-        <v>1.9703257127559608</v>
+        <v>1.9534900303747795</v>
       </c>
       <c r="K323" t="n">
-        <v>1.8740566739125508</v>
+        <v>1.7197481264151266</v>
       </c>
       <c r="L323" t="n">
-        <v>1.9497427387760389</v>
+        <v>1.8027098676778515</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>1.9670293180893228</v>
+        <v>1.9473590249084296</v>
       </c>
       <c r="C327" t="n">
-        <v>1.9126716475292014</v>
+        <v>1.9140708353551639</v>
       </c>
       <c r="D327" t="n">
-        <v>1.6792367458299333</v>
+        <v>1.6641443887833958</v>
       </c>
       <c r="E327" t="n">
-        <v>1.9373285578565966</v>
+        <v>1.9281968210045832</v>
       </c>
       <c r="F327" t="n">
-        <v>1.8832601964811735</v>
+        <v>1.8819015785084907</v>
       </c>
       <c r="G327" t="n">
-        <v>1.7234765227205473</v>
+        <v>1.7476298941010562</v>
       </c>
       <c r="H327" t="n">
-        <v>1.9670293180893228</v>
+        <v>1.8796451018580311</v>
       </c>
       <c r="I327" t="n">
-        <v>1.9126716475292014</v>
+        <v>1.779368915122211</v>
       </c>
       <c r="J327" t="n">
-        <v>1.6792367458299333</v>
+        <v>1.7703263864511107</v>
       </c>
       <c r="K327" t="n">
-        <v>1.9373285578565966</v>
+        <v>1.9059258542947457</v>
       </c>
       <c r="L327" t="n">
-        <v>1.8832601964811735</v>
+        <v>1.6974813378730447</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>2.4050516415186274</v>
       </c>
       <c r="C329" t="n">
-        <v>2.3902682735289953</v>
+        <v>2.4173362397657927</v>
       </c>
       <c r="D329" t="n">
-        <v>2.3636823910012916</v>
+        <v>2.374217645821009</v>
       </c>
       <c r="E329" t="n">
-        <v>2.567977010254306</v>
+        <v>2.6003336106751265</v>
       </c>
       <c r="F329" t="n">
-        <v>2.3183551009185974</v>
+        <v>2.3623663090252776</v>
       </c>
       <c r="G329" t="n">
-        <v>2.581450922339243</v>
+        <v>2.5924202415486857</v>
       </c>
       <c r="H329" t="n">
-        <v>2.4050516415186274</v>
+        <v>2.589268362922273</v>
       </c>
       <c r="I329" t="n">
-        <v>2.3902682735289953</v>
+        <v>2.6788342485793004</v>
       </c>
       <c r="J329" t="n">
-        <v>2.3636823910012916</v>
+        <v>2.6195242668356045</v>
       </c>
       <c r="K329" t="n">
-        <v>2.567977010254306</v>
+        <v>2.2607996042983047</v>
       </c>
       <c r="L329" t="n">
-        <v>2.3183551009185974</v>
+        <v>2.6455568054153673</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>2.053083144897817</v>
+        <v>2.032552313448839</v>
       </c>
       <c r="C331" t="n">
-        <v>2.2075068739678265</v>
+        <v>2.198157988851539</v>
       </c>
       <c r="D331" t="n">
-        <v>2.1125603028079736</v>
+        <v>2.082154254265658</v>
       </c>
       <c r="E331" t="n">
-        <v>2.1302600102510536</v>
+        <v>2.1197764664967673</v>
       </c>
       <c r="F331" t="n">
-        <v>2.164943245082959</v>
+        <v>2.1306039272527735</v>
       </c>
       <c r="G331" t="n">
-        <v>2.2503058023788713</v>
+        <v>2.17504294399367</v>
       </c>
       <c r="H331" t="n">
-        <v>2.053083144897817</v>
+        <v>2.3610843525165826</v>
       </c>
       <c r="I331" t="n">
-        <v>2.2075068739678265</v>
+        <v>2.082154254265658</v>
       </c>
       <c r="J331" t="n">
-        <v>2.1125603028079736</v>
+        <v>1.9926348831456615</v>
       </c>
       <c r="K331" t="n">
-        <v>2.1302600102510536</v>
+        <v>2.2849203420159525</v>
       </c>
       <c r="L331" t="n">
-        <v>2.164943245082959</v>
+        <v>2.3088094236301275</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>1.5499013237318706</v>
       </c>
       <c r="C333" t="n">
-        <v>1.6664779673500383</v>
+        <v>1.6761821844141884</v>
       </c>
       <c r="D333" t="n">
-        <v>1.5948014662350374</v>
+        <v>1.5877247604143985</v>
       </c>
       <c r="E333" t="n">
-        <v>1.6081632241666977</v>
+        <v>1.6164131814468572</v>
       </c>
       <c r="F333" t="n">
-        <v>1.634346085640605</v>
+        <v>1.6246695474195063</v>
       </c>
       <c r="G333" t="n">
-        <v>1.6987874799790972</v>
+        <v>1.658556050815421</v>
       </c>
       <c r="H333" t="n">
-        <v>1.5499013237318706</v>
+        <v>1.8004199641969854</v>
       </c>
       <c r="I333" t="n">
-        <v>1.6664779673500383</v>
+        <v>1.5877247604143985</v>
       </c>
       <c r="J333" t="n">
-        <v>1.5948014662350374</v>
+        <v>1.5194627083724994</v>
       </c>
       <c r="K333" t="n">
-        <v>1.6081632241666977</v>
+        <v>1.742341901499867</v>
       </c>
       <c r="L333" t="n">
-        <v>1.634346085640605</v>
+        <v>1.7605582686612729</v>
       </c>
     </row>
     <row r="334">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>0.9690453784378422</v>
+        <v>0.9790355369784386</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9227971734394389</v>
+        <v>0.9223127360923075</v>
       </c>
       <c r="D341" t="n">
-        <v>0.9613645571212485</v>
+        <v>0.9555292812357832</v>
       </c>
       <c r="E341" t="n">
-        <v>0.8849258201340716</v>
+        <v>0.8829238946849898</v>
       </c>
       <c r="F341" t="n">
-        <v>0.8629067821624122</v>
+        <v>0.8780539340112482</v>
       </c>
       <c r="G341" t="n">
-        <v>0.9549203655711261</v>
+        <v>0.9790355369784386</v>
       </c>
       <c r="H341" t="n">
-        <v>0.9690453784378422</v>
+        <v>0.8449637907987895</v>
       </c>
       <c r="I341" t="n">
-        <v>0.9227971734394389</v>
+        <v>0.9543835627048238</v>
       </c>
       <c r="J341" t="n">
-        <v>0.9613645571212485</v>
+        <v>0.903468661664843</v>
       </c>
       <c r="K341" t="n">
-        <v>0.8849258201340716</v>
+        <v>0.9321145196969166</v>
       </c>
       <c r="L341" t="n">
-        <v>0.8629067821624122</v>
+        <v>0.8988773477404994</v>
       </c>
     </row>
     <row r="342">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>2.766785492144799</v>
+        <v>2.739391576380989</v>
       </c>
       <c r="C348" t="n">
-        <v>2.634739186084707</v>
+        <v>2.5806782742921133</v>
       </c>
       <c r="D348" t="n">
-        <v>2.7448554716737594</v>
+        <v>2.6736198688774793</v>
       </c>
       <c r="E348" t="n">
-        <v>2.5266101828154333</v>
+        <v>2.4704662786299076</v>
       </c>
       <c r="F348" t="n">
-        <v>2.4637421725379554</v>
+        <v>2.4568398792367585</v>
       </c>
       <c r="G348" t="n">
-        <v>2.726456234562466</v>
+        <v>2.739391576380989</v>
       </c>
       <c r="H348" t="n">
-        <v>2.766785492144799</v>
+        <v>2.36425196372839</v>
       </c>
       <c r="I348" t="n">
-        <v>2.634739186084707</v>
+        <v>2.6704140897468256</v>
       </c>
       <c r="J348" t="n">
-        <v>2.7448554716737594</v>
+        <v>2.527951588894554</v>
       </c>
       <c r="K348" t="n">
-        <v>2.5266101828154333</v>
+        <v>2.60810416684229</v>
       </c>
       <c r="L348" t="n">
-        <v>2.4637421725379554</v>
+        <v>2.5151048573778567</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>3.730037735309733</v>
+        <v>3.693106668623498</v>
       </c>
       <c r="C351" t="n">
-        <v>3.552019704706794</v>
+        <v>3.4791375670910916</v>
       </c>
       <c r="D351" t="n">
-        <v>3.7004728109144986</v>
+        <v>3.6044366392336644</v>
       </c>
       <c r="E351" t="n">
-        <v>3.4062457501949948</v>
+        <v>3.3305554294909916</v>
       </c>
       <c r="F351" t="n">
-        <v>3.3214903358903434</v>
+        <v>3.312185019469271</v>
       </c>
       <c r="G351" t="n">
-        <v>3.675667906840481</v>
+        <v>3.693106668623498</v>
       </c>
       <c r="H351" t="n">
-        <v>3.730037735309733</v>
+        <v>3.187362759246934</v>
       </c>
       <c r="I351" t="n">
-        <v>3.552019704706794</v>
+        <v>3.600114772879241</v>
       </c>
       <c r="J351" t="n">
-        <v>3.7004728109144986</v>
+        <v>3.408054164800211</v>
       </c>
       <c r="K351" t="n">
-        <v>3.4062457501949948</v>
+        <v>3.5161117432341826</v>
       </c>
       <c r="L351" t="n">
-        <v>3.3214903358903434</v>
+        <v>3.3907348628634617</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>2.502736297880216</v>
+        <v>2.5277636608590184</v>
       </c>
       <c r="C353" t="n">
-        <v>2.3832918797582288</v>
+        <v>2.3813115358783277</v>
       </c>
       <c r="D353" t="n">
-        <v>2.48289917700404</v>
+        <v>2.4670730558453093</v>
       </c>
       <c r="E353" t="n">
-        <v>2.285482207810788</v>
+        <v>2.2796138158343315</v>
       </c>
       <c r="F353" t="n">
-        <v>2.228614029289663</v>
+        <v>2.2670401051201234</v>
       </c>
       <c r="G353" t="n">
-        <v>2.4662558778749695</v>
+        <v>2.5277636608590184</v>
       </c>
       <c r="H353" t="n">
-        <v>2.502736297880216</v>
+        <v>2.181604941241168</v>
       </c>
       <c r="I353" t="n">
-        <v>2.3832918797582288</v>
+        <v>2.4641149347570086</v>
       </c>
       <c r="J353" t="n">
-        <v>2.48289917700404</v>
+        <v>2.332658177791576</v>
       </c>
       <c r="K353" t="n">
-        <v>2.285482207810788</v>
+        <v>2.4066186789507866</v>
       </c>
       <c r="L353" t="n">
-        <v>2.228614029289663</v>
+        <v>2.320803902788066</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>2.9457446845826762</v>
+        <v>2.916864834733826</v>
       </c>
       <c r="C356" t="n">
-        <v>2.864340804301771</v>
+        <v>2.867003895750353</v>
       </c>
       <c r="D356" t="n">
-        <v>2.5147580021782936</v>
+        <v>2.492649884009014</v>
       </c>
       <c r="E356" t="n">
-        <v>2.9012660101780656</v>
+        <v>2.8881625985214985</v>
       </c>
       <c r="F356" t="n">
-        <v>2.8202953877978882</v>
+        <v>2.8188189576596514</v>
       </c>
       <c r="G356" t="n">
-        <v>2.5810097282833393</v>
+        <v>2.6176992105873618</v>
       </c>
       <c r="H356" t="n">
-        <v>2.9457446845826762</v>
+        <v>2.8154390789069734</v>
       </c>
       <c r="I356" t="n">
-        <v>2.864340804301771</v>
+        <v>2.66523971704833</v>
       </c>
       <c r="J356" t="n">
-        <v>2.5147580021782936</v>
+        <v>2.6516953045591922</v>
       </c>
       <c r="K356" t="n">
-        <v>2.9012660101780656</v>
+        <v>2.854803880996615</v>
       </c>
       <c r="L356" t="n">
-        <v>2.8202953877978882</v>
+        <v>2.542583857792549</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>3.5442829337284225</v>
+        <v>3.5797257630657064</v>
       </c>
       <c r="C362" t="n">
-        <v>3.446338809402604</v>
+        <v>3.518533867670227</v>
       </c>
       <c r="D362" t="n">
-        <v>3.025725181216856</v>
+        <v>3.0591074710885833</v>
       </c>
       <c r="E362" t="n">
-        <v>3.490766752427239</v>
+        <v>3.5445009102705507</v>
       </c>
       <c r="F362" t="n">
-        <v>3.393343918555237</v>
+        <v>3.459398846320926</v>
       </c>
       <c r="G362" t="n">
-        <v>3.1054384243207576</v>
+        <v>3.212574402663895</v>
       </c>
       <c r="H362" t="n">
-        <v>3.5442829337284225</v>
+        <v>3.455250886188209</v>
       </c>
       <c r="I362" t="n">
-        <v>3.446338809402604</v>
+        <v>3.2709185445456184</v>
       </c>
       <c r="J362" t="n">
-        <v>3.025725181216856</v>
+        <v>3.254296148555377</v>
       </c>
       <c r="K362" t="n">
-        <v>3.490766752427239</v>
+        <v>3.5035613853653613</v>
       </c>
       <c r="L362" t="n">
-        <v>3.393343918555237</v>
+        <v>3.120388998527437</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>3.499076846791705</v>
+        <v>3.5340676152596218</v>
       </c>
       <c r="C364" t="n">
-        <v>3.613807021843742</v>
+        <v>3.672467396155441</v>
       </c>
       <c r="D364" t="n">
-        <v>3.512121640274629</v>
+        <v>3.604863775114127</v>
       </c>
       <c r="E364" t="n">
-        <v>3.9834468653738293</v>
+        <v>4.047527897307834</v>
       </c>
       <c r="F364" t="n">
-        <v>3.9331823548649063</v>
+        <v>4.067308118617088</v>
       </c>
       <c r="G364" t="n">
-        <v>3.6876689168258108</v>
+        <v>3.759561485749658</v>
       </c>
       <c r="H364" t="n">
-        <v>3.499076846791705</v>
+        <v>3.8575801794819204</v>
       </c>
       <c r="I364" t="n">
-        <v>3.613807021843742</v>
+        <v>4.064825022477105</v>
       </c>
       <c r="J364" t="n">
-        <v>3.512121640274629</v>
+        <v>3.692836044483422</v>
       </c>
       <c r="K364" t="n">
-        <v>3.9834468653738293</v>
+        <v>4.094823734580285</v>
       </c>
       <c r="L364" t="n">
-        <v>3.9331823548649063</v>
+        <v>4.052454894003897</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>6.888193555287349</v>
+        <v>6.819993619096385</v>
       </c>
       <c r="C366" t="n">
-        <v>7.604364843498838</v>
+        <v>7.524642408556089</v>
       </c>
       <c r="D366" t="n">
-        <v>7.528867765616827</v>
+        <v>7.335172992924486</v>
       </c>
       <c r="E366" t="n">
-        <v>7.9077650641723025</v>
+        <v>7.695011665878682</v>
       </c>
       <c r="F366" t="n">
-        <v>7.775036376907577</v>
+        <v>7.524642408556089</v>
       </c>
       <c r="G366" t="n">
-        <v>6.916017732681309</v>
+        <v>6.785950387437771</v>
       </c>
       <c r="H366" t="n">
-        <v>6.888193555287349</v>
+        <v>6.908564965653067</v>
       </c>
       <c r="I366" t="n">
-        <v>7.604364843498838</v>
+        <v>7.599421461485528</v>
       </c>
       <c r="J366" t="n">
-        <v>7.528867765616827</v>
+        <v>7.343978722564221</v>
       </c>
       <c r="K366" t="n">
-        <v>7.9077650641723025</v>
+        <v>7.474079750870548</v>
       </c>
       <c r="L366" t="n">
-        <v>7.775036376907577</v>
+        <v>7.0886839811458415</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>2.0440772326873384</v>
       </c>
       <c r="C381" t="n">
-        <v>2.0315127016775323</v>
+        <v>2.054518034521384</v>
       </c>
       <c r="D381" t="n">
-        <v>2.0089170965571927</v>
+        <v>2.017871114070075</v>
       </c>
       <c r="E381" t="n">
-        <v>2.1825491187419357</v>
+        <v>2.210049314207842</v>
       </c>
       <c r="F381" t="n">
-        <v>1.9703929833622902</v>
+        <v>2.0077985454387552</v>
       </c>
       <c r="G381" t="n">
-        <v>2.194000730197006</v>
+        <v>2.203323663337828</v>
       </c>
       <c r="H381" t="n">
-        <v>2.0440772326873384</v>
+        <v>2.2006448504469844</v>
       </c>
       <c r="I381" t="n">
-        <v>2.0315127016775323</v>
+        <v>2.276767784581324</v>
       </c>
       <c r="J381" t="n">
-        <v>2.0089170965571927</v>
+        <v>2.2263596431258503</v>
       </c>
       <c r="K381" t="n">
-        <v>2.1825491187419357</v>
+        <v>1.9214759962063443</v>
       </c>
       <c r="L381" t="n">
-        <v>1.9703929833622902</v>
+        <v>2.248484955739241</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>2.414572282660292</v>
+        <v>2.390665626396329</v>
       </c>
       <c r="C387" t="n">
-        <v>2.3997303932073097</v>
+        <v>2.402876743304007</v>
       </c>
       <c r="D387" t="n">
-        <v>2.3730392677639816</v>
+        <v>2.3600160667917778</v>
       </c>
       <c r="E387" t="n">
-        <v>2.578142608012214</v>
+        <v>2.5847795003182394</v>
       </c>
       <c r="F387" t="n">
-        <v>2.327532545000778</v>
+        <v>2.3482356197463616</v>
       </c>
       <c r="G387" t="n">
-        <v>2.5916698579463353</v>
+        <v>2.576913465663107</v>
       </c>
       <c r="H387" t="n">
-        <v>2.414572282660292</v>
+        <v>2.573780440259137</v>
       </c>
       <c r="I387" t="n">
-        <v>2.3997303932073097</v>
+        <v>2.6628105801703095</v>
       </c>
       <c r="J387" t="n">
-        <v>2.3730392677639816</v>
+        <v>2.6038553659831765</v>
       </c>
       <c r="K387" t="n">
-        <v>2.578142608012214</v>
+        <v>2.2472764446561335</v>
       </c>
       <c r="L387" t="n">
-        <v>2.327532545000778</v>
+        <v>2.629732188782365</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>0.5471324383549873</v>
+        <v>0.5528317345878517</v>
       </c>
       <c r="C389" t="n">
-        <v>0.5437693254655862</v>
+        <v>0.5556555058701212</v>
       </c>
       <c r="D389" t="n">
-        <v>0.5377212230123611</v>
+        <v>0.5457441481795094</v>
       </c>
       <c r="E389" t="n">
-        <v>0.5841968209767051</v>
+        <v>0.5977197810143104</v>
       </c>
       <c r="F389" t="n">
-        <v>0.527409581333304</v>
+        <v>0.5430199675569961</v>
       </c>
       <c r="G389" t="n">
-        <v>0.5872620418002205</v>
+        <v>0.5959007923884189</v>
       </c>
       <c r="H389" t="n">
-        <v>0.5471324383549873</v>
+        <v>0.5951762929647184</v>
       </c>
       <c r="I389" t="n">
-        <v>0.5437693254655862</v>
+        <v>0.6157641519000078</v>
       </c>
       <c r="J389" t="n">
-        <v>0.5377212230123611</v>
+        <v>0.6021309976177</v>
       </c>
       <c r="K389" t="n">
-        <v>0.5841968209767051</v>
+        <v>0.5196735675956505</v>
       </c>
       <c r="L389" t="n">
-        <v>0.527409581333304</v>
+        <v>0.6081149079879937</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>2.098291491812057</v>
+        <v>2.1194863553657144</v>
       </c>
       <c r="C394" t="n">
-        <v>2.316452626320357</v>
+        <v>2.338473876175549</v>
       </c>
       <c r="D394" t="n">
-        <v>2.293454597170189</v>
+        <v>2.2795914396779757</v>
       </c>
       <c r="E394" t="n">
-        <v>2.4088748407287137</v>
+        <v>2.391420453025407</v>
       </c>
       <c r="F394" t="n">
-        <v>2.368442835882802</v>
+        <v>2.338473876175549</v>
       </c>
       <c r="G394" t="n">
-        <v>2.106767333006676</v>
+        <v>2.1089065558786664</v>
       </c>
       <c r="H394" t="n">
-        <v>2.098291491812057</v>
+        <v>2.1470121524540886</v>
       </c>
       <c r="I394" t="n">
-        <v>2.316452626320357</v>
+        <v>2.361713367471747</v>
       </c>
       <c r="J394" t="n">
-        <v>2.293454597170189</v>
+        <v>2.2823280439715923</v>
       </c>
       <c r="K394" t="n">
-        <v>2.4088748407287137</v>
+        <v>2.322760245189816</v>
       </c>
       <c r="L394" t="n">
-        <v>2.368442835882802</v>
+        <v>2.2029887144570046</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>3.925669345848815</v>
+        <v>3.847933319198343</v>
       </c>
       <c r="C395" t="n">
-        <v>4.044259479987464</v>
+        <v>3.9398638607423684</v>
       </c>
       <c r="D395" t="n">
-        <v>3.789246349486933</v>
+        <v>3.7107244047308283</v>
       </c>
       <c r="E395" t="n">
-        <v>4.083243052519944</v>
+        <v>3.9998130982163334</v>
       </c>
       <c r="F395" t="n">
-        <v>4.12242261926302</v>
+        <v>4.0120225374791785</v>
       </c>
       <c r="G395" t="n">
-        <v>4.105888598140569</v>
+        <v>3.994950103701839</v>
       </c>
       <c r="H395" t="n">
-        <v>3.925669345848815</v>
+        <v>3.729678159291079</v>
       </c>
       <c r="I395" t="n">
-        <v>4.044259479987464</v>
+        <v>4.041631563301393</v>
       </c>
       <c r="J395" t="n">
-        <v>3.789246349486933</v>
+        <v>4.081796844810286</v>
       </c>
       <c r="K395" t="n">
-        <v>4.083243052519944</v>
+        <v>3.944593589135759</v>
       </c>
       <c r="L395" t="n">
-        <v>4.12242261926302</v>
+        <v>4.1331401999149096</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>4.28883514111154</v>
+        <v>4.118980284037816</v>
       </c>
       <c r="C397" t="n">
-        <v>4.418396112725413</v>
+        <v>4.21738637809135</v>
       </c>
       <c r="D397" t="n">
-        <v>4.139791579541263</v>
+        <v>3.9721064256301895</v>
       </c>
       <c r="E397" t="n">
-        <v>4.460986076645877</v>
+        <v>4.281558417135365</v>
       </c>
       <c r="F397" t="n">
-        <v>4.5037901663074065</v>
+        <v>4.294627884673148</v>
       </c>
       <c r="G397" t="n">
-        <v>4.485726573944786</v>
+        <v>4.2763528751300885</v>
       </c>
       <c r="H397" t="n">
-        <v>4.28883514111154</v>
+        <v>3.9923952754791854</v>
       </c>
       <c r="I397" t="n">
-        <v>4.418396112725413</v>
+        <v>4.326322559054011</v>
       </c>
       <c r="J397" t="n">
-        <v>4.139791579541263</v>
+        <v>4.369317067771857</v>
       </c>
       <c r="K397" t="n">
-        <v>4.460986076645877</v>
+        <v>4.222449266760452</v>
       </c>
       <c r="L397" t="n">
-        <v>4.5037901663074065</v>
+        <v>4.424277029353612</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>4.223413502610901</v>
+        <v>4.265647637637011</v>
       </c>
       <c r="C398" t="n">
-        <v>4.35099815879883</v>
+        <v>4.367557744916536</v>
       </c>
       <c r="D398" t="n">
-        <v>4.0766434427456515</v>
+        <v>4.1135439411043935</v>
       </c>
       <c r="E398" t="n">
-        <v>4.3929384579194855</v>
+        <v>4.434014801730148</v>
       </c>
       <c r="F398" t="n">
-        <v>4.435089616519771</v>
+        <v>4.447549642754701</v>
       </c>
       <c r="G398" t="n">
-        <v>4.4173015651305585</v>
+        <v>4.428623902423475</v>
       </c>
       <c r="H398" t="n">
-        <v>4.223413502610901</v>
+        <v>4.134555229933361</v>
       </c>
       <c r="I398" t="n">
-        <v>4.35099815879883</v>
+        <v>4.480372891125745</v>
       </c>
       <c r="J398" t="n">
-        <v>4.0766434427456515</v>
+        <v>4.524898334778478</v>
       </c>
       <c r="K398" t="n">
-        <v>4.3929384579194855</v>
+        <v>4.3728009113319395</v>
       </c>
       <c r="L398" t="n">
-        <v>4.435089616519771</v>
+        <v>4.581815293374845</v>
       </c>
     </row>
     <row r="399">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>3.5630360130458802</v>
+        <v>3.598666373176339</v>
       </c>
       <c r="C403" t="n">
-        <v>3.6706713948119893</v>
+        <v>3.684641706187384</v>
       </c>
       <c r="D403" t="n">
-        <v>3.4392150780099184</v>
+        <v>3.47034577465382</v>
       </c>
       <c r="E403" t="n">
-        <v>3.7060538635360283</v>
+        <v>3.740707465933986</v>
       </c>
       <c r="F403" t="n">
-        <v>3.741614221524082</v>
+        <v>3.752125984620712</v>
       </c>
       <c r="G403" t="n">
-        <v>3.7266075290317433</v>
+        <v>3.7361594934561526</v>
       </c>
       <c r="H403" t="n">
-        <v>3.5630360130458802</v>
+        <v>3.488071715704072</v>
       </c>
       <c r="I403" t="n">
-        <v>3.6706713948119893</v>
+        <v>3.7798169544816735</v>
       </c>
       <c r="J403" t="n">
-        <v>3.4392150780099184</v>
+        <v>3.8173803517510763</v>
       </c>
       <c r="K403" t="n">
-        <v>3.7060538635360283</v>
+        <v>3.6890650454481326</v>
       </c>
       <c r="L403" t="n">
-        <v>3.741614221524082</v>
+        <v>3.865397713325198</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>1.5447176764244954</v>
+        <v>1.5604801016941332</v>
       </c>
       <c r="C406" t="n">
-        <v>1.4179625998816354</v>
+        <v>1.4436388290902922</v>
       </c>
       <c r="D406" t="n">
-        <v>1.494335976850163</v>
+        <v>1.5080421839329776</v>
       </c>
       <c r="E406" t="n">
-        <v>1.4394335168528496</v>
+        <v>1.4772308787848019</v>
       </c>
       <c r="F406" t="n">
-        <v>1.5435475084009627</v>
+        <v>1.5842244734532709</v>
       </c>
       <c r="G406" t="n">
-        <v>1.6076538720370979</v>
+        <v>1.6370319552777763</v>
       </c>
       <c r="H406" t="n">
-        <v>1.5447176764244954</v>
+        <v>1.5890603225323106</v>
       </c>
       <c r="I406" t="n">
-        <v>1.4179625998816354</v>
+        <v>1.6007877063352136</v>
       </c>
       <c r="J406" t="n">
-        <v>1.494335976850163</v>
+        <v>1.4508811648405018</v>
       </c>
       <c r="K406" t="n">
-        <v>1.4394335168528496</v>
+        <v>1.4436388290902922</v>
       </c>
       <c r="L406" t="n">
-        <v>1.5435475084009627</v>
+        <v>1.5822983647239488</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>5.963985362964325</v>
+        <v>5.906082592450107</v>
       </c>
       <c r="C407" t="n">
-        <v>5.4745979281465615</v>
+        <v>5.463863428324858</v>
       </c>
       <c r="D407" t="n">
-        <v>5.769467152026204</v>
+        <v>5.70761631727155</v>
       </c>
       <c r="E407" t="n">
-        <v>5.55749478140336</v>
+        <v>5.59100213373358</v>
       </c>
       <c r="F407" t="n">
-        <v>5.959467472691514</v>
+        <v>5.995949948376697</v>
       </c>
       <c r="G407" t="n">
-        <v>6.206975104819958</v>
+        <v>6.195814944294453</v>
       </c>
       <c r="H407" t="n">
-        <v>5.963985362964325</v>
+        <v>6.014252600255708</v>
       </c>
       <c r="I407" t="n">
-        <v>5.4745979281465615</v>
+        <v>6.058638233406757</v>
       </c>
       <c r="J407" t="n">
-        <v>5.769467152026204</v>
+        <v>5.491274116264137</v>
       </c>
       <c r="K407" t="n">
-        <v>5.55749478140336</v>
+        <v>5.463863428324858</v>
       </c>
       <c r="L407" t="n">
-        <v>5.959467472691514</v>
+        <v>5.988660039825434</v>
       </c>
     </row>
     <row r="408">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>2.3246103609437476</v>
+        <v>2.3013642573343103</v>
       </c>
       <c r="C410" t="n">
-        <v>2.133859540434086</v>
+        <v>2.1290491292785214</v>
       </c>
       <c r="D410" t="n">
-        <v>2.248792091612139</v>
+        <v>2.2240298847053066</v>
       </c>
       <c r="E410" t="n">
-        <v>2.166170633141833</v>
+        <v>2.1785899996898865</v>
       </c>
       <c r="F410" t="n">
-        <v>2.3228494018034045</v>
+        <v>2.3363819729847775</v>
       </c>
       <c r="G410" t="n">
-        <v>2.4193216047084194</v>
+        <v>2.4142613711641006</v>
       </c>
       <c r="H410" t="n">
-        <v>2.3246103609437476</v>
+        <v>2.3435137846703493</v>
       </c>
       <c r="I410" t="n">
-        <v>2.133859540434086</v>
+        <v>2.3608090913434316</v>
       </c>
       <c r="J410" t="n">
-        <v>2.248792091612139</v>
+        <v>2.1397299784716974</v>
       </c>
       <c r="K410" t="n">
-        <v>2.166170633141833</v>
+        <v>2.1290491292785214</v>
       </c>
       <c r="L410" t="n">
-        <v>2.3228494018034045</v>
+        <v>2.333541387077537</v>
       </c>
     </row>
     <row r="411">
@@ -15800,34 +15800,34 @@
         <v>3.6979215782694754</v>
       </c>
       <c r="C414" t="n">
-        <v>3.3944808008013267</v>
+        <v>3.4210389299581423</v>
       </c>
       <c r="D414" t="n">
-        <v>3.577312112313823</v>
+        <v>3.573657701147314</v>
       </c>
       <c r="E414" t="n">
-        <v>3.4458803337935717</v>
+        <v>3.5006431269541616</v>
       </c>
       <c r="F414" t="n">
-        <v>3.6951202964233074</v>
+        <v>3.7541894054562763</v>
       </c>
       <c r="G414" t="n">
-        <v>3.848585430546178</v>
+        <v>3.879329050826255</v>
       </c>
       <c r="H414" t="n">
-        <v>3.6979215782694754</v>
+        <v>3.7656490777963603</v>
       </c>
       <c r="I414" t="n">
-        <v>3.3944808008013267</v>
+        <v>3.793439849094451</v>
       </c>
       <c r="J414" t="n">
-        <v>3.577312112313823</v>
+        <v>3.438201333771364</v>
       </c>
       <c r="K414" t="n">
-        <v>3.4458803337935717</v>
+        <v>3.4210389299581423</v>
       </c>
       <c r="L414" t="n">
-        <v>3.6951202964233074</v>
+        <v>3.749625041563061</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>5.9977123005195585</v>
+        <v>5.938329010415404</v>
       </c>
       <c r="C416" t="n">
-        <v>5.505557330496744</v>
+        <v>5.493695389029284</v>
       </c>
       <c r="D416" t="n">
-        <v>5.802094069518611</v>
+        <v>5.738779136021758</v>
       </c>
       <c r="E416" t="n">
-        <v>5.588922973803008</v>
+        <v>5.621528254699059</v>
       </c>
       <c r="F416" t="n">
-        <v>5.993168861122489</v>
+        <v>6.028687030039171</v>
       </c>
       <c r="G416" t="n">
-        <v>6.242076173824444</v>
+        <v>6.229643261999449</v>
       </c>
       <c r="H416" t="n">
-        <v>5.9977123005195585</v>
+        <v>6.047089611940007</v>
       </c>
       <c r="I416" t="n">
-        <v>5.505557330496744</v>
+        <v>6.091717584688554</v>
       </c>
       <c r="J416" t="n">
-        <v>5.802094069518611</v>
+        <v>5.521255735644372</v>
       </c>
       <c r="K416" t="n">
-        <v>5.588922973803008</v>
+        <v>5.493695389029284</v>
       </c>
       <c r="L416" t="n">
-        <v>5.993168861122489</v>
+        <v>6.021357319566009</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>2.028421940087288</v>
+        <v>2.0491201231494034</v>
       </c>
       <c r="C420" t="n">
-        <v>2.2515472424386527</v>
+        <v>2.2569111686823042</v>
       </c>
       <c r="D420" t="n">
-        <v>2.0153397036244076</v>
+        <v>2.0378177510247135</v>
       </c>
       <c r="E420" t="n">
-        <v>2.049056079497328</v>
+        <v>2.059399990679505</v>
       </c>
       <c r="F420" t="n">
-        <v>2.241575256579642</v>
+        <v>2.2721793261883123</v>
       </c>
       <c r="G420" t="n">
-        <v>2.2132061857223775</v>
+        <v>2.2149661769423648</v>
       </c>
       <c r="H420" t="n">
-        <v>2.028421940087288</v>
+        <v>2.0003051350827024</v>
       </c>
       <c r="I420" t="n">
-        <v>2.2515472424386527</v>
+        <v>2.2176251998903074</v>
       </c>
       <c r="J420" t="n">
-        <v>2.0153397036244076</v>
+        <v>2.140535100183264</v>
       </c>
       <c r="K420" t="n">
-        <v>2.049056079497328</v>
+        <v>2.0491201231494034</v>
       </c>
       <c r="L420" t="n">
-        <v>2.241575256579642</v>
+        <v>2.2555333218981897</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>2.311395421896773</v>
+        <v>2.3349810894671483</v>
       </c>
       <c r="C423" t="n">
-        <v>2.565647652249835</v>
+        <v>2.571759869002151</v>
       </c>
       <c r="D423" t="n">
-        <v>2.2964881578454035</v>
+        <v>2.3221019883938983</v>
       </c>
       <c r="E423" t="n">
-        <v>2.3349081114534114</v>
+        <v>2.3466950422090314</v>
       </c>
       <c r="F423" t="n">
-        <v>2.5542845319807133</v>
+        <v>2.589157999372732</v>
       </c>
       <c r="G423" t="n">
-        <v>2.521957855165078</v>
+        <v>2.52396337264054</v>
       </c>
       <c r="H423" t="n">
-        <v>2.311395421896773</v>
+        <v>2.2793562030924406</v>
       </c>
       <c r="I423" t="n">
-        <v>2.565647652249835</v>
+        <v>2.526993340591058</v>
       </c>
       <c r="J423" t="n">
-        <v>2.2964881578454035</v>
+        <v>2.4391488443277427</v>
       </c>
       <c r="K423" t="n">
-        <v>2.3349081114534114</v>
+        <v>2.3349810894671483</v>
       </c>
       <c r="L423" t="n">
-        <v>2.5542845319807133</v>
+        <v>2.5701898067355495</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>2.6346213078438443</v>
+        <v>2.608535948360242</v>
       </c>
       <c r="C425" t="n">
-        <v>2.8327857358435695</v>
+        <v>2.8210708753493647</v>
       </c>
       <c r="D425" t="n">
-        <v>2.710945439162886</v>
+        <v>2.672194061793772</v>
       </c>
       <c r="E425" t="n">
-        <v>2.7336586091034354</v>
+        <v>2.7204776372827424</v>
       </c>
       <c r="F425" t="n">
-        <v>2.7781659101059173</v>
+        <v>2.734373378329415</v>
       </c>
       <c r="G425" t="n">
-        <v>2.88770750996891</v>
+        <v>2.7914055009032817</v>
       </c>
       <c r="H425" t="n">
-        <v>2.6346213078438443</v>
+        <v>3.0301672286111123</v>
       </c>
       <c r="I425" t="n">
-        <v>2.8327857358435695</v>
+        <v>2.672194061793772</v>
       </c>
       <c r="J425" t="n">
-        <v>2.710945439162886</v>
+        <v>2.557306737075972</v>
       </c>
       <c r="K425" t="n">
-        <v>2.7336586091034354</v>
+        <v>2.932419899773575</v>
       </c>
       <c r="L425" t="n">
-        <v>2.7781659101059173</v>
+        <v>2.963078657116037</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>2.646293220603118</v>
+        <v>2.6730234551546643</v>
       </c>
       <c r="C428" t="n">
-        <v>2.93738402537524</v>
+        <v>2.9440814239900313</v>
       </c>
       <c r="D428" t="n">
-        <v>2.6292260448948146</v>
+        <v>2.6582798071630824</v>
       </c>
       <c r="E428" t="n">
-        <v>2.6732126608609073</v>
+        <v>2.686433272721441</v>
       </c>
       <c r="F428" t="n">
-        <v>2.9243745040063693</v>
+        <v>2.9639983349946575</v>
       </c>
       <c r="G428" t="n">
-        <v>2.887364018958492</v>
+        <v>2.889365282422497</v>
       </c>
       <c r="H428" t="n">
-        <v>2.646293220603118</v>
+        <v>2.609345583569059</v>
       </c>
       <c r="I428" t="n">
-        <v>2.93738402537524</v>
+        <v>2.892833908115714</v>
       </c>
       <c r="J428" t="n">
-        <v>2.6292260448948146</v>
+        <v>2.7922718950110714</v>
       </c>
       <c r="K428" t="n">
-        <v>2.6732126608609073</v>
+        <v>2.6730234551546643</v>
       </c>
       <c r="L428" t="n">
-        <v>2.9243745040063693</v>
+        <v>2.942284058999107</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>7.111501898576667</v>
+        <v>6.970680078802871</v>
       </c>
       <c r="C429" t="n">
-        <v>7.850890743408516</v>
+        <v>7.690897949019897</v>
       </c>
       <c r="D429" t="n">
-        <v>7.77294612579788</v>
+        <v>7.497242242746579</v>
       </c>
       <c r="E429" t="n">
-        <v>8.164126895678328</v>
+        <v>7.865031482625225</v>
       </c>
       <c r="F429" t="n">
-        <v>8.02709527717014</v>
+        <v>7.690897949019897</v>
       </c>
       <c r="G429" t="n">
-        <v>7.140228107963101</v>
+        <v>6.935884668426488</v>
       </c>
       <c r="H429" t="n">
-        <v>7.111501898576667</v>
+        <v>7.0612083923875995</v>
       </c>
       <c r="I429" t="n">
-        <v>7.850890743408516</v>
+        <v>7.767329230877322</v>
       </c>
       <c r="J429" t="n">
-        <v>7.77294612579788</v>
+        <v>7.506242533305086</v>
       </c>
       <c r="K429" t="n">
-        <v>8.164126895678328</v>
+        <v>7.6392181190457125</v>
       </c>
       <c r="L429" t="n">
-        <v>8.02709527717014</v>
+        <v>7.245307103212409</v>
       </c>
     </row>
     <row r="430">
@@ -17016,34 +17016,34 @@
         <v>1.5898943360802769</v>
       </c>
       <c r="C446" t="n">
-        <v>1.4857233478060456</v>
+        <v>1.4690870566877146</v>
       </c>
       <c r="D446" t="n">
-        <v>1.632911168828558</v>
+        <v>1.6290061284676003</v>
       </c>
       <c r="E446" t="n">
-        <v>1.4282689930849797</v>
+        <v>1.4059256702698804</v>
       </c>
       <c r="F446" t="n">
-        <v>1.467715340791684</v>
+        <v>1.4764570591401454</v>
       </c>
       <c r="G446" t="n">
-        <v>1.5528644404865513</v>
+        <v>1.5509347798611637</v>
       </c>
       <c r="H446" t="n">
-        <v>1.5898943360802769</v>
+        <v>1.4609839843442884</v>
       </c>
       <c r="I446" t="n">
-        <v>1.4857233478060456</v>
+        <v>1.5346257032661503</v>
       </c>
       <c r="J446" t="n">
-        <v>1.632911168828558</v>
+        <v>1.6170720162738252</v>
       </c>
       <c r="K446" t="n">
-        <v>1.4282689930849797</v>
+        <v>1.665889285063242</v>
       </c>
       <c r="L446" t="n">
-        <v>1.467715340791684</v>
+        <v>1.6180598436118978</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>0.9535574468830054</v>
+        <v>0.9632876249124238</v>
       </c>
       <c r="C447" t="n">
-        <v>0.8910796964037183</v>
+        <v>0.8900927247248449</v>
       </c>
       <c r="D447" t="n">
-        <v>0.9793572879652577</v>
+        <v>0.986984737821033</v>
       </c>
       <c r="E447" t="n">
-        <v>0.8566207851686486</v>
+        <v>0.8518244068071821</v>
       </c>
       <c r="F447" t="n">
-        <v>0.8802791867079601</v>
+        <v>0.8945580731425917</v>
       </c>
       <c r="G447" t="n">
-        <v>0.9313483403408997</v>
+        <v>0.939682749087483</v>
       </c>
       <c r="H447" t="n">
-        <v>0.9535574468830054</v>
+        <v>0.8851832227943981</v>
       </c>
       <c r="I447" t="n">
-        <v>0.8910796964037183</v>
+        <v>0.9298013806838081</v>
       </c>
       <c r="J447" t="n">
-        <v>0.9793572879652577</v>
+        <v>0.9797540795755786</v>
       </c>
       <c r="K447" t="n">
-        <v>0.8566207851686486</v>
+        <v>1.0093315614495024</v>
       </c>
       <c r="L447" t="n">
-        <v>0.8802791867079601</v>
+        <v>0.9803525859220202</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>1.5732374948647627</v>
       </c>
       <c r="C449" t="n">
-        <v>1.4701578744705033</v>
+        <v>1.453695876733364</v>
       </c>
       <c r="D449" t="n">
-        <v>1.6158036532905924</v>
+        <v>1.6119395248542554</v>
       </c>
       <c r="E449" t="n">
-        <v>1.4133054516149774</v>
+        <v>1.3911962130229063</v>
       </c>
       <c r="F449" t="n">
-        <v>1.4523385318891413</v>
+        <v>1.4609886659032374</v>
       </c>
       <c r="G449" t="n">
-        <v>1.5365955502669835</v>
+        <v>1.534686106111274</v>
       </c>
       <c r="H449" t="n">
-        <v>1.5732374948647627</v>
+        <v>1.4456776978236203</v>
       </c>
       <c r="I449" t="n">
-        <v>1.4701578744705033</v>
+        <v>1.5185478947700386</v>
       </c>
       <c r="J449" t="n">
-        <v>1.6158036532905924</v>
+        <v>1.6001304427378562</v>
       </c>
       <c r="K449" t="n">
-        <v>1.4133054516149774</v>
+        <v>1.6484362677939712</v>
       </c>
       <c r="L449" t="n">
-        <v>1.4523385318891413</v>
+        <v>1.601107920908223</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>1.380124391481137</v>
+        <v>1.3525219036515141</v>
       </c>
       <c r="C450" t="n">
-        <v>1.289697676611261</v>
+        <v>1.2497512428654514</v>
       </c>
       <c r="D450" t="n">
-        <v>1.4174656026376813</v>
+        <v>1.385794275717034</v>
       </c>
       <c r="E450" t="n">
-        <v>1.2398238236463877</v>
+        <v>1.1960198994318179</v>
       </c>
       <c r="F450" t="n">
-        <v>1.2740656379540523</v>
+        <v>1.2560208983517736</v>
       </c>
       <c r="G450" t="n">
-        <v>1.3479802036800175</v>
+        <v>1.319379038778617</v>
       </c>
       <c r="H450" t="n">
-        <v>1.380124391481137</v>
+        <v>1.2428579653798693</v>
       </c>
       <c r="I450" t="n">
-        <v>1.289697676611261</v>
+        <v>1.305504919711391</v>
       </c>
       <c r="J450" t="n">
-        <v>1.4174656026376813</v>
+        <v>1.3756419355417053</v>
       </c>
       <c r="K450" t="n">
-        <v>1.2398238236463877</v>
+        <v>1.417170749007958</v>
       </c>
       <c r="L450" t="n">
-        <v>1.2740656379540523</v>
+        <v>1.3764822795076213</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>2.5654386389751918</v>
+        <v>2.5400382564110813</v>
       </c>
       <c r="C452" t="n">
-        <v>2.3973493060464337</v>
+        <v>2.3470347942649297</v>
       </c>
       <c r="D452" t="n">
-        <v>2.6348501981929244</v>
+        <v>2.602523823335947</v>
       </c>
       <c r="E452" t="n">
-        <v>2.3046414963298467</v>
+        <v>2.2461272470220157</v>
       </c>
       <c r="F452" t="n">
-        <v>2.3682917542600195</v>
+        <v>2.35880921710184</v>
       </c>
       <c r="G452" t="n">
-        <v>2.5056875455864525</v>
+        <v>2.477795904197085</v>
       </c>
       <c r="H452" t="n">
-        <v>2.5654386389751918</v>
+        <v>2.3340892083352935</v>
       </c>
       <c r="I452" t="n">
-        <v>2.3973493060464337</v>
+        <v>2.4517402868280698</v>
       </c>
       <c r="J452" t="n">
-        <v>2.6348501981929244</v>
+        <v>2.5834577125633125</v>
       </c>
       <c r="K452" t="n">
-        <v>2.3046414963298467</v>
+        <v>2.6614488893885127</v>
       </c>
       <c r="L452" t="n">
-        <v>2.3682917542600195</v>
+        <v>2.5850358798493343</v>
       </c>
     </row>
     <row r="453">
@@ -17396,34 +17396,34 @@
         <v>1.9074435903339904</v>
       </c>
       <c r="C456" t="n">
-        <v>1.7558806321382667</v>
+        <v>1.7695820548355312</v>
       </c>
       <c r="D456" t="n">
-        <v>1.9439968250219526</v>
+        <v>1.9273861129532783</v>
       </c>
       <c r="E456" t="n">
-        <v>1.849014201261876</v>
+        <v>1.835014678313477</v>
       </c>
       <c r="F456" t="n">
-        <v>1.9236888953190459</v>
+        <v>1.878854807319075</v>
       </c>
       <c r="G456" t="n">
-        <v>1.9282824614872625</v>
+        <v>1.8811103352366207</v>
       </c>
       <c r="H456" t="n">
-        <v>1.9074435903339904</v>
+        <v>1.9465402601313713</v>
       </c>
       <c r="I456" t="n">
-        <v>1.7558806321382667</v>
+        <v>1.9051245100448047</v>
       </c>
       <c r="J456" t="n">
-        <v>1.9439968250219526</v>
+        <v>1.9273861129532783</v>
       </c>
       <c r="K456" t="n">
-        <v>1.849014201261876</v>
+        <v>1.6967676338711697</v>
       </c>
       <c r="L456" t="n">
-        <v>1.9236888953190459</v>
+        <v>1.7786207815862476</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>3.3028314108078134</v>
+        <v>3.2367747825916573</v>
       </c>
       <c r="C458" t="n">
-        <v>3.0403927722129307</v>
+        <v>3.002835103404267</v>
       </c>
       <c r="D458" t="n">
-        <v>3.3661251156942007</v>
+        <v>3.2706156021275428</v>
       </c>
       <c r="E458" t="n">
-        <v>3.2016580799058496</v>
+        <v>3.1138688800808008</v>
       </c>
       <c r="F458" t="n">
-        <v>3.3309609470387636</v>
+        <v>3.188261970786061</v>
       </c>
       <c r="G458" t="n">
-        <v>3.3389149304251626</v>
+        <v>3.1920894160232045</v>
       </c>
       <c r="H458" t="n">
-        <v>3.3028314108078134</v>
+        <v>3.30311861342616</v>
       </c>
       <c r="I458" t="n">
-        <v>3.0403927722129307</v>
+        <v>3.2328394942104537</v>
       </c>
       <c r="J458" t="n">
-        <v>3.3661251156942007</v>
+        <v>3.2706156021275428</v>
       </c>
       <c r="K458" t="n">
-        <v>3.2016580799058496</v>
+        <v>2.8792750239446216</v>
       </c>
       <c r="L458" t="n">
-        <v>3.3309609470387636</v>
+        <v>3.0181730787770187</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>1.901661010470328</v>
       </c>
       <c r="C460" t="n">
-        <v>1.9274646017217103</v>
+        <v>1.9145258765021833</v>
       </c>
       <c r="D460" t="n">
-        <v>1.7063830534029956</v>
+        <v>1.7265774116570487</v>
       </c>
       <c r="E460" t="n">
-        <v>1.7159499767744042</v>
+        <v>1.7170540947035073</v>
       </c>
       <c r="F460" t="n">
-        <v>1.6787594917010291</v>
+        <v>1.6523455800024618</v>
       </c>
       <c r="G460" t="n">
-        <v>1.733914130168481</v>
+        <v>1.7265774116570487</v>
       </c>
       <c r="H460" t="n">
-        <v>1.901661010470328</v>
+        <v>1.9145258765021833</v>
       </c>
       <c r="I460" t="n">
-        <v>1.9274646017217103</v>
+        <v>1.8227707784037794</v>
       </c>
       <c r="J460" t="n">
-        <v>1.7063830534029956</v>
+        <v>1.8924128112817522</v>
       </c>
       <c r="K460" t="n">
-        <v>1.7159499767744042</v>
+        <v>1.7352391718300053</v>
       </c>
       <c r="L460" t="n">
-        <v>1.6787594917010291</v>
+        <v>1.8663183897756404</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>1.9608942516210066</v>
+        <v>1.980701264263643</v>
       </c>
       <c r="C461" t="n">
-        <v>1.8050841742007717</v>
+        <v>1.837544990055129</v>
       </c>
       <c r="D461" t="n">
-        <v>1.99847178635965</v>
+        <v>2.0014097035405882</v>
       </c>
       <c r="E461" t="n">
-        <v>1.900827545723206</v>
+        <v>1.9054906324340792</v>
       </c>
       <c r="F461" t="n">
-        <v>1.9775947849014939</v>
+        <v>1.9510144945220083</v>
       </c>
       <c r="G461" t="n">
-        <v>1.9823170726479535</v>
+        <v>1.9533566487123102</v>
       </c>
       <c r="H461" t="n">
-        <v>1.9608942516210066</v>
+        <v>2.0212994888657194</v>
       </c>
       <c r="I461" t="n">
-        <v>1.8050841742007717</v>
+        <v>1.9782931168961422</v>
       </c>
       <c r="J461" t="n">
-        <v>1.99847178635965</v>
+        <v>2.0014097035405882</v>
       </c>
       <c r="K461" t="n">
-        <v>1.900827545723206</v>
+        <v>1.7619340433453063</v>
       </c>
       <c r="L461" t="n">
-        <v>1.9775947849014939</v>
+        <v>1.8469308600190961</v>
       </c>
     </row>
     <row r="462">
@@ -17773,37 +17773,37 @@
         <v>465.0</v>
       </c>
       <c r="B466" t="n">
-        <v>1.913718472928902</v>
+        <v>1.894581288199613</v>
       </c>
       <c r="C466" t="n">
-        <v>1.7616569208176178</v>
+        <v>1.7576493826683393</v>
       </c>
       <c r="D466" t="n">
-        <v>1.9503919561302638</v>
+        <v>1.9143893341022362</v>
       </c>
       <c r="E466" t="n">
-        <v>1.8550968697549512</v>
+        <v>1.8226407799014392</v>
       </c>
       <c r="F466" t="n">
-        <v>1.9300172197992203</v>
+        <v>1.8661852854937222</v>
       </c>
       <c r="G466" t="n">
-        <v>1.9346258973387738</v>
+        <v>1.8684256039016947</v>
       </c>
       <c r="H466" t="n">
-        <v>1.913718472928902</v>
+        <v>1.9334143207487258</v>
       </c>
       <c r="I466" t="n">
-        <v>1.7616569208176178</v>
+        <v>1.892277845967303</v>
       </c>
       <c r="J466" t="n">
-        <v>1.9503919561302638</v>
+        <v>1.9143893341022362</v>
       </c>
       <c r="K466" t="n">
-        <v>1.8550968697549512</v>
+        <v>1.6853259649959909</v>
       </c>
       <c r="L466" t="n">
-        <v>1.9300172197992203</v>
+        <v>1.7666271593417024</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>2.8957040977617723</v>
+        <v>2.8667470567841544</v>
       </c>
       <c r="C468" t="n">
-        <v>2.990650465784448</v>
+        <v>2.9790134896134295</v>
       </c>
       <c r="D468" t="n">
-        <v>2.9064994771137846</v>
+        <v>2.9241751269258214</v>
       </c>
       <c r="E468" t="n">
-        <v>3.2965504664053293</v>
+        <v>3.2832531660565265</v>
       </c>
       <c r="F468" t="n">
-        <v>3.2549534522711205</v>
+        <v>3.299298385728046</v>
       </c>
       <c r="G468" t="n">
-        <v>3.051775785785389</v>
+        <v>3.0496620318001857</v>
       </c>
       <c r="H468" t="n">
-        <v>2.8957040977617723</v>
+        <v>3.1291723390035604</v>
       </c>
       <c r="I468" t="n">
-        <v>2.990650465784448</v>
+        <v>3.297284160386043</v>
       </c>
       <c r="J468" t="n">
-        <v>2.9064994771137846</v>
+        <v>2.995536026531734</v>
       </c>
       <c r="K468" t="n">
-        <v>3.2965504664053293</v>
+        <v>3.3216183636304217</v>
       </c>
       <c r="L468" t="n">
-        <v>3.2549534522711205</v>
+        <v>3.2872498222654323</v>
       </c>
     </row>
     <row r="469">
@@ -17966,34 +17966,34 @@
         <v>1.6376098300507536</v>
       </c>
       <c r="C471" t="n">
-        <v>1.6645906322510833</v>
+        <v>1.65495352420369</v>
       </c>
       <c r="D471" t="n">
-        <v>1.832100929503003</v>
+        <v>1.8440910698771271</v>
       </c>
       <c r="E471" t="n">
-        <v>1.7999434347351388</v>
+        <v>1.8136753954208995</v>
       </c>
       <c r="F471" t="n">
-        <v>1.8065045897727954</v>
+        <v>1.8048550897891809</v>
       </c>
       <c r="G471" t="n">
-        <v>1.6829155629344017</v>
+        <v>1.6850094329925207</v>
       </c>
       <c r="H471" t="n">
-        <v>1.6376098300507536</v>
+        <v>1.8259450327847064</v>
       </c>
       <c r="I471" t="n">
-        <v>1.6645906322510833</v>
+        <v>1.807052113575027</v>
       </c>
       <c r="J471" t="n">
-        <v>1.832100929503003</v>
+        <v>1.8672871833158318</v>
       </c>
       <c r="K471" t="n">
-        <v>1.7999434347351388</v>
+        <v>1.8125681445704074</v>
       </c>
       <c r="L471" t="n">
-        <v>1.8065045897727954</v>
+        <v>1.6466925243618502</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>4.967287042194495</v>
+        <v>5.066632783038385</v>
       </c>
       <c r="C473" t="n">
-        <v>5.130157918382089</v>
+        <v>5.265050284736516</v>
       </c>
       <c r="D473" t="n">
-        <v>4.9858054218909125</v>
+        <v>5.168130033086247</v>
       </c>
       <c r="E473" t="n">
-        <v>5.654898381492902</v>
+        <v>5.802757549463515</v>
       </c>
       <c r="F473" t="n">
-        <v>5.583542917561851</v>
+        <v>5.831115557473461</v>
       </c>
       <c r="G473" t="n">
-        <v>5.235012212791989</v>
+        <v>5.389913138984573</v>
       </c>
       <c r="H473" t="n">
-        <v>4.967287042194495</v>
+        <v>5.530438103722124</v>
       </c>
       <c r="I473" t="n">
-        <v>5.130157918382089</v>
+        <v>5.827555654926053</v>
       </c>
       <c r="J473" t="n">
-        <v>4.9858054218909125</v>
+        <v>5.294251893930161</v>
       </c>
       <c r="K473" t="n">
-        <v>5.654898381492902</v>
+        <v>5.870563450683728</v>
       </c>
       <c r="L473" t="n">
-        <v>5.583542917561851</v>
+        <v>5.809821161623736</v>
       </c>
     </row>
     <row r="474">
@@ -18118,34 +18118,34 @@
         <v>1.7386983324737906</v>
       </c>
       <c r="C475" t="n">
-        <v>1.7957079875290396</v>
+        <v>1.8067885600685507</v>
       </c>
       <c r="D475" t="n">
-        <v>1.7451803166282744</v>
+        <v>1.7735287823930497</v>
       </c>
       <c r="E475" t="n">
-        <v>1.979382770250922</v>
+        <v>1.9913116476050479</v>
       </c>
       <c r="F475" t="n">
-        <v>1.9544062337439836</v>
+        <v>2.0010431642454947</v>
       </c>
       <c r="G475" t="n">
-        <v>1.8324101119069105</v>
+        <v>1.8496373011882545</v>
       </c>
       <c r="H475" t="n">
-        <v>1.7386983324737906</v>
+        <v>1.8978607529998928</v>
       </c>
       <c r="I475" t="n">
-        <v>1.7957079875290396</v>
+        <v>1.9998215251632883</v>
       </c>
       <c r="J475" t="n">
-        <v>1.7451803166282744</v>
+        <v>1.8168095723235762</v>
       </c>
       <c r="K475" t="n">
-        <v>1.979382770250922</v>
+        <v>2.0145803573047405</v>
       </c>
       <c r="L475" t="n">
-        <v>1.9544062337439836</v>
+        <v>1.9937356422401695</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>3.8417851131434886</v>
+        <v>3.8041205532107094</v>
       </c>
       <c r="C482" t="n">
-        <v>3.267638126817428</v>
+        <v>3.2104839058119974</v>
       </c>
       <c r="D482" t="n">
-        <v>3.761855902068782</v>
+        <v>3.6814069883812337</v>
       </c>
       <c r="E482" t="n">
-        <v>3.783223329403427</v>
+        <v>3.7568643985735366</v>
       </c>
       <c r="F482" t="n">
-        <v>3.452246117703569</v>
+        <v>3.354715296454651</v>
       </c>
       <c r="G482" t="n">
-        <v>3.277473993626493</v>
+        <v>3.2747978795528434</v>
       </c>
       <c r="H482" t="n">
-        <v>3.8417851131434886</v>
+        <v>3.6305832419629676</v>
       </c>
       <c r="I482" t="n">
-        <v>3.267638126817428</v>
+        <v>3.371544972987111</v>
       </c>
       <c r="J482" t="n">
-        <v>3.761855902068782</v>
+        <v>3.6262300247668104</v>
       </c>
       <c r="K482" t="n">
-        <v>3.783223329403427</v>
+        <v>3.415331271759843</v>
       </c>
       <c r="L482" t="n">
-        <v>3.452246117703569</v>
+        <v>3.5416176366937853</v>
       </c>
     </row>
     <row r="483">
@@ -18460,34 +18460,34 @@
         <v>1.9984325132814131</v>
       </c>
       <c r="C484" t="n">
-        <v>1.6997708309944257</v>
+        <v>1.6865752099591838</v>
       </c>
       <c r="D484" t="n">
-        <v>1.9568546713489874</v>
+        <v>1.9339669490739617</v>
       </c>
       <c r="E484" t="n">
-        <v>1.9679696505196451</v>
+        <v>1.9736072653539063</v>
       </c>
       <c r="F484" t="n">
-        <v>1.7958008275541641</v>
+        <v>1.7623448120168255</v>
       </c>
       <c r="G484" t="n">
-        <v>1.7048872847909418</v>
+        <v>1.7203615041589182</v>
       </c>
       <c r="H484" t="n">
-        <v>1.9984325132814131</v>
+        <v>1.9072675251549935</v>
       </c>
       <c r="I484" t="n">
-        <v>1.6997708309944257</v>
+        <v>1.771186007320715</v>
       </c>
       <c r="J484" t="n">
-        <v>1.9568546713489874</v>
+        <v>1.9049806337012423</v>
       </c>
       <c r="K484" t="n">
-        <v>1.9679696505196451</v>
+        <v>1.794188423222027</v>
       </c>
       <c r="L484" t="n">
-        <v>1.7958008275541641</v>
+        <v>1.860530899528438</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>2.773091520901455</v>
+        <v>2.8291135718287563</v>
       </c>
       <c r="C485" t="n">
-        <v>2.358658622485344</v>
+        <v>2.3876276955535856</v>
       </c>
       <c r="D485" t="n">
-        <v>2.715396722526267</v>
+        <v>2.73785184474875</v>
       </c>
       <c r="E485" t="n">
-        <v>2.730820237850553</v>
+        <v>2.7939693048250134</v>
       </c>
       <c r="F485" t="n">
-        <v>2.4919130443595874</v>
+        <v>2.4948921681283234</v>
       </c>
       <c r="G485" t="n">
-        <v>2.365758384196539</v>
+        <v>2.435457813822287</v>
       </c>
       <c r="H485" t="n">
-        <v>2.773091520901455</v>
+        <v>2.700054369944293</v>
       </c>
       <c r="I485" t="n">
-        <v>2.358658622485344</v>
+        <v>2.5074083504157865</v>
       </c>
       <c r="J485" t="n">
-        <v>2.715396722526267</v>
+        <v>2.696816894770071</v>
       </c>
       <c r="K485" t="n">
-        <v>2.730820237850553</v>
+        <v>2.5399720955404073</v>
       </c>
       <c r="L485" t="n">
-        <v>2.4919130443595874</v>
+        <v>2.633890903836319</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>2.0062436001007966</v>
+        <v>2.026715473571213</v>
       </c>
       <c r="C486" t="n">
-        <v>1.7064145667451778</v>
+        <v>1.7104445872696594</v>
       </c>
       <c r="D486" t="n">
-        <v>1.9645032467345653</v>
+        <v>1.961337555816458</v>
       </c>
       <c r="E486" t="n">
-        <v>1.9756616699878833</v>
+        <v>2.001538884531784</v>
       </c>
       <c r="F486" t="n">
-        <v>1.802819906798083</v>
+        <v>1.7872865240856322</v>
       </c>
       <c r="G486" t="n">
-        <v>1.7115510187475609</v>
+        <v>1.7447090444350382</v>
       </c>
       <c r="H486" t="n">
-        <v>2.0062436001007966</v>
+        <v>1.9342602663746655</v>
       </c>
       <c r="I486" t="n">
-        <v>1.7064145667451778</v>
+        <v>1.7962528450437696</v>
       </c>
       <c r="J486" t="n">
-        <v>1.9645032467345653</v>
+        <v>1.931941009524663</v>
       </c>
       <c r="K486" t="n">
-        <v>1.9756616699878833</v>
+        <v>1.8195808042952737</v>
       </c>
       <c r="L486" t="n">
-        <v>1.802819906798083</v>
+        <v>1.886862197282849</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>2.9646811916129705</v>
       </c>
       <c r="C491" t="n">
-        <v>2.5216156058365264</v>
+        <v>2.5020398587273096</v>
       </c>
       <c r="D491" t="n">
-        <v>2.90300032666221</v>
+        <v>2.8690463155576706</v>
       </c>
       <c r="E491" t="n">
-        <v>2.919489434737374</v>
+        <v>2.9278528548446903</v>
       </c>
       <c r="F491" t="n">
-        <v>2.664076420869926</v>
+        <v>2.614444312029285</v>
       </c>
       <c r="G491" t="n">
-        <v>2.5292058818340792</v>
+        <v>2.5521619370474746</v>
       </c>
       <c r="H491" t="n">
-        <v>2.9646811916129705</v>
+        <v>2.8294376325556643</v>
       </c>
       <c r="I491" t="n">
-        <v>2.5216156058365264</v>
+        <v>2.627560254276331</v>
       </c>
       <c r="J491" t="n">
-        <v>2.90300032666221</v>
+        <v>2.8260450215792425</v>
       </c>
       <c r="K491" t="n">
-        <v>2.919489434737374</v>
+        <v>2.661684413751851</v>
       </c>
       <c r="L491" t="n">
-        <v>2.664076420869926</v>
+        <v>2.7601036950653297</v>
       </c>
     </row>
     <row r="492">
@@ -18840,34 +18840,34 @@
         <v>1.2563893463537195</v>
       </c>
       <c r="C494" t="n">
-        <v>1.2541206474288005</v>
+        <v>1.2688752028675305</v>
       </c>
       <c r="D494" t="n">
-        <v>1.2753999848305229</v>
+        <v>1.2848358967974869</v>
       </c>
       <c r="E494" t="n">
-        <v>1.2321346994426645</v>
+        <v>1.2247536429761432</v>
       </c>
       <c r="F494" t="n">
-        <v>1.1950837229238775</v>
+        <v>1.1961759383557609</v>
       </c>
       <c r="G494" t="n">
-        <v>1.1185035294113161</v>
+        <v>1.1268003729674618</v>
       </c>
       <c r="H494" t="n">
-        <v>1.2563893463537195</v>
+        <v>1.1330499588880447</v>
       </c>
       <c r="I494" t="n">
-        <v>1.2541206474288005</v>
+        <v>1.247946900721059</v>
       </c>
       <c r="J494" t="n">
-        <v>1.2753999848305229</v>
+        <v>1.2433895780198596</v>
       </c>
       <c r="K494" t="n">
-        <v>1.2321346994426645</v>
+        <v>1.1835973791196965</v>
       </c>
       <c r="L494" t="n">
-        <v>1.1950837229238775</v>
+        <v>1.084336027362847</v>
       </c>
     </row>
     <row r="495">
@@ -18913,37 +18913,37 @@
         <v>495.0</v>
       </c>
       <c r="B496" t="n">
-        <v>6.177265040399363</v>
+        <v>6.116703618434664</v>
       </c>
       <c r="C496" t="n">
-        <v>6.166110572561216</v>
+        <v>6.177490733463083</v>
       </c>
       <c r="D496" t="n">
-        <v>6.270734276507774</v>
+        <v>6.255195017248538</v>
       </c>
       <c r="E496" t="n">
-        <v>6.058012690110244</v>
+        <v>5.962685899418709</v>
       </c>
       <c r="F496" t="n">
-        <v>5.875844875151932</v>
+        <v>5.82355597940995</v>
       </c>
       <c r="G496" t="n">
-        <v>5.499324528537195</v>
+        <v>5.485802580693936</v>
       </c>
       <c r="H496" t="n">
-        <v>6.177265040399363</v>
+        <v>5.51622855089584</v>
       </c>
       <c r="I496" t="n">
-        <v>6.166110572561216</v>
+        <v>6.075601759445171</v>
       </c>
       <c r="J496" t="n">
-        <v>6.270734276507774</v>
+        <v>6.0534145351283595</v>
       </c>
       <c r="K496" t="n">
-        <v>6.058012690110244</v>
+        <v>5.762317543237897</v>
       </c>
       <c r="L496" t="n">
-        <v>5.875844875151932</v>
+        <v>5.279065857584952</v>
       </c>
     </row>
     <row r="497">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>0.8004795348188584</v>
+        <v>0.8089056351853727</v>
       </c>
       <c r="C508" t="n">
-        <v>0.7990340855516119</v>
+        <v>0.8169444487294779</v>
       </c>
       <c r="D508" t="n">
-        <v>0.8125917252705567</v>
+        <v>0.8272204792441269</v>
       </c>
       <c r="E508" t="n">
-        <v>0.7850262451734917</v>
+        <v>0.7885375074155518</v>
       </c>
       <c r="F508" t="n">
-        <v>0.7614200688441415</v>
+        <v>0.7701382218953591</v>
       </c>
       <c r="G508" t="n">
-        <v>0.7126287623457378</v>
+        <v>0.7254719041256069</v>
       </c>
       <c r="H508" t="n">
-        <v>0.8004795348188584</v>
+        <v>0.7294955973250169</v>
       </c>
       <c r="I508" t="n">
-        <v>0.7990340855516119</v>
+        <v>0.803470105294241</v>
       </c>
       <c r="J508" t="n">
-        <v>0.8125917252705567</v>
+        <v>0.8005359479607222</v>
       </c>
       <c r="K508" t="n">
-        <v>0.7850262451734917</v>
+        <v>0.7620397232268572</v>
       </c>
       <c r="L508" t="n">
-        <v>0.7614200688441415</v>
+        <v>0.698131932998248</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>3.5480753550866977</v>
+        <v>3.5129458961254434</v>
       </c>
       <c r="C510" t="n">
-        <v>3.450026429480633</v>
+        <v>3.4528955369544683</v>
       </c>
       <c r="D510" t="n">
-        <v>3.0289627401296397</v>
+        <v>3.002039750431594</v>
       </c>
       <c r="E510" t="n">
-        <v>3.4945019108884</v>
+        <v>3.4783781637742393</v>
       </c>
       <c r="F510" t="n">
-        <v>3.3969748335226164</v>
+        <v>3.3948636807967474</v>
       </c>
       <c r="G510" t="n">
-        <v>3.108761277272233</v>
+        <v>3.1526437528473403</v>
       </c>
       <c r="H510" t="n">
-        <v>3.5480753550866977</v>
+        <v>3.3907931009562846</v>
       </c>
       <c r="I510" t="n">
-        <v>3.450026429480633</v>
+        <v>3.209899483412251</v>
       </c>
       <c r="J510" t="n">
-        <v>3.0289627401296397</v>
+        <v>3.1935871786038286</v>
       </c>
       <c r="K510" t="n">
-        <v>3.4945019108884</v>
+        <v>3.4382023666534445</v>
       </c>
       <c r="L510" t="n">
-        <v>3.3969748335226164</v>
+        <v>3.0621780695581</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.5400109206776713</v>
+        <v>0.5456952461584889</v>
       </c>
       <c r="C517" t="n">
-        <v>0.5473383155139376</v>
+        <v>0.549386911601171</v>
       </c>
       <c r="D517" t="n">
-        <v>0.4845582249535769</v>
+        <v>0.4954537535755934</v>
       </c>
       <c r="E517" t="n">
-        <v>0.4872749252852356</v>
+        <v>0.4927209695722432</v>
       </c>
       <c r="F517" t="n">
-        <v>0.4767140167035555</v>
+        <v>0.4741523978531417</v>
       </c>
       <c r="G517" t="n">
-        <v>0.4923761704388769</v>
+        <v>0.4954537535755934</v>
       </c>
       <c r="H517" t="n">
-        <v>0.5400109206776713</v>
+        <v>0.549386911601171</v>
       </c>
       <c r="I517" t="n">
-        <v>0.5473383155139376</v>
+        <v>0.5230571290755667</v>
       </c>
       <c r="J517" t="n">
-        <v>0.4845582249535769</v>
+        <v>0.5430414091681178</v>
       </c>
       <c r="K517" t="n">
-        <v>0.4872749252852356</v>
+        <v>0.4979393076905081</v>
       </c>
       <c r="L517" t="n">
-        <v>0.4767140167035555</v>
+        <v>0.5355534280354451</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>0.8576481482126752</v>
+        <v>0.866311260820884</v>
       </c>
       <c r="C518" t="n">
-        <v>0.8717785195745081</v>
+        <v>0.8754862408883012</v>
       </c>
       <c r="D518" t="n">
-        <v>0.9595069232567278</v>
+        <v>0.9755418113020699</v>
       </c>
       <c r="E518" t="n">
-        <v>0.94266541721987</v>
+        <v>0.9594516286447787</v>
       </c>
       <c r="F518" t="n">
-        <v>0.9461016218425596</v>
+        <v>0.9547856026156097</v>
       </c>
       <c r="G518" t="n">
-        <v>0.8813756425144618</v>
+        <v>0.8913861040670429</v>
       </c>
       <c r="H518" t="n">
-        <v>0.8576481482126752</v>
+        <v>0.965942384146732</v>
       </c>
       <c r="I518" t="n">
-        <v>0.8717785195745081</v>
+        <v>0.9559478492088114</v>
       </c>
       <c r="J518" t="n">
-        <v>0.9595069232567278</v>
+        <v>0.9878127771392776</v>
       </c>
       <c r="K518" t="n">
-        <v>0.94266541721987</v>
+        <v>0.958865882356052</v>
       </c>
       <c r="L518" t="n">
-        <v>0.9461016218425596</v>
+        <v>0.8711160929707087</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>2.3257949741646193</v>
+        <v>2.3027673011530885</v>
       </c>
       <c r="C521" t="n">
-        <v>2.357353628686868</v>
+        <v>2.318345678513071</v>
       </c>
       <c r="D521" t="n">
-        <v>2.0869635059840697</v>
+        <v>2.0907543376987294</v>
       </c>
       <c r="E521" t="n">
-        <v>2.0986641730182733</v>
+        <v>2.0792223229188145</v>
       </c>
       <c r="F521" t="n">
-        <v>2.053178966772704</v>
+        <v>2.000865217767409</v>
       </c>
       <c r="G521" t="n">
-        <v>2.120634933027037</v>
+        <v>2.0907543376987294</v>
       </c>
       <c r="H521" t="n">
-        <v>2.3257949741646193</v>
+        <v>2.318345678513071</v>
       </c>
       <c r="I521" t="n">
-        <v>2.357353628686868</v>
+        <v>2.2072372115193444</v>
       </c>
       <c r="J521" t="n">
-        <v>2.0869635059840697</v>
+        <v>2.2915684331273223</v>
       </c>
       <c r="K521" t="n">
-        <v>2.0986641730182733</v>
+        <v>2.1012430725399525</v>
       </c>
       <c r="L521" t="n">
-        <v>2.053178966772704</v>
+        <v>2.2599700671430933</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.3420232543664203</v>
+        <v>1.3286030218227562</v>
       </c>
       <c r="C522" t="n">
-        <v>1.3602331347367165</v>
+        <v>1.337591111598568</v>
       </c>
       <c r="D522" t="n">
-        <v>1.2042134354730354</v>
+        <v>1.2062801697612344</v>
       </c>
       <c r="E522" t="n">
-        <v>1.2109649193423906</v>
+        <v>1.1996266665277</v>
       </c>
       <c r="F522" t="n">
-        <v>1.184719181781997</v>
+        <v>1.154417805591855</v>
       </c>
       <c r="G522" t="n">
-        <v>1.2236424215192343</v>
+        <v>1.2062801697612344</v>
       </c>
       <c r="H522" t="n">
-        <v>1.3420232543664203</v>
+        <v>1.337591111598568</v>
       </c>
       <c r="I522" t="n">
-        <v>1.3602331347367165</v>
+        <v>1.2734860476939172</v>
       </c>
       <c r="J522" t="n">
-        <v>1.2042134354730354</v>
+        <v>1.322141730708983</v>
       </c>
       <c r="K522" t="n">
-        <v>1.2109649193423906</v>
+        <v>1.2123317429263425</v>
       </c>
       <c r="L522" t="n">
-        <v>1.184719181781997</v>
+        <v>1.3039107594292165</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>10.186428892113264</v>
+        <v>10.088482460458328</v>
       </c>
       <c r="C523" t="n">
-        <v>11.23415125584037</v>
+        <v>11.179815156325018</v>
       </c>
       <c r="D523" t="n">
-        <v>10.779919465895347</v>
+        <v>10.85220152293665</v>
       </c>
       <c r="E523" t="n">
-        <v>11.121362807202773</v>
+        <v>10.932291580287723</v>
       </c>
       <c r="F523" t="n">
-        <v>10.496353659085907</v>
+        <v>10.298902724504599</v>
       </c>
       <c r="G523" t="n">
-        <v>10.696034648434019</v>
+        <v>10.858830851274996</v>
       </c>
       <c r="H523" t="n">
-        <v>10.186428892113264</v>
+        <v>9.859071601925042</v>
       </c>
       <c r="I523" t="n">
-        <v>11.23415125584037</v>
+        <v>10.037214063488317</v>
       </c>
       <c r="J523" t="n">
-        <v>10.779919465895347</v>
+        <v>9.624204715811485</v>
       </c>
       <c r="K523" t="n">
-        <v>11.121362807202773</v>
+        <v>9.804691726977712</v>
       </c>
       <c r="L523" t="n">
-        <v>10.496353659085907</v>
+        <v>10.932291580287723</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>3.1617870632526937</v>
+        <v>3.0991774184358083</v>
       </c>
       <c r="C524" t="n">
-        <v>2.9105556229522027</v>
+        <v>2.8751826644872005</v>
       </c>
       <c r="D524" t="n">
-        <v>3.222377869262428</v>
+        <v>3.1315796431105207</v>
       </c>
       <c r="E524" t="n">
-        <v>3.0649342454717905</v>
+        <v>2.9814963243718187</v>
       </c>
       <c r="F524" t="n">
-        <v>3.188715353767093</v>
+        <v>3.0527269172574885</v>
       </c>
       <c r="G524" t="n">
-        <v>3.196329669681054</v>
+        <v>3.0563916553520425</v>
       </c>
       <c r="H524" t="n">
-        <v>3.1617870632526937</v>
+        <v>3.162700930630928</v>
       </c>
       <c r="I524" t="n">
-        <v>2.9105556229522027</v>
+        <v>3.0954094216781556</v>
       </c>
       <c r="J524" t="n">
-        <v>3.222377869262428</v>
+        <v>3.1315796431105207</v>
       </c>
       <c r="K524" t="n">
-        <v>3.0649342454717905</v>
+        <v>2.7568752029545034</v>
       </c>
       <c r="L524" t="n">
-        <v>3.188715353767093</v>
+        <v>2.8898686127266067</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>2.5958863225631554</v>
       </c>
       <c r="C531" t="n">
-        <v>2.8628855018288633</v>
+        <v>2.8766991831365987</v>
       </c>
       <c r="D531" t="n">
-        <v>2.7471301077373584</v>
+        <v>2.792400305348844</v>
       </c>
       <c r="E531" t="n">
-        <v>2.8341427506387835</v>
+        <v>2.8130084280537035</v>
       </c>
       <c r="F531" t="n">
-        <v>2.674866843816365</v>
+        <v>2.650029954924987</v>
       </c>
       <c r="G531" t="n">
-        <v>2.725753092040801</v>
+        <v>2.794106110243559</v>
       </c>
       <c r="H531" t="n">
-        <v>2.5958863225631554</v>
+        <v>2.5368561847551967</v>
       </c>
       <c r="I531" t="n">
-        <v>2.8628855018288633</v>
+        <v>2.5826943552880155</v>
       </c>
       <c r="J531" t="n">
-        <v>2.7471301077373584</v>
+        <v>2.4764221462687503</v>
       </c>
       <c r="K531" t="n">
-        <v>2.8341427506387835</v>
+        <v>2.5228635972523925</v>
       </c>
       <c r="L531" t="n">
-        <v>2.674866843816365</v>
+        <v>2.8130084280537035</v>
       </c>
     </row>
     <row r="532">
@@ -20357,37 +20357,37 @@
         <v>533.0</v>
       </c>
       <c r="B534" t="n">
-        <v>1.969629168845289</v>
+        <v>1.9895244129750393</v>
       </c>
       <c r="C534" t="n">
-        <v>2.1722148394767484</v>
+        <v>2.204743406477259</v>
       </c>
       <c r="D534" t="n">
-        <v>2.0843854154098698</v>
+        <v>2.140135540606023</v>
       </c>
       <c r="E534" t="n">
-        <v>2.1504062723431363</v>
+        <v>2.155929900655819</v>
       </c>
       <c r="F534" t="n">
-        <v>2.029555652173467</v>
+        <v>2.0310208673670203</v>
       </c>
       <c r="G534" t="n">
-        <v>2.068165601278244</v>
+        <v>2.1414428938796655</v>
       </c>
       <c r="H534" t="n">
-        <v>1.969629168845289</v>
+        <v>1.9442828709054103</v>
       </c>
       <c r="I534" t="n">
-        <v>2.1722148394767484</v>
+        <v>1.979413900538137</v>
       </c>
       <c r="J534" t="n">
-        <v>2.0843854154098698</v>
+        <v>1.8979653592723358</v>
       </c>
       <c r="K534" t="n">
-        <v>2.1504062723431363</v>
+        <v>1.9335587516727815</v>
       </c>
       <c r="L534" t="n">
-        <v>2.029555652173467</v>
+        <v>2.155929900655819</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>3.531621252473529</v>
+        <v>3.4969975147041814</v>
       </c>
       <c r="C537" t="n">
-        <v>3.5898072579010347</v>
+        <v>3.534033720908884</v>
       </c>
       <c r="D537" t="n">
-        <v>3.951055044111931</v>
+        <v>3.937923289119866</v>
       </c>
       <c r="E537" t="n">
-        <v>3.8817051355656593</v>
+        <v>3.8729728131092385</v>
       </c>
       <c r="F537" t="n">
-        <v>3.8958547297770254</v>
+        <v>3.854137687484659</v>
       </c>
       <c r="G537" t="n">
-        <v>3.6293262650929403</v>
+        <v>3.5982159433210805</v>
       </c>
       <c r="H537" t="n">
-        <v>3.531621252473529</v>
+        <v>3.8991737375176028</v>
       </c>
       <c r="I537" t="n">
-        <v>3.5898072579010347</v>
+        <v>3.85882927309795</v>
       </c>
       <c r="J537" t="n">
-        <v>3.951055044111931</v>
+        <v>3.9874569140147726</v>
       </c>
       <c r="K537" t="n">
-        <v>3.8817051355656593</v>
+        <v>3.8706083588898808</v>
       </c>
       <c r="L537" t="n">
-        <v>3.8958547297770254</v>
+        <v>3.5163929524023896</v>
       </c>
     </row>
     <row r="538">
@@ -20851,37 +20851,37 @@
         <v>546.0</v>
       </c>
       <c r="B547" t="n">
-        <v>0.5414331421221229</v>
+        <v>0.5471324383549873</v>
       </c>
       <c r="C547" t="n">
-        <v>0.5381050616586531</v>
+        <v>0.5499270985931096</v>
       </c>
       <c r="D547" t="n">
-        <v>0.5321199602726491</v>
+        <v>0.5401179198477619</v>
       </c>
       <c r="E547" t="n">
-        <v>0.5781114374248645</v>
+        <v>0.5915577214162248</v>
       </c>
       <c r="F547" t="n">
-        <v>0.5219157315277488</v>
+        <v>0.5374218235615631</v>
       </c>
       <c r="G547" t="n">
-        <v>0.5811447288648015</v>
+        <v>0.5897574852503938</v>
       </c>
       <c r="H547" t="n">
-        <v>0.5414331421221229</v>
+        <v>0.5890404548929171</v>
       </c>
       <c r="I547" t="n">
-        <v>0.5381050616586531</v>
+        <v>0.6094160678598014</v>
       </c>
       <c r="J547" t="n">
-        <v>0.5321199602726491</v>
+        <v>0.5959234615597855</v>
       </c>
       <c r="K547" t="n">
-        <v>0.5781114374248645</v>
+        <v>0.5143161081359016</v>
       </c>
       <c r="L547" t="n">
-        <v>0.5219157315277488</v>
+        <v>0.6018456821324474</v>
       </c>
     </row>
     <row r="548">
@@ -20930,34 +20930,34 @@
         <v>3.929188057185541</v>
       </c>
       <c r="C549" t="n">
-        <v>3.914950053148816</v>
+        <v>3.917230700892462</v>
       </c>
       <c r="D549" t="n">
-        <v>3.923214732459585</v>
+        <v>3.9315882962226745</v>
       </c>
       <c r="E549" t="n">
-        <v>3.8783442267471897</v>
+        <v>3.8631512849429774</v>
       </c>
       <c r="F549" t="n">
-        <v>3.458051557382251</v>
+        <v>3.484575009904744</v>
       </c>
       <c r="G549" t="n">
-        <v>3.95737401128269</v>
+        <v>3.997521764811232</v>
       </c>
       <c r="H549" t="n">
-        <v>3.929188057185541</v>
+        <v>3.76848671746</v>
       </c>
       <c r="I549" t="n">
-        <v>3.914950053148816</v>
+        <v>3.549922801986617</v>
       </c>
       <c r="J549" t="n">
-        <v>3.923214732459585</v>
+        <v>3.569611779816847</v>
       </c>
       <c r="K549" t="n">
-        <v>3.8783442267471897</v>
+        <v>3.858519209189805</v>
       </c>
       <c r="L549" t="n">
-        <v>3.458051557382251</v>
+        <v>3.587519532425322</v>
       </c>
     </row>
     <row r="550">
@@ -20968,34 +20968,34 @@
         <v>4.218350563944675</v>
       </c>
       <c r="C550" t="n">
-        <v>4.478134672618673</v>
+        <v>4.426062659437286</v>
       </c>
       <c r="D550" t="n">
-        <v>4.291080933082127</v>
+        <v>4.263180650072889</v>
       </c>
       <c r="E550" t="n">
-        <v>4.049767324341715</v>
+        <v>4.038199152322992</v>
       </c>
       <c r="F550" t="n">
-        <v>4.661559721463782</v>
+        <v>4.579165453934257</v>
       </c>
       <c r="G550" t="n">
-        <v>4.607180315463565</v>
+        <v>4.477781719715449</v>
       </c>
       <c r="H550" t="n">
-        <v>4.218350563944675</v>
+        <v>4.447692775684422</v>
       </c>
       <c r="I550" t="n">
-        <v>4.478134672618673</v>
+        <v>3.9419994999919035</v>
       </c>
       <c r="J550" t="n">
-        <v>4.291080933082127</v>
+        <v>4.015925577915351</v>
       </c>
       <c r="K550" t="n">
-        <v>4.049767324341715</v>
+        <v>4.477781719715449</v>
       </c>
       <c r="L550" t="n">
-        <v>4.661559721463782</v>
+        <v>4.038199152322992</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>3.275712252303807</v>
+        <v>3.3418882574008544</v>
       </c>
       <c r="C552" t="n">
-        <v>3.477444653354295</v>
+        <v>3.506443242180916</v>
       </c>
       <c r="D552" t="n">
-        <v>3.3321901949704182</v>
+        <v>3.3774038306418914</v>
       </c>
       <c r="E552" t="n">
-        <v>3.144800851003845</v>
+        <v>3.199167571216418</v>
       </c>
       <c r="F552" t="n">
-        <v>3.619881293167246</v>
+        <v>3.6277353025131958</v>
       </c>
       <c r="G552" t="n">
-        <v>3.5776535826420837</v>
+        <v>3.547416441920337</v>
       </c>
       <c r="H552" t="n">
-        <v>3.275712252303807</v>
+        <v>3.5235791891338226</v>
       </c>
       <c r="I552" t="n">
-        <v>3.477444653354295</v>
+        <v>3.1229556766339344</v>
       </c>
       <c r="J552" t="n">
-        <v>3.3321901949704182</v>
+        <v>3.1815218597861112</v>
       </c>
       <c r="K552" t="n">
-        <v>3.144800851003845</v>
+        <v>3.547416441920337</v>
       </c>
       <c r="L552" t="n">
-        <v>3.619881293167246</v>
+        <v>3.199167571216418</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>3.6567859681002153</v>
+        <v>3.693723200101228</v>
       </c>
       <c r="C554" t="n">
-        <v>3.2549389183851773</v>
+        <v>3.289753473521481</v>
       </c>
       <c r="D554" t="n">
-        <v>3.40580436984391</v>
+        <v>3.4484532693208565</v>
       </c>
       <c r="E554" t="n">
-        <v>3.5037857350649824</v>
+        <v>3.520379294897626</v>
       </c>
       <c r="F554" t="n">
-        <v>3.4082154745609046</v>
+        <v>3.4309286642242003</v>
       </c>
       <c r="G554" t="n">
-        <v>3.7267349424697223</v>
+        <v>3.7095083396120105</v>
       </c>
       <c r="H554" t="n">
-        <v>3.6567859681002153</v>
+        <v>3.6982195154978847</v>
       </c>
       <c r="I554" t="n">
-        <v>3.2549389183851773</v>
+        <v>3.2251457858742643</v>
       </c>
       <c r="J554" t="n">
-        <v>3.40580436984391</v>
+        <v>3.7117743820095046</v>
       </c>
       <c r="K554" t="n">
-        <v>3.5037857350649824</v>
+        <v>3.774021530282675</v>
       </c>
       <c r="L554" t="n">
-        <v>3.4082154745609046</v>
+        <v>3.647163663360929</v>
       </c>
     </row>
     <row r="555">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>1.1398180417911756</v>
+        <v>1.1515687432529405</v>
       </c>
       <c r="C557" t="n">
-        <v>1.2255500555735157</v>
+        <v>1.2453947757920247</v>
       </c>
       <c r="D557" t="n">
-        <v>1.172838203604366</v>
+        <v>1.1796713629352893</v>
       </c>
       <c r="E557" t="n">
-        <v>1.1826646180524045</v>
+        <v>1.2009867127891196</v>
       </c>
       <c r="F557" t="n">
-        <v>1.2019198425216762</v>
+        <v>1.207121150408714</v>
       </c>
       <c r="G557" t="n">
-        <v>1.2493109007655236</v>
+        <v>1.2322986488283623</v>
       </c>
       <c r="H557" t="n">
-        <v>1.1398180417911756</v>
+        <v>1.337702809689647</v>
       </c>
       <c r="I557" t="n">
-        <v>1.2255500555735157</v>
+        <v>1.1796713629352893</v>
       </c>
       <c r="J557" t="n">
-        <v>1.172838203604366</v>
+        <v>1.1289530079806125</v>
       </c>
       <c r="K557" t="n">
-        <v>1.1826646180524045</v>
+        <v>1.2945511066446753</v>
       </c>
       <c r="L557" t="n">
-        <v>1.2019198425216762</v>
+        <v>1.30808577412156</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>4.537872559296811</v>
+        <v>4.494654725398746</v>
       </c>
       <c r="C558" t="n">
-        <v>4.879191031659975</v>
+        <v>4.860864405010189</v>
       </c>
       <c r="D558" t="n">
-        <v>4.669333266797236</v>
+        <v>4.604341249187634</v>
       </c>
       <c r="E558" t="n">
-        <v>4.708454437760593</v>
+        <v>4.6875365760019205</v>
       </c>
       <c r="F558" t="n">
-        <v>4.785113826837202</v>
+        <v>4.7114797224238085</v>
       </c>
       <c r="G558" t="n">
-        <v>4.973788312479527</v>
+        <v>4.809749289836628</v>
       </c>
       <c r="H558" t="n">
-        <v>4.537872559296811</v>
+        <v>5.221149227936375</v>
       </c>
       <c r="I558" t="n">
-        <v>4.879191031659975</v>
+        <v>4.604341249187634</v>
       </c>
       <c r="J558" t="n">
-        <v>4.669333266797236</v>
+        <v>4.406383901789035</v>
       </c>
       <c r="K558" t="n">
-        <v>4.708454437760593</v>
+        <v>5.052725061219057</v>
       </c>
       <c r="L558" t="n">
-        <v>4.785113826837202</v>
+        <v>5.10555183121269</v>
       </c>
     </row>
     <row r="559">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>3.1835463828618606</v>
+        <v>3.2160315500339203</v>
       </c>
       <c r="C568" t="n">
-        <v>3.5337347412046416</v>
+        <v>3.542153259883343</v>
       </c>
       <c r="D568" t="n">
-        <v>3.1630142116463618</v>
+        <v>3.198292821624304</v>
       </c>
       <c r="E568" t="n">
-        <v>3.2159310354748536</v>
+        <v>3.2321654886612774</v>
       </c>
       <c r="F568" t="n">
-        <v>3.5180840134719107</v>
+        <v>3.5661161675213493</v>
       </c>
       <c r="G568" t="n">
-        <v>3.4735596218116087</v>
+        <v>3.4763218743644564</v>
       </c>
       <c r="H568" t="n">
-        <v>3.1835463828618606</v>
+        <v>3.1394179147650645</v>
       </c>
       <c r="I568" t="n">
-        <v>3.5337347412046416</v>
+        <v>3.480495129800406</v>
       </c>
       <c r="J568" t="n">
-        <v>3.1630142116463618</v>
+        <v>3.359504568997137</v>
       </c>
       <c r="K568" t="n">
-        <v>3.2159310354748536</v>
+        <v>3.2160315500339203</v>
       </c>
       <c r="L568" t="n">
-        <v>3.5180840134719107</v>
+        <v>3.5399907713699736</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>1.120852650953417</v>
+        <v>1.1322899229019212</v>
       </c>
       <c r="C576" t="n">
-        <v>1.1139629954819295</v>
+        <v>1.1380734689023644</v>
       </c>
       <c r="D576" t="n">
-        <v>1.101572884436207</v>
+        <v>1.117773385290625</v>
       </c>
       <c r="E576" t="n">
-        <v>1.1967825512942007</v>
+        <v>1.2242279927475768</v>
       </c>
       <c r="F576" t="n">
-        <v>1.0804485092366614</v>
+        <v>1.1121938172701022</v>
       </c>
       <c r="G576" t="n">
-        <v>1.203061946637903</v>
+        <v>1.2205024061683154</v>
       </c>
       <c r="H576" t="n">
-        <v>1.120852650953417</v>
+        <v>1.219018512706201</v>
       </c>
       <c r="I576" t="n">
-        <v>1.1139629954819295</v>
+        <v>1.2611858192265721</v>
       </c>
       <c r="J576" t="n">
-        <v>1.101572884436207</v>
+        <v>1.2332628867221045</v>
       </c>
       <c r="K576" t="n">
-        <v>1.1967825512942007</v>
+        <v>1.064376566995971</v>
       </c>
       <c r="L576" t="n">
-        <v>1.0804485092366614</v>
+        <v>1.2455189150720025</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>3.7977214477214076</v>
+        <v>3.760850365704695</v>
       </c>
       <c r="C577" t="n">
-        <v>3.7743776189592393</v>
+        <v>3.780060155221404</v>
       </c>
       <c r="D577" t="n">
-        <v>3.7323969086330737</v>
+        <v>3.712634334916141</v>
       </c>
       <c r="E577" t="n">
-        <v>4.054990421303492</v>
+        <v>4.066218555077133</v>
       </c>
       <c r="F577" t="n">
-        <v>3.660822386596847</v>
+        <v>3.6941020491419474</v>
       </c>
       <c r="G577" t="n">
-        <v>4.0762665402966665</v>
+        <v>4.053844185787358</v>
       </c>
       <c r="H577" t="n">
-        <v>3.7977214477214076</v>
+        <v>4.048915499982792</v>
       </c>
       <c r="I577" t="n">
-        <v>3.7743776189592393</v>
+        <v>4.188972323717023</v>
       </c>
       <c r="J577" t="n">
-        <v>3.7323969086330737</v>
+        <v>4.096227551554928</v>
       </c>
       <c r="K577" t="n">
-        <v>4.054990421303492</v>
+        <v>3.5352791897813627</v>
       </c>
       <c r="L577" t="n">
-        <v>3.660822386596847</v>
+        <v>4.136935401876221</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>5.164383616009554</v>
+        <v>5.2687145981511625</v>
       </c>
       <c r="C578" t="n">
-        <v>5.320393939806602</v>
+        <v>5.394588865210929</v>
       </c>
       <c r="D578" t="n">
-        <v>4.9849134097367696</v>
+        <v>5.080843720284163</v>
       </c>
       <c r="E578" t="n">
-        <v>5.371678473867819</v>
+        <v>5.476673297664897</v>
       </c>
       <c r="F578" t="n">
-        <v>5.423220846580451</v>
+        <v>5.49339085629785</v>
       </c>
       <c r="G578" t="n">
-        <v>5.401469644360163</v>
+        <v>5.470014728489227</v>
       </c>
       <c r="H578" t="n">
-        <v>5.164383616009554</v>
+        <v>5.106795813279935</v>
       </c>
       <c r="I578" t="n">
-        <v>5.320393939806602</v>
+        <v>5.533932490896403</v>
       </c>
       <c r="J578" t="n">
-        <v>4.9849134097367696</v>
+        <v>5.5889280917736155</v>
       </c>
       <c r="K578" t="n">
-        <v>5.371678473867819</v>
+        <v>5.401064962108767</v>
       </c>
       <c r="L578" t="n">
-        <v>5.423220846580451</v>
+        <v>5.659229072096774</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>6.666822154115296</v>
+        <v>6.601461152604362</v>
       </c>
       <c r="C584" t="n">
-        <v>7.400168939348619</v>
+        <v>7.27088238342816</v>
       </c>
       <c r="D584" t="n">
-        <v>6.623824717461484</v>
+        <v>6.565049343618393</v>
       </c>
       <c r="E584" t="n">
-        <v>6.734640459089872</v>
+        <v>6.634578852922282</v>
       </c>
       <c r="F584" t="n">
-        <v>7.367393975258792</v>
+        <v>7.32007039710734</v>
       </c>
       <c r="G584" t="n">
-        <v>7.2741532414917645</v>
+        <v>7.135752075356255</v>
       </c>
       <c r="H584" t="n">
-        <v>6.666822154115296</v>
+        <v>6.444198411515327</v>
       </c>
       <c r="I584" t="n">
-        <v>7.400168939348619</v>
+        <v>7.14431840414119</v>
       </c>
       <c r="J584" t="n">
-        <v>6.623824717461484</v>
+        <v>6.895964345871403</v>
       </c>
       <c r="K584" t="n">
-        <v>6.734640459089872</v>
+        <v>6.601461152604362</v>
       </c>
       <c r="L584" t="n">
-        <v>7.367393975258792</v>
+        <v>7.266443501628691</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>5.724555230334829</v>
+        <v>5.66843213984135</v>
       </c>
       <c r="C585" t="n">
-        <v>5.566360594163356</v>
+        <v>5.571535860764237</v>
       </c>
       <c r="D585" t="n">
-        <v>4.887005703427274</v>
+        <v>4.844042325045845</v>
       </c>
       <c r="E585" t="n">
-        <v>5.638118469697054</v>
+        <v>5.612654211329239</v>
       </c>
       <c r="F585" t="n">
-        <v>5.480765796780128</v>
+        <v>5.477896605191901</v>
       </c>
       <c r="G585" t="n">
-        <v>5.015754697587671</v>
+        <v>5.087054484334642</v>
       </c>
       <c r="H585" t="n">
-        <v>5.724555230334829</v>
+        <v>5.4713283840243285</v>
       </c>
       <c r="I585" t="n">
-        <v>5.566360594163356</v>
+        <v>5.179441396322725</v>
       </c>
       <c r="J585" t="n">
-        <v>4.887005703427274</v>
+        <v>5.153120127625438</v>
       </c>
       <c r="K585" t="n">
-        <v>5.638118469697054</v>
+        <v>5.547827201071428</v>
       </c>
       <c r="L585" t="n">
-        <v>5.480765796780128</v>
+        <v>4.941080534871024</v>
       </c>
     </row>
     <row r="586">
@@ -22713,37 +22713,37 @@
         <v>595.0</v>
       </c>
       <c r="B596" t="n">
-        <v>0.7796609346089398</v>
+        <v>0.7876986762028464</v>
       </c>
       <c r="C596" t="n">
-        <v>0.72857700517168</v>
+        <v>0.7278458093212677</v>
       </c>
       <c r="D596" t="n">
-        <v>0.8007557603865618</v>
+        <v>0.8070762577114201</v>
       </c>
       <c r="E596" t="n">
-        <v>0.7004022297274091</v>
+        <v>0.6965530753707064</v>
       </c>
       <c r="F596" t="n">
-        <v>0.7197461418491046</v>
+        <v>0.7314972099481194</v>
       </c>
       <c r="G596" t="n">
-        <v>0.7615020152695242</v>
+        <v>0.7683965187180258</v>
       </c>
       <c r="H596" t="n">
-        <v>0.7796609346089398</v>
+        <v>0.7238312158899654</v>
       </c>
       <c r="I596" t="n">
-        <v>0.72857700517168</v>
+        <v>0.760316335178499</v>
       </c>
       <c r="J596" t="n">
-        <v>0.8007557603865618</v>
+        <v>0.8011636104597362</v>
       </c>
       <c r="K596" t="n">
-        <v>0.7004022297274091</v>
+        <v>0.8253496819039964</v>
       </c>
       <c r="L596" t="n">
-        <v>0.7197461418491046</v>
+        <v>0.8016530205223164</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.7476189482901896</v>
+        <v>0.7551706548385754</v>
       </c>
       <c r="C598" t="n">
-        <v>0.7577633713220828</v>
+        <v>0.7602794356634418</v>
       </c>
       <c r="D598" t="n">
-        <v>0.6708473785503084</v>
+        <v>0.6856430180834747</v>
       </c>
       <c r="E598" t="n">
-        <v>0.6746085184958218</v>
+        <v>0.6818612034170098</v>
       </c>
       <c r="F598" t="n">
-        <v>0.6599874523942025</v>
+        <v>0.6561647353549475</v>
       </c>
       <c r="G598" t="n">
-        <v>0.6816709451814705</v>
+        <v>0.6856430180834747</v>
       </c>
       <c r="H598" t="n">
-        <v>0.7476189482901896</v>
+        <v>0.7602794356634418</v>
       </c>
       <c r="I598" t="n">
-        <v>0.7577633713220828</v>
+        <v>0.7238424696982974</v>
       </c>
       <c r="J598" t="n">
-        <v>0.6708473785503084</v>
+        <v>0.7514980924844746</v>
       </c>
       <c r="K598" t="n">
-        <v>0.6746085184958218</v>
+        <v>0.6890826990075994</v>
       </c>
       <c r="L598" t="n">
-        <v>0.6599874523942025</v>
+        <v>0.741135708616947</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>1.1863729512770567</v>
+        <v>1.198478797718659</v>
       </c>
       <c r="C606" t="n">
-        <v>1.009071922048711</v>
+        <v>1.0114550361147676</v>
       </c>
       <c r="D606" t="n">
-        <v>1.1616901928084664</v>
+        <v>1.1598181917826897</v>
       </c>
       <c r="E606" t="n">
-        <v>1.1682886196026863</v>
+        <v>1.1835908627538838</v>
       </c>
       <c r="F606" t="n">
-        <v>1.0660802971990104</v>
+        <v>1.0568947800011184</v>
       </c>
       <c r="G606" t="n">
-        <v>1.0121093137796324</v>
+        <v>1.0317169949163578</v>
       </c>
       <c r="H606" t="n">
-        <v>1.1863729512770567</v>
+        <v>1.1438062958264716</v>
       </c>
       <c r="I606" t="n">
-        <v>1.009071922048711</v>
+        <v>1.0621969280835688</v>
       </c>
       <c r="J606" t="n">
-        <v>1.1616901928084664</v>
+        <v>1.142434825485697</v>
       </c>
       <c r="K606" t="n">
-        <v>1.1682886196026863</v>
+        <v>1.0759916935163842</v>
       </c>
       <c r="L606" t="n">
-        <v>1.0660802971990104</v>
+        <v>1.1157779013132294</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>4.4347656331383964</v>
+        <v>4.391287538695863</v>
       </c>
       <c r="C607" t="n">
-        <v>3.7719989118510115</v>
+        <v>3.7060229221381764</v>
       </c>
       <c r="D607" t="n">
-        <v>4.342499327783297</v>
+        <v>4.24963310358344</v>
       </c>
       <c r="E607" t="n">
-        <v>4.367164823020934</v>
+        <v>4.336737384440169</v>
       </c>
       <c r="F607" t="n">
-        <v>3.9851011935959426</v>
+        <v>3.872516465010601</v>
       </c>
       <c r="G607" t="n">
-        <v>3.783352947231007</v>
+        <v>3.78026377426202</v>
       </c>
       <c r="H607" t="n">
-        <v>4.4347656331383964</v>
+        <v>4.190964698837958</v>
       </c>
       <c r="I607" t="n">
-        <v>3.7719989118510115</v>
+        <v>3.891943806443011</v>
       </c>
       <c r="J607" t="n">
-        <v>4.342499327783297</v>
+        <v>4.185939561448296</v>
       </c>
       <c r="K607" t="n">
-        <v>4.367164823020934</v>
+        <v>3.942488531689436</v>
       </c>
       <c r="L607" t="n">
-        <v>3.9851011935959426</v>
+        <v>4.088267229521072</v>
       </c>
     </row>
     <row r="608">
@@ -23172,34 +23172,34 @@
         <v>2.309928332494608</v>
       </c>
       <c r="C608" t="n">
-        <v>2.3856678756794802</v>
+        <v>2.4003888470931134</v>
       </c>
       <c r="D608" t="n">
-        <v>2.31853990045299</v>
+        <v>2.3562019393643863</v>
       </c>
       <c r="E608" t="n">
-        <v>2.629686965506532</v>
+        <v>2.645534942847112</v>
       </c>
       <c r="F608" t="n">
-        <v>2.5965046657093747</v>
+        <v>2.658463641049708</v>
       </c>
       <c r="G608" t="n">
-        <v>2.4344280748352256</v>
+        <v>2.457315065560987</v>
       </c>
       <c r="H608" t="n">
-        <v>2.309928332494608</v>
+        <v>2.521381796143229</v>
       </c>
       <c r="I608" t="n">
-        <v>2.3856678756794802</v>
+        <v>2.6568406460336282</v>
       </c>
       <c r="J608" t="n">
-        <v>2.31853990045299</v>
+        <v>2.4137021514748027</v>
       </c>
       <c r="K608" t="n">
-        <v>2.629686965506532</v>
+        <v>2.676448328333276</v>
       </c>
       <c r="L608" t="n">
-        <v>2.5965046657093747</v>
+        <v>2.6487553139608955</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>2.969736716866136</v>
+        <v>2.940621651014507</v>
       </c>
       <c r="C609" t="n">
-        <v>2.9643741765704865</v>
+        <v>2.9698452194111438</v>
       </c>
       <c r="D609" t="n">
-        <v>3.0146723025263285</v>
+        <v>3.007201762008276</v>
       </c>
       <c r="E609" t="n">
-        <v>2.9124058299914357</v>
+        <v>2.866577219989077</v>
       </c>
       <c r="F609" t="n">
-        <v>2.8248281649285163</v>
+        <v>2.7996901382202903</v>
       </c>
       <c r="G609" t="n">
-        <v>2.6438149996075966</v>
+        <v>2.637314286957087</v>
       </c>
       <c r="H609" t="n">
-        <v>2.969736716866136</v>
+        <v>2.6519416536418463</v>
       </c>
       <c r="I609" t="n">
-        <v>2.9643741765704865</v>
+        <v>2.9208618221947518</v>
       </c>
       <c r="J609" t="n">
-        <v>3.0146723025263285</v>
+        <v>2.9101952546655854</v>
       </c>
       <c r="K609" t="n">
-        <v>2.9124058299914357</v>
+        <v>2.770249595974777</v>
       </c>
       <c r="L609" t="n">
-        <v>2.8248281649285163</v>
+        <v>2.537925053481418</v>
       </c>
     </row>
     <row r="610">
@@ -23286,34 +23286,34 @@
         <v>5.052984117004081</v>
       </c>
       <c r="C611" t="n">
-        <v>4.49770776848704</v>
+        <v>4.5003567268136075</v>
       </c>
       <c r="D611" t="n">
-        <v>4.706175186781601</v>
+        <v>4.717456792006381</v>
       </c>
       <c r="E611" t="n">
-        <v>4.841566835771566</v>
+        <v>4.815851025994647</v>
       </c>
       <c r="F611" t="n">
-        <v>4.709506875851098</v>
+        <v>4.693483270869836</v>
       </c>
       <c r="G611" t="n">
-        <v>5.14964032263743</v>
+        <v>5.074578062979917</v>
       </c>
       <c r="H611" t="n">
-        <v>5.052984117004081</v>
+        <v>5.0591350408967335</v>
       </c>
       <c r="I611" t="n">
-        <v>4.49770776848704</v>
+        <v>4.411973921218213</v>
       </c>
       <c r="J611" t="n">
-        <v>4.706175186781601</v>
+        <v>5.077677991053217</v>
       </c>
       <c r="K611" t="n">
-        <v>4.841566835771566</v>
+        <v>5.162831597458946</v>
       </c>
       <c r="L611" t="n">
-        <v>4.709506875851098</v>
+        <v>4.989291039071941</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>1.5040106007626834</v>
+        <v>1.5193576477092412</v>
       </c>
       <c r="C616" t="n">
-        <v>1.4054667748612506</v>
+        <v>1.4039100612384579</v>
       </c>
       <c r="D616" t="n">
-        <v>1.5447037279702158</v>
+        <v>1.5567342201837377</v>
       </c>
       <c r="E616" t="n">
-        <v>1.3511160192170089</v>
+        <v>1.3435508704947219</v>
       </c>
       <c r="F616" t="n">
-        <v>1.3884315336923423</v>
+        <v>1.4109530887753339</v>
       </c>
       <c r="G616" t="n">
-        <v>1.4689810052391186</v>
+        <v>1.482126557347096</v>
       </c>
       <c r="H616" t="n">
-        <v>1.5040106007626834</v>
+        <v>1.396166486929439</v>
       </c>
       <c r="I616" t="n">
-        <v>1.4054667748612506</v>
+        <v>1.4665410434614372</v>
       </c>
       <c r="J616" t="n">
-        <v>1.5447037279702158</v>
+        <v>1.5453295725799634</v>
       </c>
       <c r="K616" t="n">
-        <v>1.3511160192170089</v>
+        <v>1.5919810317318583</v>
       </c>
       <c r="L616" t="n">
-        <v>1.3884315336923423</v>
+        <v>1.5462735743206182</v>
       </c>
     </row>
     <row r="617">
@@ -23511,37 +23511,37 @@
         <v>616.0</v>
       </c>
       <c r="B617" t="n">
-        <v>2.938704397347345</v>
+        <v>2.8805122310632387</v>
       </c>
       <c r="C617" t="n">
-        <v>2.978579604684659</v>
+        <v>2.8999990921555763</v>
       </c>
       <c r="D617" t="n">
-        <v>2.636934424687052</v>
+        <v>2.6153069999187633</v>
       </c>
       <c r="E617" t="n">
-        <v>2.6517185316471514</v>
+        <v>2.600881699713348</v>
       </c>
       <c r="F617" t="n">
-        <v>2.5942467522801347</v>
+        <v>2.5028654565322372</v>
       </c>
       <c r="G617" t="n">
-        <v>2.679479176832141</v>
+        <v>2.6153069999187633</v>
       </c>
       <c r="H617" t="n">
-        <v>2.938704397347345</v>
+        <v>2.8999990921555763</v>
       </c>
       <c r="I617" t="n">
-        <v>2.978579604684659</v>
+        <v>2.761014446164706</v>
       </c>
       <c r="J617" t="n">
-        <v>2.636934424687052</v>
+        <v>2.866503661327977</v>
       </c>
       <c r="K617" t="n">
-        <v>2.6517185316471514</v>
+        <v>2.628427270031767</v>
       </c>
       <c r="L617" t="n">
-        <v>2.5942467522801347</v>
+        <v>2.8269775313305576</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.8739920046878664</v>
+        <v>2.9320524492270157</v>
       </c>
       <c r="C618" t="n">
-        <v>2.960812128168145</v>
+        <v>3.0021017840603648</v>
       </c>
       <c r="D618" t="n">
-        <v>2.774116399725311</v>
+        <v>2.827501850152687</v>
       </c>
       <c r="E618" t="n">
-        <v>2.989352095725778</v>
+        <v>3.0477819697558513</v>
       </c>
       <c r="F618" t="n">
-        <v>3.0180355511181185</v>
+        <v>3.057085331671118</v>
       </c>
       <c r="G618" t="n">
-        <v>3.005930954341135</v>
+        <v>3.0440764598641747</v>
       </c>
       <c r="H618" t="n">
-        <v>2.8739920046878664</v>
+        <v>2.8419442528323695</v>
       </c>
       <c r="I618" t="n">
-        <v>2.960812128168145</v>
+        <v>3.07964684962885</v>
       </c>
       <c r="J618" t="n">
-        <v>2.774116399725311</v>
+        <v>3.1102520348680214</v>
       </c>
       <c r="K618" t="n">
-        <v>2.989352095725778</v>
+        <v>3.005705747686977</v>
       </c>
       <c r="L618" t="n">
-        <v>3.0180355511181185</v>
+        <v>3.1493747008806965</v>
       </c>
     </row>
     <row r="619">
@@ -23701,37 +23701,37 @@
         <v>621.0</v>
       </c>
       <c r="B622" t="n">
-        <v>1.1024749051751193</v>
+        <v>1.1140799041769625</v>
       </c>
       <c r="C622" t="n">
-        <v>1.2158696606712487</v>
+        <v>1.2345967242241582</v>
       </c>
       <c r="D622" t="n">
-        <v>1.1667082563311186</v>
+        <v>1.1984180653700696</v>
       </c>
       <c r="E622" t="n">
-        <v>1.203662592273328</v>
+        <v>1.2072624801538523</v>
       </c>
       <c r="F622" t="n">
-        <v>1.136017992914546</v>
+        <v>1.1373167971907916</v>
       </c>
       <c r="G622" t="n">
-        <v>1.157629421426777</v>
+        <v>1.1991501478719613</v>
       </c>
       <c r="H622" t="n">
-        <v>1.1024749051751193</v>
+        <v>1.0887458632750062</v>
       </c>
       <c r="I622" t="n">
-        <v>1.2158696606712487</v>
+        <v>1.1084182904498705</v>
       </c>
       <c r="J622" t="n">
-        <v>1.1667082563311186</v>
+        <v>1.0628093084957015</v>
       </c>
       <c r="K622" t="n">
-        <v>1.203662592273328</v>
+        <v>1.0827406463250902</v>
       </c>
       <c r="L622" t="n">
-        <v>1.136017992914546</v>
+        <v>1.2072624801538523</v>
       </c>
     </row>
     <row r="623">
